--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E4EDF-2C5E-437C-B4C5-725AD983F35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680888F-D574-4606-B5C4-F29B6FDD366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5010" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{9E668519-328E-4E8D-8980-09B3972F3278}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="204">
   <si>
     <t>Ressource</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>Sammelhinweis</t>
+  </si>
+  <si>
+    <t>uptime</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27926E-B51A-449F-86DD-91CC7FF15C35}">
-  <dimension ref="A1:AA271"/>
+  <dimension ref="A1:AA273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
       <c r="A2" s="40">
-        <f t="shared" ref="A2:A131" si="0">ROW(A2)-1</f>
+        <f t="shared" ref="A2:A133" si="0">ROW(A2)-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1498,24 +1501,22 @@
       <c r="C5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="D5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
       <c r="A6" s="40">
@@ -1532,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>96</v>
@@ -1562,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>96</v>
@@ -1592,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>96</v>
@@ -1618,11 +1619,11 @@
       <c r="C9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>4</v>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>96</v>
@@ -1630,14 +1631,14 @@
       <c r="G9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="10" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
       <c r="A10" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1648,52 +1649,52 @@
       <c r="C10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A11" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="G11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A11" s="40">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1715,7 +1716,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>96</v>
@@ -1745,7 +1746,7 @@
         <v>140</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>96</v>
@@ -1771,11 +1772,11 @@
       <c r="D14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>2</v>
+      <c r="E14" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>96</v>
@@ -1783,8 +1784,8 @@
       <c r="H14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>69</v>
+      <c r="I14" s="39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
@@ -1805,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>96</v>
@@ -1835,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>96</v>
@@ -1865,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>96</v>
@@ -1895,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>96</v>
@@ -1925,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>96</v>
@@ -1955,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>96</v>
@@ -1981,11 +1982,11 @@
       <c r="D21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>4</v>
+      <c r="E21" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>96</v>
@@ -1994,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
@@ -2015,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>96</v>
@@ -2045,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>96</v>
@@ -2075,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>96</v>
@@ -2105,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>96</v>
@@ -2117,7 +2118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2135,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>96</v>
@@ -2147,7 +2148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2161,11 +2162,11 @@
       <c r="D27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>1</v>
+      <c r="E27" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>96</v>
@@ -2174,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
@@ -2195,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>96</v>
@@ -2225,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>96</v>
@@ -2255,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>96</v>
@@ -2281,11 +2282,11 @@
       <c r="D31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>3</v>
+      <c r="E31" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>96</v>
@@ -2294,10 +2295,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2315,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>96</v>
@@ -2327,7 +2328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2345,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>96</v>
@@ -2375,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>96</v>
@@ -2405,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>96</v>
@@ -2417,7 +2418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2435,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>96</v>
@@ -2447,7 +2448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2458,49 +2459,49 @@
       <c r="C37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A38" s="40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A38" s="40">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -2522,7 +2523,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>96</v>
@@ -2537,7 +2538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="40" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2548,56 +2549,56 @@
       <c r="C40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A41" s="40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="18" t="s">
+      <c r="F41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="40">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="42" spans="1:9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2611,8 +2612,8 @@
       <c r="D42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>62</v>
+      <c r="E42" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="F42" s="27" t="s">
         <v>96</v>
@@ -2623,68 +2624,68 @@
       <c r="H42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A43" s="40">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A43" s="40">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="17" t="s">
+    <row r="44" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A44" s="40">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" s="18" t="s">
+      <c r="F44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A44" s="40">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
@@ -2702,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="27" t="s">
         <v>96</v>
@@ -2714,70 +2715,70 @@
         <v>16</v>
       </c>
       <c r="I45" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A46" s="40">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A46" s="40">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="17" t="s">
+    <row r="47" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A47" s="40">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="18" t="s">
+      <c r="F47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A47" s="40">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2792,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>96</v>
@@ -2807,7 +2808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="49" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2819,82 +2820,82 @@
         <v>96</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A50" s="40">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E50" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="F50" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A50" s="40">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="17" t="s">
+    <row r="51" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A51" s="40">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="6" t="s">
+      <c r="E51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A51" s="40">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -2912,109 +2913,109 @@
         <v>25</v>
       </c>
       <c r="E52" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A53" s="40">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="6" t="s">
+      <c r="F53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A53" s="40">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="17" t="s">
+    <row r="54" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A54" s="40">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A55" s="40">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="F55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="39" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A54" s="51">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="39" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A55" s="51">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="39" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
@@ -3032,7 +3033,7 @@
         <v>26</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F56" s="48" t="s">
         <v>96</v>
@@ -3062,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>96</v>
@@ -3092,7 +3093,7 @@
         <v>26</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F58" s="48" t="s">
         <v>96</v>
@@ -3122,7 +3123,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F59" s="48" t="s">
         <v>96</v>
@@ -3152,7 +3153,7 @@
         <v>26</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F60" s="48" t="s">
         <v>96</v>
@@ -3182,7 +3183,7 @@
         <v>26</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F61" s="48" t="s">
         <v>96</v>
@@ -3212,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F62" s="48" t="s">
         <v>96</v>
@@ -3242,7 +3243,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F63" s="48" t="s">
         <v>96</v>
@@ -3257,94 +3258,94 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A64" s="40">
+    <row r="64" spans="1:9" s="39" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A64" s="51">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="39" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A65" s="51">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A66" s="40">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E66" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="6" t="s">
+      <c r="F66" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="6" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A65" s="40">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A66" s="40">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F66" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="54" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3365,7 +3366,7 @@
         <v>177</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>96</v>
@@ -3374,7 +3375,7 @@
         <v>13</v>
       </c>
       <c r="I67" s="54" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3395,7 +3396,7 @@
         <v>177</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G68" s="48" t="s">
         <v>96</v>
@@ -3404,7 +3405,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3422,10 +3423,10 @@
         <v>118</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G69" s="48" t="s">
         <v>96</v>
@@ -3434,7 +3435,7 @@
         <v>13</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3452,10 +3453,10 @@
         <v>118</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" s="48" t="s">
         <v>96</v>
@@ -3464,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="I70" s="54" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3485,7 +3486,7 @@
         <v>178</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G71" s="48" t="s">
         <v>96</v>
@@ -3494,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="I71" s="54" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3515,7 +3516,7 @@
         <v>178</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G72" s="48" t="s">
         <v>96</v>
@@ -3524,7 +3525,7 @@
         <v>13</v>
       </c>
       <c r="I72" s="54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3542,10 +3543,10 @@
         <v>118</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G73" s="48" t="s">
         <v>96</v>
@@ -3554,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="I73" s="54" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3572,10 +3573,10 @@
         <v>118</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" s="48" t="s">
         <v>96</v>
@@ -3584,7 +3585,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="54" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3605,7 +3606,7 @@
         <v>179</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G75" s="48" t="s">
         <v>96</v>
@@ -3614,7 +3615,7 @@
         <v>13</v>
       </c>
       <c r="I75" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3635,7 +3636,7 @@
         <v>179</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G76" s="48" t="s">
         <v>96</v>
@@ -3644,7 +3645,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3662,10 +3663,10 @@
         <v>118</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G77" s="48" t="s">
         <v>96</v>
@@ -3674,7 +3675,7 @@
         <v>13</v>
       </c>
       <c r="I77" s="54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3692,10 +3693,10 @@
         <v>118</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" s="48" t="s">
         <v>96</v>
@@ -3704,7 +3705,7 @@
         <v>13</v>
       </c>
       <c r="I78" s="54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3725,7 +3726,7 @@
         <v>180</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G79" s="48" t="s">
         <v>96</v>
@@ -3734,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3755,7 +3756,7 @@
         <v>180</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G80" s="48" t="s">
         <v>96</v>
@@ -3764,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="I80" s="54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3782,10 +3783,10 @@
         <v>118</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G81" s="48" t="s">
         <v>96</v>
@@ -3794,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="I81" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3812,10 +3813,10 @@
         <v>118</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" s="48" t="s">
         <v>96</v>
@@ -3824,7 +3825,7 @@
         <v>13</v>
       </c>
       <c r="I82" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3845,7 +3846,7 @@
         <v>181</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G83" s="48" t="s">
         <v>96</v>
@@ -3854,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="I83" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3875,7 +3876,7 @@
         <v>181</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G84" s="48" t="s">
         <v>96</v>
@@ -3884,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3902,10 +3903,10 @@
         <v>118</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G85" s="48" t="s">
         <v>96</v>
@@ -3914,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="I85" s="54" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3932,10 +3933,10 @@
         <v>118</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" s="48" t="s">
         <v>96</v>
@@ -3944,7 +3945,7 @@
         <v>13</v>
       </c>
       <c r="I86" s="54" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3965,7 +3966,7 @@
         <v>124</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G87" s="48" t="s">
         <v>96</v>
@@ -3974,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="I87" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -3995,7 +3996,7 @@
         <v>124</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G88" s="48" t="s">
         <v>96</v>
@@ -4004,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="54" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4022,10 +4023,10 @@
         <v>118</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G89" s="48" t="s">
         <v>96</v>
@@ -4034,7 +4035,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4052,10 +4053,10 @@
         <v>118</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" s="48" t="s">
         <v>96</v>
@@ -4064,7 +4065,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4085,7 +4086,7 @@
         <v>125</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G91" s="48" t="s">
         <v>96</v>
@@ -4094,7 +4095,7 @@
         <v>13</v>
       </c>
       <c r="I91" s="54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4115,7 +4116,7 @@
         <v>125</v>
       </c>
       <c r="F92" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G92" s="48" t="s">
         <v>96</v>
@@ -4124,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="I92" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4142,10 +4143,10 @@
         <v>118</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G93" s="48" t="s">
         <v>96</v>
@@ -4154,7 +4155,7 @@
         <v>13</v>
       </c>
       <c r="I93" s="54" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4172,10 +4173,10 @@
         <v>118</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G94" s="48" t="s">
         <v>96</v>
@@ -4184,7 +4185,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="54" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4205,7 +4206,7 @@
         <v>182</v>
       </c>
       <c r="F95" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G95" s="48" t="s">
         <v>96</v>
@@ -4214,7 +4215,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4235,7 +4236,7 @@
         <v>182</v>
       </c>
       <c r="F96" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G96" s="48" t="s">
         <v>96</v>
@@ -4244,7 +4245,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4262,10 +4263,10 @@
         <v>118</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F97" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G97" s="48" t="s">
         <v>96</v>
@@ -4274,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="I97" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4292,10 +4293,10 @@
         <v>118</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98" s="48" t="s">
         <v>96</v>
@@ -4304,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4325,7 +4326,7 @@
         <v>183</v>
       </c>
       <c r="F99" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G99" s="48" t="s">
         <v>96</v>
@@ -4334,7 +4335,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4355,7 +4356,7 @@
         <v>183</v>
       </c>
       <c r="F100" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G100" s="48" t="s">
         <v>96</v>
@@ -4364,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="I100" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4382,10 +4383,10 @@
         <v>118</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="G101" s="48" t="s">
         <v>96</v>
@@ -4394,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="I101" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4412,10 +4413,10 @@
         <v>118</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F102" s="48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" s="48" t="s">
         <v>96</v>
@@ -4424,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4445,7 +4446,7 @@
         <v>184</v>
       </c>
       <c r="F103" s="48" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G103" s="48" t="s">
         <v>96</v>
@@ -4454,7 +4455,7 @@
         <v>13</v>
       </c>
       <c r="I103" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4475,80 +4476,76 @@
         <v>184</v>
       </c>
       <c r="F104" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A105" s="40">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" s="39" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A106" s="40">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="54" t="s">
+      <c r="G106" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="54" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A105" s="40">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="J105" s="53"/>
-    </row>
-    <row r="106" spans="1:27" s="39" customFormat="1" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A106" s="51">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="B106" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F106" s="45">
-        <v>1</v>
-      </c>
-      <c r="G106" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H106" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="J106" s="45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -4562,49 +4559,32 @@
       <c r="C107" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F107" s="45">
-        <v>2</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H107" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="N107" s="39"/>
-      <c r="O107" s="39"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="39"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39"/>
-      <c r="V107" s="39"/>
-      <c r="W107" s="39"/>
-      <c r="X107" s="39"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-    </row>
-    <row r="108" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A108" s="40">
+      <c r="E107" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J107" s="53"/>
+    </row>
+    <row r="108" spans="1:27" s="39" customFormat="1" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A108" s="51">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -4617,9 +4597,9 @@
         <v>103</v>
       </c>
       <c r="F108" s="45">
-        <v>3</v>
-      </c>
-      <c r="G108" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="50" t="s">
         <v>96</v>
       </c>
       <c r="H108" s="48" t="s">
@@ -4628,24 +4608,9 @@
       <c r="I108" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
-      <c r="N108" s="39"/>
-      <c r="O108" s="39"/>
-      <c r="P108" s="39"/>
-      <c r="Q108" s="39"/>
-      <c r="R108" s="39"/>
-      <c r="S108" s="39"/>
-      <c r="T108" s="39"/>
-      <c r="U108" s="39"/>
-      <c r="V108" s="39"/>
-      <c r="W108" s="39"/>
-      <c r="X108" s="39"/>
-      <c r="Y108" s="39"/>
-      <c r="Z108" s="39"/>
-      <c r="AA108" s="39"/>
+      <c r="J108" s="45" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="109" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
       <c r="A109" s="40">
@@ -4665,7 +4630,7 @@
         <v>103</v>
       </c>
       <c r="F109" s="45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>96</v>
@@ -4713,7 +4678,7 @@
         <v>103</v>
       </c>
       <c r="F110" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>96</v>
@@ -4761,7 +4726,7 @@
         <v>103</v>
       </c>
       <c r="F111" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>96</v>
@@ -4809,7 +4774,7 @@
         <v>103</v>
       </c>
       <c r="F112" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G112" s="27" t="s">
         <v>96</v>
@@ -4857,7 +4822,7 @@
         <v>103</v>
       </c>
       <c r="F113" s="45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G113" s="27" t="s">
         <v>96</v>
@@ -4905,7 +4870,7 @@
         <v>103</v>
       </c>
       <c r="F114" s="45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G114" s="27" t="s">
         <v>96</v>
@@ -4953,7 +4918,7 @@
         <v>103</v>
       </c>
       <c r="F115" s="45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115" s="27" t="s">
         <v>96</v>
@@ -4997,11 +4962,11 @@
       <c r="D116" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="21" t="s">
-        <v>5</v>
+      <c r="E116" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="F116" s="45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>96</v>
@@ -5045,11 +5010,11 @@
       <c r="D117" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="21" t="s">
-        <v>5</v>
+      <c r="E117" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="F117" s="45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>96</v>
@@ -5097,7 +5062,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>96</v>
@@ -5145,7 +5110,7 @@
         <v>5</v>
       </c>
       <c r="F119" s="45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>96</v>
@@ -5193,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="F120" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>96</v>
@@ -5241,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="F121" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>96</v>
@@ -5289,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>96</v>
@@ -5337,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="F123" s="45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G123" s="27" t="s">
         <v>96</v>
@@ -5385,7 +5350,7 @@
         <v>5</v>
       </c>
       <c r="F124" s="45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>96</v>
@@ -5433,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="F125" s="45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>96</v>
@@ -5463,7 +5428,7 @@
       <c r="Z125" s="39"/>
       <c r="AA125" s="39"/>
     </row>
-    <row r="126" spans="1:27" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="126" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -5474,83 +5439,119 @@
       <c r="C126" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="45">
+        <v>9</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H126" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
+      <c r="M126" s="39"/>
+      <c r="N126" s="39"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="39"/>
+      <c r="Q126" s="39"/>
+      <c r="R126" s="39"/>
+      <c r="S126" s="39"/>
+      <c r="T126" s="39"/>
+      <c r="U126" s="39"/>
+      <c r="V126" s="39"/>
+      <c r="W126" s="39"/>
+      <c r="X126" s="39"/>
+      <c r="Y126" s="39"/>
+      <c r="Z126" s="39"/>
+      <c r="AA126" s="39"/>
+    </row>
+    <row r="127" spans="1:27" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A127" s="40">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="45">
+        <v>10</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
+      <c r="M127" s="39"/>
+      <c r="N127" s="39"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="39"/>
+      <c r="Q127" s="39"/>
+      <c r="R127" s="39"/>
+      <c r="S127" s="39"/>
+      <c r="T127" s="39"/>
+      <c r="U127" s="39"/>
+      <c r="V127" s="39"/>
+      <c r="W127" s="39"/>
+      <c r="X127" s="39"/>
+      <c r="Y127" s="39"/>
+      <c r="Z127" s="39"/>
+      <c r="AA127" s="39"/>
+    </row>
+    <row r="128" spans="1:27" s="6" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A128" s="40">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E128" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F128" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G126" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" s="6" t="s">
+      <c r="G128" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="6" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A127" s="40">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H127" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A128" s="40">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H128" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5571,7 +5572,7 @@
         <v>29</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>96</v>
@@ -5580,7 +5581,7 @@
         <v>13</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5601,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>96</v>
@@ -5610,7 +5611,7 @@
         <v>13</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5631,7 +5632,7 @@
         <v>29</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>96</v>
@@ -5640,12 +5641,12 @@
         <v>13</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
       <c r="A132" s="40">
-        <f t="shared" ref="A132:A180" si="1">ROW(A132)-1</f>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="B132" s="40" t="s">
@@ -5657,11 +5658,11 @@
       <c r="D132" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E132" s="31" t="s">
-        <v>31</v>
+      <c r="E132" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>96</v>
@@ -5670,12 +5671,12 @@
         <v>13</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
       <c r="A133" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="B133" s="40" t="s">
@@ -5687,11 +5688,11 @@
       <c r="D133" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="31" t="s">
-        <v>31</v>
+      <c r="E133" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>96</v>
@@ -5700,12 +5701,12 @@
         <v>13</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
       <c r="A134" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A134:A182" si="1">ROW(A134)-1</f>
         <v>133</v>
       </c>
       <c r="B134" s="40" t="s">
@@ -5721,7 +5722,7 @@
         <v>31</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="G134" s="27" t="s">
         <v>96</v>
@@ -5730,7 +5731,7 @@
         <v>13</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5751,7 +5752,7 @@
         <v>31</v>
       </c>
       <c r="F135" s="27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135" s="27" t="s">
         <v>96</v>
@@ -5760,7 +5761,7 @@
         <v>13</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5781,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="F136" s="27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" s="27" t="s">
         <v>96</v>
@@ -5790,7 +5791,7 @@
         <v>13</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
@@ -5811,7 +5812,7 @@
         <v>31</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>96</v>
@@ -5820,10 +5821,10 @@
         <v>13</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -5834,83 +5835,83 @@
       <c r="C138" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D138" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E138" s="31">
-        <v>1</v>
-      </c>
-      <c r="F138" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H138" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A139" s="51">
+      <c r="D138" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D139" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E139" s="49">
-        <v>2</v>
-      </c>
-      <c r="F139" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G139" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H139" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" s="47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A140" s="51">
+      <c r="D139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D140" s="45" t="s">
+      <c r="D140" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E140" s="49">
-        <v>3</v>
-      </c>
-      <c r="F140" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G140" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H140" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="47" t="s">
-        <v>108</v>
+      <c r="E140" s="31">
+        <v>1</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G140" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="34" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -5928,7 +5929,7 @@
         <v>64</v>
       </c>
       <c r="E141" s="49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F141" s="49" t="s">
         <v>96</v>
@@ -5940,7 +5941,7 @@
         <v>13</v>
       </c>
       <c r="I141" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -5958,7 +5959,7 @@
         <v>64</v>
       </c>
       <c r="E142" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F142" s="49" t="s">
         <v>96</v>
@@ -5970,7 +5971,7 @@
         <v>13</v>
       </c>
       <c r="I142" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -5988,7 +5989,7 @@
         <v>64</v>
       </c>
       <c r="E143" s="49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F143" s="49" t="s">
         <v>96</v>
@@ -6000,7 +6001,7 @@
         <v>13</v>
       </c>
       <c r="I143" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -6018,7 +6019,7 @@
         <v>64</v>
       </c>
       <c r="E144" s="49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F144" s="49" t="s">
         <v>96</v>
@@ -6030,7 +6031,7 @@
         <v>13</v>
       </c>
       <c r="I144" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -6048,7 +6049,7 @@
         <v>64</v>
       </c>
       <c r="E145" s="49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F145" s="49" t="s">
         <v>96</v>
@@ -6060,7 +6061,7 @@
         <v>13</v>
       </c>
       <c r="I145" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -6078,7 +6079,7 @@
         <v>64</v>
       </c>
       <c r="E146" s="49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F146" s="49" t="s">
         <v>96</v>
@@ -6090,7 +6091,7 @@
         <v>13</v>
       </c>
       <c r="I146" s="47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
@@ -6108,7 +6109,7 @@
         <v>64</v>
       </c>
       <c r="E147" s="49">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F147" s="49" t="s">
         <v>96</v>
@@ -6120,70 +6121,70 @@
         <v>13</v>
       </c>
       <c r="I147" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A148" s="40">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A148" s="51">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B148" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D148" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F148" s="33">
-        <v>1</v>
-      </c>
-      <c r="G148" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H148" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A149" s="40">
+      <c r="D148" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="49">
+        <v>9</v>
+      </c>
+      <c r="F148" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G148" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A149" s="51">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="B149" s="40" t="s">
+      <c r="B149" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="27">
-        <v>2</v>
-      </c>
-      <c r="G149" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H149" s="27" t="s">
+      <c r="D149" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="49">
+        <v>10</v>
+      </c>
+      <c r="F149" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G149" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149" s="50" t="s">
         <v>13</v>
       </c>
       <c r="I149" s="47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -6194,22 +6195,22 @@
       <c r="C150" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E150" s="35" t="s">
+      <c r="E150" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F150" s="27">
-        <v>3</v>
-      </c>
-      <c r="G150" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H150" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="47" t="s">
+      <c r="F150" s="33">
+        <v>1</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="34" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6231,7 +6232,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" s="27" t="s">
         <v>96</v>
@@ -6261,7 +6262,7 @@
         <v>34</v>
       </c>
       <c r="F152" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G152" s="27" t="s">
         <v>96</v>
@@ -6291,7 +6292,7 @@
         <v>34</v>
       </c>
       <c r="F153" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G153" s="27" t="s">
         <v>96</v>
@@ -6321,7 +6322,7 @@
         <v>34</v>
       </c>
       <c r="F154" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G154" s="27" t="s">
         <v>96</v>
@@ -6351,7 +6352,7 @@
         <v>34</v>
       </c>
       <c r="F155" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G155" s="27" t="s">
         <v>96</v>
@@ -6381,7 +6382,7 @@
         <v>34</v>
       </c>
       <c r="F156" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G156" s="27" t="s">
         <v>96</v>
@@ -6411,7 +6412,7 @@
         <v>34</v>
       </c>
       <c r="F157" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G157" s="27" t="s">
         <v>96</v>
@@ -6423,7 +6424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="34" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="158" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A158" s="40">
         <f t="shared" si="1"/>
         <v>157</v>
@@ -6434,22 +6435,22 @@
       <c r="C158" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D158" s="32" t="s">
+      <c r="D158" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E158" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F158" s="33">
-        <v>1</v>
-      </c>
-      <c r="G158" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H158" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="34" t="s">
+      <c r="E158" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" s="27">
+        <v>9</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H158" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="47" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6467,11 +6468,11 @@
       <c r="D159" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E159" s="36" t="s">
-        <v>35</v>
+      <c r="E159" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="F159" s="27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G159" s="27" t="s">
         <v>96</v>
@@ -6483,7 +6484,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="160" spans="1:9" s="34" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A160" s="40">
         <f t="shared" si="1"/>
         <v>159</v>
@@ -6494,22 +6495,22 @@
       <c r="C160" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E160" s="36" t="s">
+      <c r="E160" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F160" s="27">
-        <v>3</v>
-      </c>
-      <c r="G160" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H160" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="47" t="s">
+      <c r="F160" s="33">
+        <v>1</v>
+      </c>
+      <c r="G160" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H160" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="34" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6531,7 +6532,7 @@
         <v>35</v>
       </c>
       <c r="F161" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G161" s="27" t="s">
         <v>96</v>
@@ -6561,7 +6562,7 @@
         <v>35</v>
       </c>
       <c r="F162" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>96</v>
@@ -6591,7 +6592,7 @@
         <v>35</v>
       </c>
       <c r="F163" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G163" s="27" t="s">
         <v>96</v>
@@ -6621,7 +6622,7 @@
         <v>35</v>
       </c>
       <c r="F164" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G164" s="27" t="s">
         <v>96</v>
@@ -6651,7 +6652,7 @@
         <v>35</v>
       </c>
       <c r="F165" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G165" s="27" t="s">
         <v>96</v>
@@ -6681,7 +6682,7 @@
         <v>35</v>
       </c>
       <c r="F166" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G166" s="27" t="s">
         <v>96</v>
@@ -6711,7 +6712,7 @@
         <v>35</v>
       </c>
       <c r="F167" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G167" s="27" t="s">
         <v>96</v>
@@ -6723,7 +6724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="168" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A168" s="40">
         <f t="shared" si="1"/>
         <v>167</v>
@@ -6734,82 +6735,82 @@
       <c r="C168" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D168" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E168" s="31">
-        <v>1</v>
-      </c>
-      <c r="F168" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G168" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H168" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A169" s="51">
+      <c r="D168" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168" s="27">
+        <v>9</v>
+      </c>
+      <c r="G168" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H168" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B169" s="51" t="s">
+      <c r="B169" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D169" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E169" s="49">
-        <v>1</v>
-      </c>
-      <c r="F169" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G169" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H169" s="50" t="s">
+      <c r="D169" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" s="27">
+        <v>10</v>
+      </c>
+      <c r="G169" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H169" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I169" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A170" s="51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="B170" s="51" t="s">
+      <c r="B170" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D170" s="45" t="s">
+      <c r="D170" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E170" s="49">
+      <c r="E170" s="31">
         <v>1</v>
       </c>
-      <c r="F170" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="G170" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H170" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="47" t="s">
+      <c r="F170" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G170" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H170" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="34" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6831,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G171" s="49" t="s">
         <v>96</v>
@@ -6858,10 +6859,10 @@
         <v>121</v>
       </c>
       <c r="E172" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G172" s="49" t="s">
         <v>96</v>
@@ -6888,10 +6889,10 @@
         <v>121</v>
       </c>
       <c r="E173" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G173" s="49" t="s">
         <v>96</v>
@@ -6921,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="F174" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G174" s="49" t="s">
         <v>96</v>
@@ -6951,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="F175" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G175" s="49" t="s">
         <v>96</v>
@@ -6978,10 +6979,10 @@
         <v>121</v>
       </c>
       <c r="E176" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F176" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G176" s="49" t="s">
         <v>96</v>
@@ -7008,10 +7009,10 @@
         <v>121</v>
       </c>
       <c r="E177" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G177" s="49" t="s">
         <v>96</v>
@@ -7041,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="F178" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G178" s="49" t="s">
         <v>96</v>
@@ -7071,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="F179" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G179" s="49" t="s">
         <v>96</v>
@@ -7083,45 +7084,97 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A180" s="40">
+    <row r="180" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A180" s="51">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B180" s="40" t="s">
+      <c r="B180" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D180" s="32" t="s">
+      <c r="D180" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" s="49">
+        <v>3</v>
+      </c>
+      <c r="F180" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G180" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H180" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="47" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A181" s="51">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D181" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E181" s="49">
+        <v>3</v>
+      </c>
+      <c r="F181" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G181" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="34" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A182" s="40">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E180" s="31" t="s">
+      <c r="E182" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F180" s="31" t="s">
+      <c r="F182" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G180" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H180" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="34" t="s">
+      <c r="G182" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H182" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.75" thickTop="1">
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-    </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="15.75" thickTop="1">
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
     </row>
@@ -7477,10 +7530,18 @@
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
     </row>
+    <row r="272" spans="4:5">
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G48 G5:G39" xr:uid="{1F03BB8B-042F-4A2F-9E83-B52FD12070A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47:G49 G6:G40" xr:uid="{1F03BB8B-042F-4A2F-9E83-B52FD12070A9}">
       <formula1>$A$2:$C$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramit\Documents\work\R2Q-Shiny-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46E2E6-D63A-4A87-A309-CE54EDC70358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D781CE-A465-4674-8F7D-98C55527BADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E668519-328E-4E8D-8980-09B3972F3278}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E668519-328E-4E8D-8980-09B3972F3278}"/>
   </bookViews>
   <sheets>
     <sheet name="Musterdatensatz" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="207">
   <si>
     <t>Ressource</t>
   </si>
@@ -660,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,9 +1113,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1427,28 +1427,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27926E-B51A-449F-86DD-91CC7FF15C35}">
-  <dimension ref="A1:AA274"/>
+  <dimension ref="A1:AA294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="23" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="35" customWidth="1"/>
     <col min="5" max="5" width="25" style="35" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="9"/>
+    <col min="6" max="6" width="29.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55">
         <f>ROW(A1)-1</f>
         <v>0</v>
@@ -1478,9 +1478,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38">
-        <f t="shared" ref="A2:A134" si="0">ROW(A2)-1</f>
+        <f t="shared" ref="A2:A154" si="0">ROW(A2)-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -1508,7 +1508,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="6" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1658,7 +1658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="8" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1688,7 +1688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="9" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1718,7 +1718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="10" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1748,7 +1748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="11" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1778,7 +1778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1808,7 +1808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="13" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1838,7 +1838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="14" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1868,7 +1868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="15" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1898,7 +1898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" thickTop="1" thickBot="1">
+    <row r="16" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1928,7 +1928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="17" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1958,7 +1958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="18" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1988,7 +1988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="19" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2018,7 +2018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="20" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2048,7 +2048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="21" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2078,7 +2078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="22" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2108,7 +2108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="23" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2138,7 +2138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="24" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2168,7 +2168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="25" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2198,7 +2198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2228,7 +2228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2258,7 +2258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2288,7 +2288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="29" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2318,7 +2318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="30" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2348,7 +2348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="31" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2378,7 +2378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="32" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2408,7 +2408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="33" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2438,7 +2438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2468,7 +2468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="35" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2498,7 +2498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="36" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2528,7 +2528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2558,7 +2558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2588,7 +2588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2618,7 +2618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="40" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="38">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2648,7 +2648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="41" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2678,7 +2678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2708,7 +2708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:9" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2738,7 +2738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="44" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="38">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2768,7 +2768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2798,7 +2798,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="46" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="38">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2828,7 +2828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="47" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2858,7 +2858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2888,7 +2888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="49" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2918,7 +2918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2948,7 +2948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="38">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2978,7 +2978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3008,7 +3008,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3038,7 +3038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3068,7 +3068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="38">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3098,7 +3098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="38">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3128,7 +3128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="49">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3158,7 +3158,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="49">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3188,7 +3188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="49">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3218,7 +3218,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="49">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3248,7 +3248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="49">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3278,7 +3278,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3308,7 +3308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="49">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3338,7 +3338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="49">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3368,7 +3368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="49">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3398,7 +3398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="37" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:9" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="49">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3428,7 +3428,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="67" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="38">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3458,7 +3458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="68" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3488,7 +3488,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="69" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="38">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3518,7 +3518,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="70" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="38">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3548,7 +3548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="71" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3578,7 +3578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="72" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="38">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3608,7 +3608,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="73" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="38">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3638,7 +3638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="74" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3668,7 +3668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="75" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="38">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3698,7 +3698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="76" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="38">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -3728,7 +3728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="77" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="38">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -3758,7 +3758,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="78" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -3788,7 +3788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="79" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -3818,7 +3818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="80" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="38">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -3848,7 +3848,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="81" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="38">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -3878,7 +3878,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="82" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="38">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -3908,7 +3908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="83" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="38">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -3938,7 +3938,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="84" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="38">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3968,7 +3968,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="85" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="38">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3998,7 +3998,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="86" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="38">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -4028,7 +4028,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="87" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="38">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -4058,7 +4058,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="88" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="38">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -4088,7 +4088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="89" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="38">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -4118,7 +4118,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="90" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="38">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -4148,7 +4148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="91" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="38">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -4178,7 +4178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="92" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="38">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -4208,7 +4208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="93" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="38">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -4238,7 +4238,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="94" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="38">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -4268,7 +4268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="95" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="38">
         <f t="shared" si="0"/>
         <v>94</v>
@@ -4298,7 +4298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="96" spans="1:9" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="38">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -4328,7 +4328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="97" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="38">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -4358,7 +4358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="98" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="38">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -4388,7 +4388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="99" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="38">
         <f t="shared" si="0"/>
         <v>98</v>
@@ -4418,7 +4418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="100" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="38">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -4448,7 +4448,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="101" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="38">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4478,7 +4478,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="102" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="38">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -4508,7 +4508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="103" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="38">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -4538,7 +4538,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="104" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="38">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -4568,7 +4568,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="105" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="38">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -4598,7 +4598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="106" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="38">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -4628,7 +4628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="37" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="107" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="38">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -4658,7 +4658,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="108" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="38">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="J108" s="51"/>
     </row>
-    <row r="109" spans="1:27" s="37" customFormat="1" ht="61.5" thickTop="1" thickBot="1">
+    <row r="109" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="49">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -4722,7 +4722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="110" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="38">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -4770,7 +4770,7 @@
       <c r="Z110" s="37"/>
       <c r="AA110" s="37"/>
     </row>
-    <row r="111" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="111" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="38">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -4818,7 +4818,7 @@
       <c r="Z111" s="37"/>
       <c r="AA111" s="37"/>
     </row>
-    <row r="112" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="112" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="38">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -4866,7 +4866,7 @@
       <c r="Z112" s="37"/>
       <c r="AA112" s="37"/>
     </row>
-    <row r="113" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="113" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="38">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -4914,7 +4914,7 @@
       <c r="Z113" s="37"/>
       <c r="AA113" s="37"/>
     </row>
-    <row r="114" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="114" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="38">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -4962,7 +4962,7 @@
       <c r="Z114" s="37"/>
       <c r="AA114" s="37"/>
     </row>
-    <row r="115" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="115" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="38">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -5010,7 +5010,7 @@
       <c r="Z115" s="37"/>
       <c r="AA115" s="37"/>
     </row>
-    <row r="116" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="116" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="38">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -5058,7 +5058,7 @@
       <c r="Z116" s="37"/>
       <c r="AA116" s="37"/>
     </row>
-    <row r="117" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="117" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="38">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -5106,7 +5106,7 @@
       <c r="Z117" s="37"/>
       <c r="AA117" s="37"/>
     </row>
-    <row r="118" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="118" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="38">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -5154,12 +5154,12 @@
       <c r="Z118" s="37"/>
       <c r="AA118" s="37"/>
     </row>
-    <row r="119" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A119" s="38">
+    <row r="119" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="49">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -5168,13 +5168,13 @@
       <c r="D119" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="19" t="s">
-        <v>5</v>
+      <c r="E119" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F119" s="43">
-        <v>1</v>
-      </c>
-      <c r="G119" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="48" t="s">
         <v>96</v>
       </c>
       <c r="H119" s="46" t="s">
@@ -5183,26 +5183,11 @@
       <c r="I119" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J119" s="37"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="37"/>
-      <c r="O119" s="37"/>
-      <c r="P119" s="37"/>
-      <c r="Q119" s="37"/>
-      <c r="R119" s="37"/>
-      <c r="S119" s="37"/>
-      <c r="T119" s="37"/>
-      <c r="U119" s="37"/>
-      <c r="V119" s="37"/>
-      <c r="W119" s="37"/>
-      <c r="X119" s="37"/>
-      <c r="Y119" s="37"/>
-      <c r="Z119" s="37"/>
-      <c r="AA119" s="37"/>
-    </row>
-    <row r="120" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="J119" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="38">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -5216,11 +5201,11 @@
       <c r="D120" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E120" s="19" t="s">
-        <v>5</v>
+      <c r="E120" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F120" s="43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G120" s="25" t="s">
         <v>96</v>
@@ -5250,7 +5235,7 @@
       <c r="Z120" s="37"/>
       <c r="AA120" s="37"/>
     </row>
-    <row r="121" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="121" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -5264,11 +5249,11 @@
       <c r="D121" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="19" t="s">
-        <v>5</v>
+      <c r="E121" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F121" s="43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>96</v>
@@ -5298,7 +5283,7 @@
       <c r="Z121" s="37"/>
       <c r="AA121" s="37"/>
     </row>
-    <row r="122" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="122" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="38">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -5312,11 +5297,11 @@
       <c r="D122" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>5</v>
+      <c r="E122" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F122" s="43">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>96</v>
@@ -5346,7 +5331,7 @@
       <c r="Z122" s="37"/>
       <c r="AA122" s="37"/>
     </row>
-    <row r="123" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="123" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="38">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -5360,11 +5345,11 @@
       <c r="D123" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="19" t="s">
-        <v>5</v>
+      <c r="E123" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F123" s="43">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>96</v>
@@ -5394,7 +5379,7 @@
       <c r="Z123" s="37"/>
       <c r="AA123" s="37"/>
     </row>
-    <row r="124" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="124" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="38">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -5408,11 +5393,11 @@
       <c r="D124" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="19" t="s">
-        <v>5</v>
+      <c r="E124" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F124" s="43">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>96</v>
@@ -5442,7 +5427,7 @@
       <c r="Z124" s="37"/>
       <c r="AA124" s="37"/>
     </row>
-    <row r="125" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="125" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="38">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -5456,11 +5441,11 @@
       <c r="D125" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="19" t="s">
-        <v>5</v>
+      <c r="E125" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F125" s="43">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>96</v>
@@ -5490,7 +5475,7 @@
       <c r="Z125" s="37"/>
       <c r="AA125" s="37"/>
     </row>
-    <row r="126" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="126" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="38">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -5504,11 +5489,11 @@
       <c r="D126" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E126" s="19" t="s">
-        <v>5</v>
+      <c r="E126" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F126" s="43">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>96</v>
@@ -5538,7 +5523,7 @@
       <c r="Z126" s="37"/>
       <c r="AA126" s="37"/>
     </row>
-    <row r="127" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="127" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="38">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -5552,11 +5537,11 @@
       <c r="D127" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="19" t="s">
-        <v>5</v>
+      <c r="E127" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F127" s="43">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G127" s="25" t="s">
         <v>96</v>
@@ -5586,7 +5571,7 @@
       <c r="Z127" s="37"/>
       <c r="AA127" s="37"/>
     </row>
-    <row r="128" spans="1:27" s="4" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    <row r="128" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="38">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -5600,11 +5585,11 @@
       <c r="D128" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="19" t="s">
-        <v>5</v>
+      <c r="E128" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F128" s="43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>96</v>
@@ -5634,7 +5619,7 @@
       <c r="Z128" s="37"/>
       <c r="AA128" s="37"/>
     </row>
-    <row r="129" spans="1:9" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    <row r="129" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="38">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -5645,806 +5630,1166 @@
       <c r="C129" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="43">
+        <v>1</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H129" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
+      <c r="W129" s="37"/>
+      <c r="X129" s="37"/>
+      <c r="Y129" s="37"/>
+      <c r="Z129" s="37"/>
+      <c r="AA129" s="37"/>
+    </row>
+    <row r="130" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="38">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="43">
+        <v>2</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H130" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="37"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="37"/>
+      <c r="V130" s="37"/>
+      <c r="W130" s="37"/>
+      <c r="X130" s="37"/>
+      <c r="Y130" s="37"/>
+      <c r="Z130" s="37"/>
+      <c r="AA130" s="37"/>
+    </row>
+    <row r="131" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="38">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="43">
+        <v>3</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J131" s="37"/>
+      <c r="K131" s="37"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="37"/>
+      <c r="O131" s="37"/>
+      <c r="P131" s="37"/>
+      <c r="Q131" s="37"/>
+      <c r="R131" s="37"/>
+      <c r="S131" s="37"/>
+      <c r="T131" s="37"/>
+      <c r="U131" s="37"/>
+      <c r="V131" s="37"/>
+      <c r="W131" s="37"/>
+      <c r="X131" s="37"/>
+      <c r="Y131" s="37"/>
+      <c r="Z131" s="37"/>
+      <c r="AA131" s="37"/>
+    </row>
+    <row r="132" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="38">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="43">
+        <v>4</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H132" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="37"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="37"/>
+      <c r="Q132" s="37"/>
+      <c r="R132" s="37"/>
+      <c r="S132" s="37"/>
+      <c r="T132" s="37"/>
+      <c r="U132" s="37"/>
+      <c r="V132" s="37"/>
+      <c r="W132" s="37"/>
+      <c r="X132" s="37"/>
+      <c r="Y132" s="37"/>
+      <c r="Z132" s="37"/>
+      <c r="AA132" s="37"/>
+    </row>
+    <row r="133" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="38">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="43">
+        <v>5</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="37"/>
+      <c r="R133" s="37"/>
+      <c r="S133" s="37"/>
+      <c r="T133" s="37"/>
+      <c r="U133" s="37"/>
+      <c r="V133" s="37"/>
+      <c r="W133" s="37"/>
+      <c r="X133" s="37"/>
+      <c r="Y133" s="37"/>
+      <c r="Z133" s="37"/>
+      <c r="AA133" s="37"/>
+    </row>
+    <row r="134" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="38">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="43">
+        <v>6</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
+      <c r="Q134" s="37"/>
+      <c r="R134" s="37"/>
+      <c r="S134" s="37"/>
+      <c r="T134" s="37"/>
+      <c r="U134" s="37"/>
+      <c r="V134" s="37"/>
+      <c r="W134" s="37"/>
+      <c r="X134" s="37"/>
+      <c r="Y134" s="37"/>
+      <c r="Z134" s="37"/>
+      <c r="AA134" s="37"/>
+    </row>
+    <row r="135" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="38">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="43">
+        <v>7</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H135" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J135" s="37"/>
+      <c r="K135" s="37"/>
+      <c r="L135" s="37"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="37"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="37"/>
+      <c r="R135" s="37"/>
+      <c r="S135" s="37"/>
+      <c r="T135" s="37"/>
+      <c r="U135" s="37"/>
+      <c r="V135" s="37"/>
+      <c r="W135" s="37"/>
+      <c r="X135" s="37"/>
+      <c r="Y135" s="37"/>
+      <c r="Z135" s="37"/>
+      <c r="AA135" s="37"/>
+    </row>
+    <row r="136" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="38">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="43">
+        <v>8</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H136" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J136" s="37"/>
+      <c r="K136" s="37"/>
+      <c r="L136" s="37"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="37"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="37"/>
+      <c r="Q136" s="37"/>
+      <c r="R136" s="37"/>
+      <c r="S136" s="37"/>
+      <c r="T136" s="37"/>
+      <c r="U136" s="37"/>
+      <c r="V136" s="37"/>
+      <c r="W136" s="37"/>
+      <c r="X136" s="37"/>
+      <c r="Y136" s="37"/>
+      <c r="Z136" s="37"/>
+      <c r="AA136" s="37"/>
+    </row>
+    <row r="137" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="38">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="43">
+        <v>9</v>
+      </c>
+      <c r="G137" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H137" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="37"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="37"/>
+      <c r="U137" s="37"/>
+      <c r="V137" s="37"/>
+      <c r="W137" s="37"/>
+      <c r="X137" s="37"/>
+      <c r="Y137" s="37"/>
+      <c r="Z137" s="37"/>
+      <c r="AA137" s="37"/>
+    </row>
+    <row r="138" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="38">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D138" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="43">
+        <v>10</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J138" s="37"/>
+      <c r="K138" s="37"/>
+      <c r="L138" s="37"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="37"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="37"/>
+      <c r="Q138" s="37"/>
+      <c r="R138" s="37"/>
+      <c r="S138" s="37"/>
+      <c r="T138" s="37"/>
+      <c r="U138" s="37"/>
+      <c r="V138" s="37"/>
+      <c r="W138" s="37"/>
+      <c r="X138" s="37"/>
+      <c r="Y138" s="37"/>
+      <c r="Z138" s="37"/>
+      <c r="AA138" s="37"/>
+    </row>
+    <row r="139" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="38">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="43">
+        <v>11</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
+      <c r="L139" s="37"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="37"/>
+      <c r="O139" s="37"/>
+      <c r="P139" s="37"/>
+      <c r="Q139" s="37"/>
+      <c r="R139" s="37"/>
+      <c r="S139" s="37"/>
+      <c r="T139" s="37"/>
+      <c r="U139" s="37"/>
+      <c r="V139" s="37"/>
+      <c r="W139" s="37"/>
+      <c r="X139" s="37"/>
+      <c r="Y139" s="37"/>
+      <c r="Z139" s="37"/>
+      <c r="AA139" s="37"/>
+    </row>
+    <row r="140" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="38">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="43">
+        <v>12</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
+      <c r="O140" s="37"/>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="37"/>
+      <c r="R140" s="37"/>
+      <c r="S140" s="37"/>
+      <c r="T140" s="37"/>
+      <c r="U140" s="37"/>
+      <c r="V140" s="37"/>
+      <c r="W140" s="37"/>
+      <c r="X140" s="37"/>
+      <c r="Y140" s="37"/>
+      <c r="Z140" s="37"/>
+      <c r="AA140" s="37"/>
+    </row>
+    <row r="141" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="38">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="43">
+        <v>13</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H141" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="37"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="37"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="37"/>
+      <c r="Q141" s="37"/>
+      <c r="R141" s="37"/>
+      <c r="S141" s="37"/>
+      <c r="T141" s="37"/>
+      <c r="U141" s="37"/>
+      <c r="V141" s="37"/>
+      <c r="W141" s="37"/>
+      <c r="X141" s="37"/>
+      <c r="Y141" s="37"/>
+      <c r="Z141" s="37"/>
+      <c r="AA141" s="37"/>
+    </row>
+    <row r="142" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="38">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" s="43">
+        <v>14</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
+      <c r="Q142" s="37"/>
+      <c r="R142" s="37"/>
+      <c r="S142" s="37"/>
+      <c r="T142" s="37"/>
+      <c r="U142" s="37"/>
+      <c r="V142" s="37"/>
+      <c r="W142" s="37"/>
+      <c r="X142" s="37"/>
+      <c r="Y142" s="37"/>
+      <c r="Z142" s="37"/>
+      <c r="AA142" s="37"/>
+    </row>
+    <row r="143" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="38">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="43">
+        <v>15</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H143" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
+      <c r="L143" s="37"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="37"/>
+      <c r="O143" s="37"/>
+      <c r="P143" s="37"/>
+      <c r="Q143" s="37"/>
+      <c r="R143" s="37"/>
+      <c r="S143" s="37"/>
+      <c r="T143" s="37"/>
+      <c r="U143" s="37"/>
+      <c r="V143" s="37"/>
+      <c r="W143" s="37"/>
+      <c r="X143" s="37"/>
+      <c r="Y143" s="37"/>
+      <c r="Z143" s="37"/>
+      <c r="AA143" s="37"/>
+    </row>
+    <row r="144" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="38">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D144" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" s="43">
+        <v>16</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H144" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
+      <c r="R144" s="37"/>
+      <c r="S144" s="37"/>
+      <c r="T144" s="37"/>
+      <c r="U144" s="37"/>
+      <c r="V144" s="37"/>
+      <c r="W144" s="37"/>
+      <c r="X144" s="37"/>
+      <c r="Y144" s="37"/>
+      <c r="Z144" s="37"/>
+      <c r="AA144" s="37"/>
+    </row>
+    <row r="145" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="38">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" s="43">
+        <v>17</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H145" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="37"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="37"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="37"/>
+      <c r="Q145" s="37"/>
+      <c r="R145" s="37"/>
+      <c r="S145" s="37"/>
+      <c r="T145" s="37"/>
+      <c r="U145" s="37"/>
+      <c r="V145" s="37"/>
+      <c r="W145" s="37"/>
+      <c r="X145" s="37"/>
+      <c r="Y145" s="37"/>
+      <c r="Z145" s="37"/>
+      <c r="AA145" s="37"/>
+    </row>
+    <row r="146" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="38">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" s="43">
+        <v>18</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H146" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="37"/>
+      <c r="R146" s="37"/>
+      <c r="S146" s="37"/>
+      <c r="T146" s="37"/>
+      <c r="U146" s="37"/>
+      <c r="V146" s="37"/>
+      <c r="W146" s="37"/>
+      <c r="X146" s="37"/>
+      <c r="Y146" s="37"/>
+      <c r="Z146" s="37"/>
+      <c r="AA146" s="37"/>
+    </row>
+    <row r="147" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="38">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D147" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="43">
+        <v>19</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J147" s="37"/>
+      <c r="K147" s="37"/>
+      <c r="L147" s="37"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="37"/>
+      <c r="O147" s="37"/>
+      <c r="P147" s="37"/>
+      <c r="Q147" s="37"/>
+      <c r="R147" s="37"/>
+      <c r="S147" s="37"/>
+      <c r="T147" s="37"/>
+      <c r="U147" s="37"/>
+      <c r="V147" s="37"/>
+      <c r="W147" s="37"/>
+      <c r="X147" s="37"/>
+      <c r="Y147" s="37"/>
+      <c r="Z147" s="37"/>
+      <c r="AA147" s="37"/>
+    </row>
+    <row r="148" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="38">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" s="43">
+        <v>20</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
+      <c r="L148" s="37"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="37"/>
+      <c r="O148" s="37"/>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="37"/>
+      <c r="R148" s="37"/>
+      <c r="S148" s="37"/>
+      <c r="T148" s="37"/>
+      <c r="U148" s="37"/>
+      <c r="V148" s="37"/>
+      <c r="W148" s="37"/>
+      <c r="X148" s="37"/>
+      <c r="Y148" s="37"/>
+      <c r="Z148" s="37"/>
+      <c r="AA148" s="37"/>
+    </row>
+    <row r="149" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="38">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E129" s="15" t="s">
+      <c r="E149" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F149" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G129" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I129" s="4" t="s">
+      <c r="G149" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A130" s="38">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D130" s="6" t="s">
+    <row r="150" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="38">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E150" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F150" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G130" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H130" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I130" s="9" t="s">
+      <c r="G150" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A131" s="38">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D131" s="6" t="s">
+    <row r="151" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="38">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E151" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F151" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H131" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="9" t="s">
+      <c r="G151" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A132" s="38">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D132" s="6" t="s">
+    <row r="152" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="38">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E132" s="28" t="s">
+      <c r="E152" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="F152" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" s="9" t="s">
+      <c r="G152" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A133" s="38">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="6" t="s">
+    <row r="153" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="38">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E153" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="F153" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H133" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" s="9" t="s">
+      <c r="G153" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H153" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A134" s="38">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D134" s="6" t="s">
+    <row r="154" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="38">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E134" s="28" t="s">
+      <c r="E154" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F154" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G134" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I134" s="9" t="s">
+      <c r="G154" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A135" s="38">
-        <f t="shared" ref="A135:A183" si="1">ROW(A135)-1</f>
-        <v>134</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D135" s="6" t="s">
+    <row r="155" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="38">
+        <f t="shared" ref="A155:A203" si="1">ROW(A155)-1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E155" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F135" s="25" t="s">
+      <c r="F155" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G135" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H135" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="9" t="s">
+      <c r="G155" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A136" s="38">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A137" s="38">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H137" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A138" s="38">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A139" s="38">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H139" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A140" s="38">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A141" s="38">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E141" s="29">
-        <v>1</v>
-      </c>
-      <c r="F141" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G141" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H141" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A142" s="49">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D142" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E142" s="47">
-        <v>2</v>
-      </c>
-      <c r="F142" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G142" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H142" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A143" s="49">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D143" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E143" s="47">
-        <v>3</v>
-      </c>
-      <c r="F143" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G143" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H143" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A144" s="49">
-        <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D144" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E144" s="47">
-        <v>4</v>
-      </c>
-      <c r="F144" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G144" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H144" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A145" s="49">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E145" s="47">
-        <v>5</v>
-      </c>
-      <c r="F145" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G145" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A146" s="49">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D146" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E146" s="47">
-        <v>6</v>
-      </c>
-      <c r="F146" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G146" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H146" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A147" s="49">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D147" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E147" s="47">
-        <v>7</v>
-      </c>
-      <c r="F147" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G147" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H147" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A148" s="49">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D148" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E148" s="47">
-        <v>8</v>
-      </c>
-      <c r="F148" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G148" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H148" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A149" s="49">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D149" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E149" s="47">
-        <v>9</v>
-      </c>
-      <c r="F149" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G149" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A150" s="49">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D150" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E150" s="47">
-        <v>10</v>
-      </c>
-      <c r="F150" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G150" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H150" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="32" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A151" s="38">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F151" s="31">
-        <v>1</v>
-      </c>
-      <c r="G151" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H151" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I151" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A152" s="38">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="B152" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="25">
-        <v>2</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A153" s="38">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="B153" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="25">
-        <v>3</v>
-      </c>
-      <c r="G153" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H153" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A154" s="38">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="25">
-        <v>4</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A155" s="38">
-        <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="B155" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F155" s="25">
-        <v>5</v>
-      </c>
-      <c r="G155" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H155" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+    <row r="156" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="38">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -6456,13 +6801,13 @@
         <v>96</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F156" s="25">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>1</v>
       </c>
       <c r="G156" s="25" t="s">
         <v>96</v>
@@ -6470,11 +6815,11 @@
       <c r="H156" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I156" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="I156" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="38">
         <f t="shared" si="1"/>
         <v>156</v>
@@ -6486,13 +6831,13 @@
         <v>96</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="25">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>2</v>
       </c>
       <c r="G157" s="25" t="s">
         <v>96</v>
@@ -6500,11 +6845,11 @@
       <c r="H157" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I157" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="I157" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="38">
         <f t="shared" si="1"/>
         <v>157</v>
@@ -6516,13 +6861,13 @@
         <v>96</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F158" s="25">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="G158" s="25" t="s">
         <v>96</v>
@@ -6530,11 +6875,11 @@
       <c r="H158" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I158" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="I158" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="38">
         <f t="shared" si="1"/>
         <v>158</v>
@@ -6546,13 +6891,13 @@
         <v>96</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F159" s="25">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>96</v>
@@ -6560,11 +6905,11 @@
       <c r="H159" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I159" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
+      <c r="I159" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="38">
         <f t="shared" si="1"/>
         <v>159</v>
@@ -6576,13 +6921,13 @@
         <v>96</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" s="25">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="G160" s="25" t="s">
         <v>96</v>
@@ -6590,11 +6935,11 @@
       <c r="H160" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I160" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="I160" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="38">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -6606,295 +6951,295 @@
         <v>96</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F161" s="31">
+        <v>64</v>
+      </c>
+      <c r="E161" s="29">
         <v>1</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="F161" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G161" s="31" t="s">
         <v>96</v>
       </c>
       <c r="H161" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I161" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A162" s="38">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="49">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F162" s="25">
+      <c r="D162" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="47">
         <v>2</v>
       </c>
-      <c r="G162" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H162" s="25" t="s">
+      <c r="F162" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H162" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I162" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A163" s="38">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="49">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F163" s="25">
+      <c r="D163" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="47">
         <v>3</v>
       </c>
-      <c r="G163" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H163" s="25" t="s">
+      <c r="F163" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H163" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I163" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A164" s="38">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="49">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E164" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F164" s="25">
+      <c r="D164" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="47">
         <v>4</v>
       </c>
-      <c r="G164" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H164" s="25" t="s">
+      <c r="F164" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H164" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I164" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A165" s="38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="49">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F165" s="25">
+      <c r="D165" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="47">
         <v>5</v>
       </c>
-      <c r="G165" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H165" s="25" t="s">
+      <c r="F165" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G165" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H165" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I165" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A166" s="38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="49">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E166" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F166" s="25">
+      <c r="D166" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="47">
         <v>6</v>
       </c>
-      <c r="G166" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H166" s="25" t="s">
+      <c r="F166" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G166" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H166" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I166" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A167" s="38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="49">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E167" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F167" s="25">
+      <c r="D167" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="47">
         <v>7</v>
       </c>
-      <c r="G167" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H167" s="25" t="s">
+      <c r="F167" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G167" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H167" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I167" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A168" s="38">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="49">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" s="25">
+      <c r="D168" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="47">
         <v>8</v>
       </c>
-      <c r="G168" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H168" s="25" t="s">
+      <c r="F168" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G168" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H168" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I168" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A169" s="38">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="49">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E169" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F169" s="25">
+      <c r="D169" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="47">
         <v>9</v>
       </c>
-      <c r="G169" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H169" s="25" t="s">
+      <c r="F169" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G169" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H169" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I169" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A170" s="38">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="49">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E170" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F170" s="25">
+      <c r="D170" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="47">
         <v>10</v>
       </c>
-      <c r="G170" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H170" s="25" t="s">
+      <c r="F170" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G170" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H170" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I170" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="32" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="38">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -6906,14 +7251,14 @@
         <v>96</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E171" s="29">
+        <v>33</v>
+      </c>
+      <c r="E171" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="31">
         <v>1</v>
       </c>
-      <c r="F171" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G171" s="29" t="s">
         <v>96</v>
       </c>
@@ -6921,340 +7266,340 @@
         <v>13</v>
       </c>
       <c r="I171" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A172" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="38">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="B172" s="49" t="s">
+      <c r="B172" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D172" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E172" s="47">
-        <v>1</v>
-      </c>
-      <c r="F172" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G172" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H172" s="48" t="s">
+      <c r="D172" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="25">
+        <v>2</v>
+      </c>
+      <c r="G172" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H172" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I172" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A173" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="38">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B173" s="49" t="s">
+      <c r="B173" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D173" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E173" s="47">
-        <v>1</v>
-      </c>
-      <c r="F173" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G173" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H173" s="48" t="s">
+      <c r="D173" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E173" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="25">
+        <v>3</v>
+      </c>
+      <c r="G173" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I173" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A174" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="38">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B174" s="49" t="s">
+      <c r="B174" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D174" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E174" s="47">
-        <v>1</v>
-      </c>
-      <c r="F174" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G174" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H174" s="48" t="s">
+      <c r="D174" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="25">
+        <v>4</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H174" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I174" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A175" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="38">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B175" s="49" t="s">
+      <c r="B175" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D175" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E175" s="47">
-        <v>2</v>
-      </c>
-      <c r="F175" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G175" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H175" s="48" t="s">
+      <c r="D175" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="25">
+        <v>5</v>
+      </c>
+      <c r="G175" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H175" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I175" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A176" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="38">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="B176" s="49" t="s">
+      <c r="B176" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D176" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E176" s="47">
-        <v>2</v>
-      </c>
-      <c r="F176" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G176" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H176" s="48" t="s">
+      <c r="D176" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="25">
+        <v>6</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H176" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I176" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A177" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="38">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B177" s="49" t="s">
+      <c r="B177" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D177" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E177" s="47">
-        <v>2</v>
-      </c>
-      <c r="F177" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G177" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H177" s="48" t="s">
+      <c r="D177" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E177" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="25">
+        <v>7</v>
+      </c>
+      <c r="G177" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H177" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I177" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A178" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="38">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="B178" s="49" t="s">
+      <c r="B178" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D178" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E178" s="47">
-        <v>2</v>
-      </c>
-      <c r="F178" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G178" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H178" s="48" t="s">
+      <c r="D178" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="25">
+        <v>8</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H178" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I178" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A179" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="38">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="B179" s="49" t="s">
+      <c r="B179" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D179" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E179" s="47">
-        <v>3</v>
-      </c>
-      <c r="F179" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G179" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H179" s="48" t="s">
+      <c r="D179" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="25">
+        <v>9</v>
+      </c>
+      <c r="G179" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H179" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I179" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A180" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="38">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B180" s="49" t="s">
+      <c r="B180" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D180" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E180" s="47">
-        <v>3</v>
-      </c>
-      <c r="F180" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G180" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H180" s="48" t="s">
+      <c r="D180" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="25">
+        <v>10</v>
+      </c>
+      <c r="G180" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H180" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I180" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A181" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="38">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B181" s="49" t="s">
+      <c r="B181" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D181" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E181" s="47">
-        <v>3</v>
-      </c>
-      <c r="F181" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G181" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H181" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="45" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A182" s="49">
+      <c r="D181" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181" s="31">
+        <v>1</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="38">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="B182" s="49" t="s">
+      <c r="B182" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E182" s="47">
-        <v>3</v>
-      </c>
-      <c r="F182" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G182" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H182" s="48" t="s">
+      <c r="D182" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182" s="25">
+        <v>2</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H182" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I182" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="32" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="38">
         <f t="shared" si="1"/>
         <v>182</v>
@@ -7265,389 +7610,731 @@
       <c r="C183" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="25">
+        <v>3</v>
+      </c>
+      <c r="G183" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="38">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" s="25">
+        <v>4</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="38">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F185" s="25">
+        <v>5</v>
+      </c>
+      <c r="G185" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H185" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="38">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" s="25">
+        <v>6</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H186" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="38">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187" s="25">
+        <v>7</v>
+      </c>
+      <c r="G187" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H187" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="38">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" s="25">
+        <v>8</v>
+      </c>
+      <c r="G188" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H188" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="38">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189" s="25">
+        <v>9</v>
+      </c>
+      <c r="G189" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H189" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="38">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" s="25">
+        <v>10</v>
+      </c>
+      <c r="G190" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="38">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E191" s="29">
+        <v>1</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H191" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="49">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D192" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E192" s="47">
+        <v>1</v>
+      </c>
+      <c r="F192" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G192" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="49">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D193" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E193" s="47">
+        <v>1</v>
+      </c>
+      <c r="F193" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G193" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="49">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D194" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E194" s="47">
+        <v>1</v>
+      </c>
+      <c r="F194" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G194" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H194" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="49">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D195" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E195" s="47">
+        <v>2</v>
+      </c>
+      <c r="F195" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G195" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="49">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D196" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E196" s="47">
+        <v>2</v>
+      </c>
+      <c r="F196" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G196" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="49">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E197" s="47">
+        <v>2</v>
+      </c>
+      <c r="F197" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G197" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="49">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E198" s="47">
+        <v>2</v>
+      </c>
+      <c r="F198" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G198" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="49">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D199" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E199" s="47">
+        <v>3</v>
+      </c>
+      <c r="F199" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G199" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="49">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E200" s="47">
+        <v>3</v>
+      </c>
+      <c r="F200" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G200" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H200" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="49">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D201" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E201" s="47">
+        <v>3</v>
+      </c>
+      <c r="F201" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G201" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="49">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E202" s="47">
+        <v>3</v>
+      </c>
+      <c r="F202" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G202" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="38">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D203" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E183" s="29" t="s">
+      <c r="E203" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F183" s="29" t="s">
+      <c r="F203" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G183" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H183" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" s="32" t="s">
+      <c r="G203" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H203" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" thickTop="1">
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="4:5">
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="4:5">
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="4:5">
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="4:5">
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="4:5">
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="4:5">
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="4:5">
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-    </row>
-    <row r="200" spans="4:5">
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-    </row>
-    <row r="201" spans="4:5">
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
-    </row>
-    <row r="202" spans="4:5">
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
-    </row>
-    <row r="203" spans="4:5">
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
-    </row>
-    <row r="204" spans="4:5">
+    <row r="204" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
     </row>
-    <row r="205" spans="4:5">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="4:5">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="4:5">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
     </row>
-    <row r="208" spans="4:5">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
     </row>
-    <row r="209" spans="4:5">
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-    </row>
-    <row r="210" spans="4:5">
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-    </row>
-    <row r="211" spans="4:5">
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-    </row>
-    <row r="212" spans="4:5">
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
-    </row>
-    <row r="213" spans="4:5">
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-    </row>
-    <row r="214" spans="4:5">
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-    </row>
-    <row r="215" spans="4:5">
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-    </row>
-    <row r="216" spans="4:5">
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-    </row>
-    <row r="217" spans="4:5">
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-    </row>
-    <row r="218" spans="4:5">
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-    </row>
-    <row r="219" spans="4:5">
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-    </row>
-    <row r="220" spans="4:5">
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" spans="4:5">
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-    </row>
-    <row r="222" spans="4:5">
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-    </row>
-    <row r="223" spans="4:5">
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" spans="4:5">
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-    </row>
-    <row r="225" spans="4:5">
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-    </row>
-    <row r="226" spans="4:5">
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-    </row>
-    <row r="227" spans="4:5">
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-    </row>
-    <row r="228" spans="4:5">
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
-    </row>
-    <row r="229" spans="4:5">
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-    </row>
-    <row r="230" spans="4:5">
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-    </row>
-    <row r="231" spans="4:5">
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-    </row>
-    <row r="232" spans="4:5">
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-    </row>
-    <row r="233" spans="4:5">
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-    </row>
-    <row r="234" spans="4:5">
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-    </row>
-    <row r="235" spans="4:5">
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-    </row>
-    <row r="236" spans="4:5">
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-    </row>
-    <row r="237" spans="4:5">
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-    </row>
-    <row r="238" spans="4:5">
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-    </row>
-    <row r="239" spans="4:5">
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
-    </row>
-    <row r="240" spans="4:5">
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-    </row>
-    <row r="241" spans="4:5">
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-    </row>
-    <row r="242" spans="4:5">
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
-    </row>
-    <row r="243" spans="4:5">
-      <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
-    </row>
-    <row r="244" spans="4:5">
-      <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
-    </row>
-    <row r="245" spans="4:5">
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
-    </row>
-    <row r="246" spans="4:5">
-      <c r="D246" s="9"/>
-      <c r="E246" s="9"/>
-    </row>
-    <row r="247" spans="4:5">
-      <c r="D247" s="9"/>
-      <c r="E247" s="9"/>
-    </row>
-    <row r="248" spans="4:5">
-      <c r="D248" s="9"/>
-      <c r="E248" s="9"/>
-    </row>
-    <row r="249" spans="4:5">
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-    </row>
-    <row r="250" spans="4:5">
-      <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
-    </row>
-    <row r="251" spans="4:5">
-      <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
-    </row>
-    <row r="252" spans="4:5">
-      <c r="D252" s="9"/>
-      <c r="E252" s="9"/>
-    </row>
-    <row r="253" spans="4:5">
-      <c r="D253" s="9"/>
-      <c r="E253" s="9"/>
-    </row>
-    <row r="254" spans="4:5">
-      <c r="D254" s="9"/>
-      <c r="E254" s="9"/>
-    </row>
-    <row r="255" spans="4:5">
-      <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
-    </row>
-    <row r="256" spans="4:5">
-      <c r="D256" s="9"/>
-      <c r="E256" s="9"/>
-    </row>
-    <row r="257" spans="4:5">
-      <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
-    </row>
-    <row r="258" spans="4:5">
-      <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
-    </row>
-    <row r="259" spans="4:5">
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
-    </row>
-    <row r="260" spans="4:5">
-      <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
-    </row>
-    <row r="261" spans="4:5">
-      <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
-    </row>
-    <row r="262" spans="4:5">
-      <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
-    </row>
-    <row r="263" spans="4:5">
-      <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
-    </row>
-    <row r="264" spans="4:5">
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-    </row>
-    <row r="265" spans="4:5">
-      <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
-    </row>
-    <row r="266" spans="4:5">
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-    </row>
-    <row r="267" spans="4:5">
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-    </row>
-    <row r="268" spans="4:5">
-      <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
-    </row>
-    <row r="269" spans="4:5">
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
-    </row>
-    <row r="270" spans="4:5">
-      <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
-    </row>
-    <row r="271" spans="4:5">
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
-    </row>
-    <row r="272" spans="4:5">
-      <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
-    </row>
-    <row r="273" spans="4:5">
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
-    </row>
-    <row r="274" spans="4:5">
-      <c r="D274" s="9"/>
-      <c r="E274" s="9"/>
-    </row>
+    <row r="209" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramit\Documents\work\R2Q-Shiny-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D781CE-A465-4674-8F7D-98C55527BADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907AFAC-6A8A-4881-864E-770D6CADD401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E668519-328E-4E8D-8980-09B3972F3278}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="208">
   <si>
     <t>Ressource</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>titel</t>
+  </si>
+  <si>
+    <t>kosten_hinweis</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27926E-B51A-449F-86DD-91CC7FF15C35}">
-  <dimension ref="A1:AA294"/>
+  <dimension ref="A1:AA295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38">
-        <f t="shared" ref="A2:A154" si="0">ROW(A2)-1</f>
+        <f t="shared" ref="A2:A155" si="0">ROW(A2)-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4658,9 +4661,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" s="37" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="38">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
@@ -4669,65 +4671,62 @@
       <c r="C108" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="38">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E109" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="50" t="s">
+      <c r="F109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J108" s="51"/>
-    </row>
-    <row r="109" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="49">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D109" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F109" s="43">
-        <v>1</v>
-      </c>
-      <c r="G109" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H109" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="J109" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="38">
+      <c r="J109" s="51"/>
+    </row>
+    <row r="110" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="49">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -4740,9 +4739,9 @@
         <v>103</v>
       </c>
       <c r="F110" s="43">
-        <v>2</v>
-      </c>
-      <c r="G110" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="48" t="s">
         <v>96</v>
       </c>
       <c r="H110" s="46" t="s">
@@ -4751,24 +4750,9 @@
       <c r="I110" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
-      <c r="U110" s="37"/>
-      <c r="V110" s="37"/>
-      <c r="W110" s="37"/>
-      <c r="X110" s="37"/>
-      <c r="Y110" s="37"/>
-      <c r="Z110" s="37"/>
-      <c r="AA110" s="37"/>
+      <c r="J110" s="43" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="111" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="38">
@@ -4788,7 +4772,7 @@
         <v>103</v>
       </c>
       <c r="F111" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" s="25" t="s">
         <v>96</v>
@@ -4836,7 +4820,7 @@
         <v>103</v>
       </c>
       <c r="F112" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" s="25" t="s">
         <v>96</v>
@@ -4884,7 +4868,7 @@
         <v>103</v>
       </c>
       <c r="F113" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G113" s="25" t="s">
         <v>96</v>
@@ -4932,7 +4916,7 @@
         <v>103</v>
       </c>
       <c r="F114" s="43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G114" s="25" t="s">
         <v>96</v>
@@ -4980,7 +4964,7 @@
         <v>103</v>
       </c>
       <c r="F115" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>96</v>
@@ -5028,7 +5012,7 @@
         <v>103</v>
       </c>
       <c r="F116" s="43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>96</v>
@@ -5076,7 +5060,7 @@
         <v>103</v>
       </c>
       <c r="F117" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>96</v>
@@ -5124,7 +5108,7 @@
         <v>103</v>
       </c>
       <c r="F118" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G118" s="25" t="s">
         <v>96</v>
@@ -5154,12 +5138,12 @@
       <c r="Z118" s="37"/>
       <c r="AA118" s="37"/>
     </row>
-    <row r="119" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="49">
+    <row r="119" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="38">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -5172,9 +5156,9 @@
         <v>103</v>
       </c>
       <c r="F119" s="43">
-        <v>11</v>
-      </c>
-      <c r="G119" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="25" t="s">
         <v>96</v>
       </c>
       <c r="H119" s="46" t="s">
@@ -5183,16 +5167,31 @@
       <c r="I119" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J119" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="38">
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="37"/>
+      <c r="O119" s="37"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="37"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="37"/>
+      <c r="W119" s="37"/>
+      <c r="X119" s="37"/>
+      <c r="Y119" s="37"/>
+      <c r="Z119" s="37"/>
+      <c r="AA119" s="37"/>
+    </row>
+    <row r="120" spans="1:27" s="37" customFormat="1" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="49">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -5205,9 +5204,9 @@
         <v>103</v>
       </c>
       <c r="F120" s="43">
-        <v>12</v>
-      </c>
-      <c r="G120" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="48" t="s">
         <v>96</v>
       </c>
       <c r="H120" s="46" t="s">
@@ -5216,24 +5215,9 @@
       <c r="I120" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="37"/>
-      <c r="O120" s="37"/>
-      <c r="P120" s="37"/>
-      <c r="Q120" s="37"/>
-      <c r="R120" s="37"/>
-      <c r="S120" s="37"/>
-      <c r="T120" s="37"/>
-      <c r="U120" s="37"/>
-      <c r="V120" s="37"/>
-      <c r="W120" s="37"/>
-      <c r="X120" s="37"/>
-      <c r="Y120" s="37"/>
-      <c r="Z120" s="37"/>
-      <c r="AA120" s="37"/>
+      <c r="J120" s="43" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="121" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38">
@@ -5253,7 +5237,7 @@
         <v>103</v>
       </c>
       <c r="F121" s="43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>96</v>
@@ -5301,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="F122" s="43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>96</v>
@@ -5349,7 +5333,7 @@
         <v>103</v>
       </c>
       <c r="F123" s="43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>96</v>
@@ -5397,7 +5381,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>96</v>
@@ -5445,7 +5429,7 @@
         <v>103</v>
       </c>
       <c r="F125" s="43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>96</v>
@@ -5493,7 +5477,7 @@
         <v>103</v>
       </c>
       <c r="F126" s="43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>96</v>
@@ -5541,7 +5525,7 @@
         <v>103</v>
       </c>
       <c r="F127" s="43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127" s="25" t="s">
         <v>96</v>
@@ -5589,7 +5573,7 @@
         <v>103</v>
       </c>
       <c r="F128" s="43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>96</v>
@@ -5633,11 +5617,11 @@
       <c r="D129" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="19" t="s">
-        <v>5</v>
+      <c r="E129" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F129" s="43">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G129" s="25" t="s">
         <v>96</v>
@@ -5685,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>96</v>
@@ -5733,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>96</v>
@@ -5781,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>96</v>
@@ -5829,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="F133" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G133" s="25" t="s">
         <v>96</v>
@@ -5877,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G134" s="25" t="s">
         <v>96</v>
@@ -5925,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G135" s="25" t="s">
         <v>96</v>
@@ -5973,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G136" s="25" t="s">
         <v>96</v>
@@ -6021,7 +6005,7 @@
         <v>5</v>
       </c>
       <c r="F137" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G137" s="25" t="s">
         <v>96</v>
@@ -6069,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="F138" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G138" s="25" t="s">
         <v>96</v>
@@ -6117,7 +6101,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G139" s="25" t="s">
         <v>96</v>
@@ -6165,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="F140" s="43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" s="25" t="s">
         <v>96</v>
@@ -6213,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="F141" s="43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141" s="25" t="s">
         <v>96</v>
@@ -6261,7 +6245,7 @@
         <v>5</v>
       </c>
       <c r="F142" s="43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" s="25" t="s">
         <v>96</v>
@@ -6309,7 +6293,7 @@
         <v>5</v>
       </c>
       <c r="F143" s="43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G143" s="25" t="s">
         <v>96</v>
@@ -6357,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="F144" s="43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G144" s="25" t="s">
         <v>96</v>
@@ -6405,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="F145" s="43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G145" s="25" t="s">
         <v>96</v>
@@ -6453,7 +6437,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G146" s="25" t="s">
         <v>96</v>
@@ -6501,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="F147" s="43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G147" s="25" t="s">
         <v>96</v>
@@ -6549,7 +6533,7 @@
         <v>5</v>
       </c>
       <c r="F148" s="43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G148" s="25" t="s">
         <v>96</v>
@@ -6590,53 +6574,71 @@
       <c r="C149" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="43">
+        <v>20</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="37"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="37"/>
+      <c r="O149" s="37"/>
+      <c r="P149" s="37"/>
+      <c r="Q149" s="37"/>
+      <c r="R149" s="37"/>
+      <c r="S149" s="37"/>
+      <c r="T149" s="37"/>
+      <c r="U149" s="37"/>
+      <c r="V149" s="37"/>
+      <c r="W149" s="37"/>
+      <c r="X149" s="37"/>
+      <c r="Y149" s="37"/>
+      <c r="Z149" s="37"/>
+      <c r="AA149" s="37"/>
+    </row>
+    <row r="150" spans="1:27" s="4" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="38">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E150" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F149" s="16" t="s">
+      <c r="F150" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G149" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H149" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="4" t="s">
+      <c r="G150" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="4" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="38">
-        <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6657,7 +6659,7 @@
         <v>29</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" s="25" t="s">
         <v>96</v>
@@ -6666,7 +6668,7 @@
         <v>13</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6687,7 +6689,7 @@
         <v>29</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G152" s="25" t="s">
         <v>96</v>
@@ -6696,7 +6698,7 @@
         <v>13</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6717,7 +6719,7 @@
         <v>29</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G153" s="25" t="s">
         <v>96</v>
@@ -6726,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6747,7 +6749,7 @@
         <v>29</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G154" s="25" t="s">
         <v>96</v>
@@ -6756,12 +6758,12 @@
         <v>13</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="38">
-        <f t="shared" ref="A155:A203" si="1">ROW(A155)-1</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="B155" s="38" t="s">
@@ -6773,11 +6775,11 @@
       <c r="D155" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E155" s="29" t="s">
-        <v>31</v>
+      <c r="E155" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="G155" s="25" t="s">
         <v>96</v>
@@ -6786,12 +6788,12 @@
         <v>13</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A156:A204" si="1">ROW(A156)-1</f>
         <v>155</v>
       </c>
       <c r="B156" s="38" t="s">
@@ -6807,7 +6809,7 @@
         <v>31</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="G156" s="25" t="s">
         <v>96</v>
@@ -6816,7 +6818,7 @@
         <v>13</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6837,7 +6839,7 @@
         <v>31</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157" s="25" t="s">
         <v>96</v>
@@ -6846,7 +6848,7 @@
         <v>13</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6867,7 +6869,7 @@
         <v>31</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158" s="25" t="s">
         <v>96</v>
@@ -6876,7 +6878,7 @@
         <v>13</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6897,7 +6899,7 @@
         <v>31</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>96</v>
@@ -6906,7 +6908,7 @@
         <v>13</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6927,7 +6929,7 @@
         <v>31</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G160" s="25" t="s">
         <v>96</v>
@@ -6936,7 +6938,7 @@
         <v>13</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6950,53 +6952,53 @@
       <c r="C161" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D161" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E161" s="29">
-        <v>1</v>
-      </c>
-      <c r="F161" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G161" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H161" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="49">
+      <c r="D161" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G161" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="38">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="43" t="s">
+      <c r="D162" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E162" s="47">
-        <v>2</v>
-      </c>
-      <c r="F162" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G162" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H162" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="45" t="s">
-        <v>107</v>
+      <c r="E162" s="29">
+        <v>1</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="32" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7014,7 +7016,7 @@
         <v>64</v>
       </c>
       <c r="E163" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F163" s="47" t="s">
         <v>96</v>
@@ -7026,7 +7028,7 @@
         <v>13</v>
       </c>
       <c r="I163" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7044,7 +7046,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F164" s="47" t="s">
         <v>96</v>
@@ -7056,7 +7058,7 @@
         <v>13</v>
       </c>
       <c r="I164" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7074,7 +7076,7 @@
         <v>64</v>
       </c>
       <c r="E165" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F165" s="47" t="s">
         <v>96</v>
@@ -7086,7 +7088,7 @@
         <v>13</v>
       </c>
       <c r="I165" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7104,7 +7106,7 @@
         <v>64</v>
       </c>
       <c r="E166" s="47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F166" s="47" t="s">
         <v>96</v>
@@ -7116,7 +7118,7 @@
         <v>13</v>
       </c>
       <c r="I166" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7134,7 +7136,7 @@
         <v>64</v>
       </c>
       <c r="E167" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" s="47" t="s">
         <v>96</v>
@@ -7146,7 +7148,7 @@
         <v>13</v>
       </c>
       <c r="I167" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7164,7 +7166,7 @@
         <v>64</v>
       </c>
       <c r="E168" s="47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F168" s="47" t="s">
         <v>96</v>
@@ -7176,7 +7178,7 @@
         <v>13</v>
       </c>
       <c r="I168" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7194,7 +7196,7 @@
         <v>64</v>
       </c>
       <c r="E169" s="47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F169" s="47" t="s">
         <v>96</v>
@@ -7206,7 +7208,7 @@
         <v>13</v>
       </c>
       <c r="I169" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7224,7 +7226,7 @@
         <v>64</v>
       </c>
       <c r="E170" s="47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F170" s="47" t="s">
         <v>96</v>
@@ -7236,40 +7238,40 @@
         <v>13</v>
       </c>
       <c r="I170" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="38">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="49">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D171" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E171" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" s="31">
-        <v>1</v>
-      </c>
-      <c r="G171" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H171" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D171" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="47">
+        <v>10</v>
+      </c>
+      <c r="F171" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G171" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="38">
         <f t="shared" si="1"/>
         <v>171</v>
@@ -7280,22 +7282,22 @@
       <c r="C172" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E172" s="33" t="s">
+      <c r="E172" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F172" s="25">
-        <v>2</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="45" t="s">
+      <c r="F172" s="31">
+        <v>1</v>
+      </c>
+      <c r="G172" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7317,7 +7319,7 @@
         <v>34</v>
       </c>
       <c r="F173" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>96</v>
@@ -7347,7 +7349,7 @@
         <v>34</v>
       </c>
       <c r="F174" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G174" s="25" t="s">
         <v>96</v>
@@ -7377,7 +7379,7 @@
         <v>34</v>
       </c>
       <c r="F175" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G175" s="25" t="s">
         <v>96</v>
@@ -7407,7 +7409,7 @@
         <v>34</v>
       </c>
       <c r="F176" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G176" s="25" t="s">
         <v>96</v>
@@ -7437,7 +7439,7 @@
         <v>34</v>
       </c>
       <c r="F177" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G177" s="25" t="s">
         <v>96</v>
@@ -7467,7 +7469,7 @@
         <v>34</v>
       </c>
       <c r="F178" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G178" s="25" t="s">
         <v>96</v>
@@ -7497,7 +7499,7 @@
         <v>34</v>
       </c>
       <c r="F179" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G179" s="25" t="s">
         <v>96</v>
@@ -7527,7 +7529,7 @@
         <v>34</v>
       </c>
       <c r="F180" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G180" s="25" t="s">
         <v>96</v>
@@ -7539,7 +7541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="38">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -7550,26 +7552,26 @@
       <c r="C181" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E181" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F181" s="31">
-        <v>1</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H181" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="32" t="s">
+      <c r="E181" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" s="25">
+        <v>10</v>
+      </c>
+      <c r="G181" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="38">
         <f t="shared" si="1"/>
         <v>181</v>
@@ -7580,22 +7582,22 @@
       <c r="C182" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E182" s="34" t="s">
+      <c r="E182" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F182" s="25">
-        <v>2</v>
-      </c>
-      <c r="G182" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H182" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="45" t="s">
+      <c r="F182" s="31">
+        <v>1</v>
+      </c>
+      <c r="G182" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H182" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7617,7 +7619,7 @@
         <v>35</v>
       </c>
       <c r="F183" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183" s="25" t="s">
         <v>96</v>
@@ -7647,7 +7649,7 @@
         <v>35</v>
       </c>
       <c r="F184" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G184" s="25" t="s">
         <v>96</v>
@@ -7677,7 +7679,7 @@
         <v>35</v>
       </c>
       <c r="F185" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G185" s="25" t="s">
         <v>96</v>
@@ -7707,7 +7709,7 @@
         <v>35</v>
       </c>
       <c r="F186" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G186" s="25" t="s">
         <v>96</v>
@@ -7737,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="F187" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G187" s="25" t="s">
         <v>96</v>
@@ -7767,7 +7769,7 @@
         <v>35</v>
       </c>
       <c r="F188" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G188" s="25" t="s">
         <v>96</v>
@@ -7797,7 +7799,7 @@
         <v>35</v>
       </c>
       <c r="F189" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G189" s="25" t="s">
         <v>96</v>
@@ -7827,7 +7829,7 @@
         <v>35</v>
       </c>
       <c r="F190" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G190" s="25" t="s">
         <v>96</v>
@@ -7839,7 +7841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="38">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -7850,52 +7852,52 @@
       <c r="C191" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D191" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E191" s="29">
-        <v>1</v>
-      </c>
-      <c r="F191" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G191" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H191" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="49">
+      <c r="D191" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" s="25">
+        <v>10</v>
+      </c>
+      <c r="G191" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H191" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="38">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="B192" s="49" t="s">
+      <c r="B192" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D192" s="43" t="s">
+      <c r="D192" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E192" s="47">
+      <c r="E192" s="29">
         <v>1</v>
       </c>
-      <c r="F192" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G192" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H192" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I192" s="45" t="s">
+      <c r="F192" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G192" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H192" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" s="32" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7917,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G193" s="47" t="s">
         <v>96</v>
@@ -7947,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G194" s="47" t="s">
         <v>96</v>
@@ -7974,10 +7976,10 @@
         <v>121</v>
       </c>
       <c r="E195" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G195" s="47" t="s">
         <v>96</v>
@@ -8007,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="F196" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G196" s="47" t="s">
         <v>96</v>
@@ -8037,7 +8039,7 @@
         <v>2</v>
       </c>
       <c r="F197" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G197" s="47" t="s">
         <v>96</v>
@@ -8067,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="F198" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G198" s="47" t="s">
         <v>96</v>
@@ -8094,10 +8096,10 @@
         <v>121</v>
       </c>
       <c r="E199" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F199" s="47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G199" s="47" t="s">
         <v>96</v>
@@ -8127,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="F200" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G200" s="47" t="s">
         <v>96</v>
@@ -8157,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G201" s="47" t="s">
         <v>96</v>
@@ -8187,7 +8189,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G202" s="47" t="s">
         <v>96</v>
@@ -8199,41 +8201,67 @@
         <v>134</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="38">
+    <row r="203" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="49">
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D203" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E203" s="47">
+        <v>3</v>
+      </c>
+      <c r="F203" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G203" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="38">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D204" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E203" s="29" t="s">
+      <c r="E204" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F203" s="29" t="s">
+      <c r="F204" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G203" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H203" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" s="32" t="s">
+      <c r="G204" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
     </row>
@@ -8335,6 +8363,7 @@
     <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramit\Documents\work\R2Q-Shiny-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907AFAC-6A8A-4881-864E-770D6CADD401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D81248-582D-4F11-B237-2729D687885B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E668519-328E-4E8D-8980-09B3972F3278}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="218">
   <si>
     <t>Ressource</t>
   </si>
@@ -657,6 +657,36 @@
   </si>
   <si>
     <t>kosten_hinweis</t>
+  </si>
+  <si>
+    <t>selkombi11</t>
+  </si>
+  <si>
+    <t>selkombi12</t>
+  </si>
+  <si>
+    <t>selkombi13</t>
+  </si>
+  <si>
+    <t>selkombi14</t>
+  </si>
+  <si>
+    <t>selkombi15</t>
+  </si>
+  <si>
+    <t>selkombi16</t>
+  </si>
+  <si>
+    <t>selkombi17</t>
+  </si>
+  <si>
+    <t>selkombi18</t>
+  </si>
+  <si>
+    <t>selkombi19</t>
+  </si>
+  <si>
+    <t>selkombi20</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27926E-B51A-449F-86DD-91CC7FF15C35}">
-  <dimension ref="A1:AA295"/>
+  <dimension ref="A1:AA305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6793,7 +6823,7 @@
     </row>
     <row r="156" spans="1:27" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="38">
-        <f t="shared" ref="A156:A204" si="1">ROW(A156)-1</f>
+        <f t="shared" ref="A156:A214" si="1">ROW(A156)-1</f>
         <v>155</v>
       </c>
       <c r="B156" s="38" t="s">
@@ -7271,7 +7301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="38">
         <f t="shared" si="1"/>
         <v>171</v>
@@ -7283,295 +7313,295 @@
         <v>96</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E172" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172" s="31">
-        <v>1</v>
-      </c>
-      <c r="G172" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="29">
+        <v>11</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G172" s="31" t="s">
         <v>96</v>
       </c>
       <c r="H172" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I172" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="38">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="49">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E173" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F173" s="25">
-        <v>2</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H173" s="25" t="s">
+      <c r="D173" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="47">
+        <v>12</v>
+      </c>
+      <c r="F173" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G173" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I173" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="38">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="49">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E174" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174" s="25">
-        <v>3</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H174" s="25" t="s">
+      <c r="D174" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="47">
+        <v>13</v>
+      </c>
+      <c r="F174" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H174" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I174" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="38">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="49">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E175" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F175" s="25">
-        <v>4</v>
-      </c>
-      <c r="G175" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H175" s="25" t="s">
+      <c r="D175" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="47">
+        <v>14</v>
+      </c>
+      <c r="F175" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G175" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H175" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I175" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="38">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="49">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E176" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" s="25">
-        <v>5</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I176" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="38">
+      <c r="D176" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="47">
+        <v>15</v>
+      </c>
+      <c r="F176" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="49">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E177" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F177" s="25">
-        <v>6</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H177" s="25" t="s">
+      <c r="D177" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="29">
+        <v>16</v>
+      </c>
+      <c r="F177" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G177" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H177" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I177" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="38">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="49">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E178" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F178" s="25">
-        <v>7</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H178" s="25" t="s">
+      <c r="D178" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="47">
+        <v>17</v>
+      </c>
+      <c r="F178" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H178" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I178" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="38">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="49">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F179" s="25">
-        <v>8</v>
-      </c>
-      <c r="G179" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H179" s="25" t="s">
+      <c r="D179" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="47">
+        <v>18</v>
+      </c>
+      <c r="F179" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H179" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I179" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="38">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="49">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E180" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F180" s="25">
-        <v>9</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H180" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="38">
+      <c r="D180" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="47">
+        <v>19</v>
+      </c>
+      <c r="F180" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G180" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H180" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="49">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D181" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E181" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F181" s="25">
-        <v>10</v>
-      </c>
-      <c r="G181" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H181" s="25" t="s">
+      <c r="D181" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="47">
+        <v>20</v>
+      </c>
+      <c r="F181" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G181" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I181" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="38">
         <f t="shared" si="1"/>
         <v>181</v>
@@ -7586,7 +7616,7 @@
         <v>33</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F182" s="31">
         <v>1</v>
@@ -7615,8 +7645,8 @@
       <c r="D183" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E183" s="34" t="s">
-        <v>35</v>
+      <c r="E183" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F183" s="25">
         <v>2</v>
@@ -7645,8 +7675,8 @@
       <c r="D184" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E184" s="34" t="s">
-        <v>35</v>
+      <c r="E184" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F184" s="25">
         <v>3</v>
@@ -7675,8 +7705,8 @@
       <c r="D185" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E185" s="34" t="s">
-        <v>35</v>
+      <c r="E185" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F185" s="25">
         <v>4</v>
@@ -7705,8 +7735,8 @@
       <c r="D186" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E186" s="34" t="s">
-        <v>35</v>
+      <c r="E186" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F186" s="25">
         <v>5</v>
@@ -7735,8 +7765,8 @@
       <c r="D187" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E187" s="34" t="s">
-        <v>35</v>
+      <c r="E187" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F187" s="25">
         <v>6</v>
@@ -7765,8 +7795,8 @@
       <c r="D188" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E188" s="34" t="s">
-        <v>35</v>
+      <c r="E188" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F188" s="25">
         <v>7</v>
@@ -7795,8 +7825,8 @@
       <c r="D189" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E189" s="34" t="s">
-        <v>35</v>
+      <c r="E189" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F189" s="25">
         <v>8</v>
@@ -7825,8 +7855,8 @@
       <c r="D190" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E190" s="34" t="s">
-        <v>35</v>
+      <c r="E190" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F190" s="25">
         <v>9</v>
@@ -7855,8 +7885,8 @@
       <c r="D191" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E191" s="34" t="s">
-        <v>35</v>
+      <c r="E191" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F191" s="25">
         <v>10</v>
@@ -7871,7 +7901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" s="32" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="38">
         <f t="shared" si="1"/>
         <v>191</v>
@@ -7883,14 +7913,14 @@
         <v>96</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E192" s="29">
+        <v>33</v>
+      </c>
+      <c r="E192" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" s="31">
         <v>1</v>
       </c>
-      <c r="F192" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G192" s="29" t="s">
         <v>96</v>
       </c>
@@ -7898,306 +7928,306 @@
         <v>13</v>
       </c>
       <c r="I192" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="38">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B193" s="49" t="s">
+      <c r="B193" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D193" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E193" s="47">
-        <v>1</v>
-      </c>
-      <c r="F193" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G193" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H193" s="48" t="s">
+      <c r="D193" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E193" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F193" s="25">
+        <v>2</v>
+      </c>
+      <c r="G193" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H193" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I193" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="38">
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="B194" s="49" t="s">
+      <c r="B194" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D194" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E194" s="47">
-        <v>1</v>
-      </c>
-      <c r="F194" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G194" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H194" s="48" t="s">
+      <c r="D194" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194" s="25">
+        <v>3</v>
+      </c>
+      <c r="G194" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H194" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I194" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="38">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="B195" s="49" t="s">
+      <c r="B195" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D195" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E195" s="47">
-        <v>1</v>
-      </c>
-      <c r="F195" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G195" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H195" s="48" t="s">
+      <c r="D195" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" s="25">
+        <v>4</v>
+      </c>
+      <c r="G195" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H195" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I195" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="38">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="B196" s="49" t="s">
+      <c r="B196" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D196" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E196" s="47">
-        <v>2</v>
-      </c>
-      <c r="F196" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G196" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H196" s="48" t="s">
+      <c r="D196" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" s="25">
+        <v>5</v>
+      </c>
+      <c r="G196" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H196" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I196" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="38">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="B197" s="49" t="s">
+      <c r="B197" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D197" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E197" s="47">
-        <v>2</v>
-      </c>
-      <c r="F197" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G197" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H197" s="48" t="s">
+      <c r="D197" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" s="25">
+        <v>6</v>
+      </c>
+      <c r="G197" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H197" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I197" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="38">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="B198" s="49" t="s">
+      <c r="B198" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D198" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E198" s="47">
-        <v>2</v>
-      </c>
-      <c r="F198" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G198" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H198" s="48" t="s">
+      <c r="D198" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198" s="25">
+        <v>7</v>
+      </c>
+      <c r="G198" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H198" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I198" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="38">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="B199" s="49" t="s">
+      <c r="B199" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D199" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E199" s="47">
-        <v>2</v>
-      </c>
-      <c r="F199" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G199" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H199" s="48" t="s">
+      <c r="D199" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F199" s="25">
+        <v>8</v>
+      </c>
+      <c r="G199" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H199" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I199" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="38">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="B200" s="49" t="s">
+      <c r="B200" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D200" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E200" s="47">
-        <v>3</v>
-      </c>
-      <c r="F200" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G200" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H200" s="48" t="s">
+      <c r="D200" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" s="25">
+        <v>9</v>
+      </c>
+      <c r="G200" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H200" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I200" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="38">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="B201" s="49" t="s">
+      <c r="B201" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D201" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E201" s="47">
-        <v>3</v>
-      </c>
-      <c r="F201" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G201" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H201" s="48" t="s">
+      <c r="D201" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="25">
+        <v>10</v>
+      </c>
+      <c r="G201" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H201" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I201" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="38">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="B202" s="49" t="s">
+      <c r="B202" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D202" s="43" t="s">
+      <c r="D202" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E202" s="47">
-        <v>3</v>
-      </c>
-      <c r="F202" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G202" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H202" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I202" s="45" t="s">
+      <c r="E202" s="29">
+        <v>1</v>
+      </c>
+      <c r="F202" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G202" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H202" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" s="32" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8216,10 +8246,10 @@
         <v>121</v>
       </c>
       <c r="E203" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F203" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G203" s="47" t="s">
         <v>96</v>
@@ -8231,139 +8261,700 @@
         <v>134</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="38">
+    <row r="204" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="49">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D204" s="30" t="s">
+      <c r="D204" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E204" s="47">
+        <v>1</v>
+      </c>
+      <c r="F204" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G204" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="49">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D205" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E205" s="47">
+        <v>1</v>
+      </c>
+      <c r="F205" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G205" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="49">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D206" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E206" s="47">
+        <v>2</v>
+      </c>
+      <c r="F206" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G206" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="49">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D207" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E207" s="47">
+        <v>2</v>
+      </c>
+      <c r="F207" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G207" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="49">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D208" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E208" s="47">
+        <v>2</v>
+      </c>
+      <c r="F208" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G208" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="49">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D209" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E209" s="47">
+        <v>2</v>
+      </c>
+      <c r="F209" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G209" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="49">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D210" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E210" s="47">
+        <v>3</v>
+      </c>
+      <c r="F210" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G210" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="49">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D211" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E211" s="47">
+        <v>3</v>
+      </c>
+      <c r="F211" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G211" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="49">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D212" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E212" s="47">
+        <v>3</v>
+      </c>
+      <c r="F212" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G212" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="45" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="49">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D213" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E213" s="47">
+        <v>3</v>
+      </c>
+      <c r="F213" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G213" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="32" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="38">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D214" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E204" s="29" t="s">
+      <c r="E214" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F204" s="29" t="s">
+      <c r="F214" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G204" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H204" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I204" s="32" t="s">
+      <c r="G214" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H214" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-    </row>
-    <row r="209" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+    </row>
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+    </row>
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+    </row>
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+    </row>
+    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+    </row>
+    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+    </row>
+    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+    </row>
+    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+    </row>
+    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+    </row>
+    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+    </row>
+    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+    </row>
+    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+    </row>
+    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+    </row>
+    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+    </row>
+    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+    </row>
+    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+    </row>
+    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+    </row>
+    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+    </row>
+    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+    </row>
+    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+    </row>
+    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+    </row>
+    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+    </row>
+    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+    </row>
+    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+    </row>
+    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+    </row>
+    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+    </row>
+    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+    </row>
+    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+    </row>
+    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+    </row>
+    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+    </row>
+    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+    </row>
+    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+    </row>
+    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+    </row>
+    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+    </row>
+    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+    </row>
+    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+    </row>
+    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+    </row>
+    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+    </row>
+    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+    </row>
+    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+    </row>
+    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+    </row>
+    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+    </row>
+    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+    </row>
+    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+    </row>
+    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+    </row>
+    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+    </row>
+    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+    </row>
+    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+    </row>
+    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+    </row>
+    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+    </row>
+    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+    </row>
+    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+    </row>
+    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+    </row>
+    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+    </row>
+    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+    </row>
+    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+    </row>
+    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+    </row>
+    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+    </row>
+    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+    </row>
+    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+    </row>
+    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+    </row>
+    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+    </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="224">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -121,28 +121,49 @@
     <t xml:space="preserve">Förderung Verdunstung</t>
   </si>
   <si>
-    <t xml:space="preserve">cbgwasser</t>
+    <t xml:space="preserve">wasser_1</t>
   </si>
   <si>
     <t xml:space="preserve">Förderung Grundwasserneubildung</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minderung Abfluss</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sammlung und Ableitung</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Behandlung</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trinkwassereinsparung</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nährstoffrückgewinnung</t>
   </si>
   <si>
+    <t xml:space="preserve">wasser_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Starkregen-, Überflutungsvorsorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasser_8</t>
   </si>
   <si>
     <t xml:space="preserve">Vermeidung</t>
@@ -946,7 +967,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1143,14 +1164,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1261,10 +1274,10 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.11"/>
@@ -1276,7 +1289,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1700,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>8</v>
@@ -1696,7 +1709,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1730,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>8</v>
@@ -1726,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>8</v>
@@ -1755,7 +1768,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>8</v>
@@ -1784,7 +1797,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1817,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>8</v>
@@ -1813,7 +1826,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1846,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>8</v>
@@ -1842,7 +1855,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1876,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>8</v>
@@ -1872,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>8</v>
@@ -1902,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,7 +1936,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>8</v>
@@ -1932,7 +1945,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1966,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>8</v>
@@ -1962,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>8</v>
@@ -1992,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>8</v>
@@ -2022,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2056,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>8</v>
@@ -2052,7 +2065,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2086,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>8</v>
@@ -2082,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,7 +2116,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>8</v>
@@ -2112,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2146,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>8</v>
@@ -2142,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>8</v>
@@ -2172,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2193,7 +2206,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>8</v>
@@ -2202,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>8</v>
@@ -2232,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2266,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>8</v>
@@ -2262,7 +2275,7 @@
         <v>24</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>8</v>
@@ -2292,7 +2305,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2313,7 +2326,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>8</v>
@@ -2322,7 +2335,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2342,7 +2355,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>8</v>
@@ -2351,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2379,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>8</v>
@@ -2381,7 +2394,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2409,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>8</v>
@@ -2411,7 +2424,7 @@
         <v>24</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>8</v>
@@ -2441,7 +2454,7 @@
         <v>24</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +2469,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>8</v>
@@ -2468,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>8</v>
@@ -2498,10 +2511,10 @@
         <v>8</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,10 +2529,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F42" s="37" t="s">
         <v>8</v>
@@ -2528,10 +2541,10 @@
         <v>8</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,22 +2559,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>68</v>
-      </c>
       <c r="I43" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2589,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F44" s="37" t="s">
         <v>8</v>
@@ -2588,10 +2601,10 @@
         <v>8</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2619,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F45" s="37" t="s">
         <v>8</v>
@@ -2618,10 +2631,10 @@
         <v>8</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2649,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F46" s="30" t="s">
         <v>8</v>
@@ -2651,7 +2664,7 @@
         <v>24</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F47" s="37" t="s">
         <v>8</v>
@@ -2681,7 +2694,7 @@
         <v>24</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F48" s="37" t="s">
         <v>8</v>
@@ -2711,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>8</v>
@@ -2741,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>8</v>
@@ -2771,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>16</v>
@@ -2801,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>19</v>
@@ -2831,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>21</v>
@@ -2861,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,10 +2889,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>8</v>
@@ -2891,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2919,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F55" s="43" t="s">
         <v>8</v>
@@ -2921,7 +2934,7 @@
         <v>13</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2949,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F56" s="43" t="s">
         <v>8</v>
@@ -2951,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +2979,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>8</v>
@@ -2981,7 +2994,7 @@
         <v>13</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,10 +3009,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F58" s="43" t="s">
         <v>8</v>
@@ -3011,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3039,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F59" s="43" t="s">
         <v>8</v>
@@ -3041,7 +3054,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,10 +3069,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F60" s="43" t="s">
         <v>8</v>
@@ -3071,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,10 +3099,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F61" s="43" t="s">
         <v>8</v>
@@ -3101,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,22 +3129,22 @@
         <v>8</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E62" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3159,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>8</v>
@@ -3161,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F64" s="43" t="s">
         <v>8</v>
@@ -3191,7 +3204,7 @@
         <v>13</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F65" s="30" t="s">
         <v>8</v>
@@ -3221,7 +3234,7 @@
         <v>13</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,13 +3249,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G66" s="43" t="s">
         <v>8</v>
@@ -3251,7 +3264,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="44" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>8</v>
@@ -3281,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="I67" s="44" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G68" s="43" t="s">
         <v>8</v>
@@ -3311,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="44" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G69" s="43" t="s">
         <v>8</v>
@@ -3341,7 +3354,7 @@
         <v>13</v>
       </c>
       <c r="I69" s="44" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,13 +3369,13 @@
         <v>8</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G70" s="43" t="s">
         <v>8</v>
@@ -3371,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="I70" s="44" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,13 +3399,13 @@
         <v>8</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G71" s="43" t="s">
         <v>8</v>
@@ -3401,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="I71" s="44" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,13 +3429,13 @@
         <v>8</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G72" s="43" t="s">
         <v>8</v>
@@ -3431,7 +3444,7 @@
         <v>13</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,13 +3459,13 @@
         <v>8</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" s="43" t="s">
         <v>8</v>
@@ -3461,7 +3474,7 @@
         <v>13</v>
       </c>
       <c r="I73" s="44" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,13 +3489,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G74" s="43" t="s">
         <v>8</v>
@@ -3491,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G75" s="43" t="s">
         <v>8</v>
@@ -3521,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,13 +3549,13 @@
         <v>8</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" s="43" t="s">
         <v>8</v>
@@ -3551,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,13 +3579,13 @@
         <v>8</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G77" s="43" t="s">
         <v>8</v>
@@ -3581,7 +3594,7 @@
         <v>13</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,13 +3609,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G78" s="43" t="s">
         <v>8</v>
@@ -3611,7 +3624,7 @@
         <v>13</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,13 +3639,13 @@
         <v>8</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G79" s="43" t="s">
         <v>8</v>
@@ -3641,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,13 +3669,13 @@
         <v>8</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G80" s="43" t="s">
         <v>8</v>
@@ -3671,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="I80" s="44" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,13 +3699,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G81" s="43" t="s">
         <v>8</v>
@@ -3701,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="I81" s="44" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G82" s="43" t="s">
         <v>8</v>
@@ -3731,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,13 +3759,13 @@
         <v>8</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G83" s="43" t="s">
         <v>8</v>
@@ -3761,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,13 +3789,13 @@
         <v>8</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>8</v>
@@ -3791,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="44" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,13 +3819,13 @@
         <v>8</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" s="43" t="s">
         <v>8</v>
@@ -3821,7 +3834,7 @@
         <v>13</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,13 +3849,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>8</v>
@@ -3851,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,13 +3879,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G87" s="43" t="s">
         <v>8</v>
@@ -3881,7 +3894,7 @@
         <v>13</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G88" s="43" t="s">
         <v>8</v>
@@ -3911,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G89" s="43" t="s">
         <v>8</v>
@@ -3941,7 +3954,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,13 +3969,13 @@
         <v>8</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G90" s="43" t="s">
         <v>8</v>
@@ -3971,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,13 +3999,13 @@
         <v>8</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G91" s="43" t="s">
         <v>8</v>
@@ -4001,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G92" s="43" t="s">
         <v>8</v>
@@ -4031,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,13 +4059,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G93" s="43" t="s">
         <v>8</v>
@@ -4061,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,13 +4089,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G94" s="43" t="s">
         <v>8</v>
@@ -4091,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,13 +4119,13 @@
         <v>8</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G95" s="43" t="s">
         <v>8</v>
@@ -4121,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,13 +4149,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G96" s="43" t="s">
         <v>8</v>
@@ -4151,7 +4164,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="44" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,13 +4179,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G97" s="43" t="s">
         <v>8</v>
@@ -4181,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,13 +4209,13 @@
         <v>8</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G98" s="43" t="s">
         <v>8</v>
@@ -4211,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" s="43" t="s">
         <v>8</v>
@@ -4241,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,13 +4269,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G100" s="43" t="s">
         <v>8</v>
@@ -4271,7 +4284,7 @@
         <v>13</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G101" s="43" t="s">
         <v>8</v>
@@ -4301,7 +4314,7 @@
         <v>13</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G102" s="43" t="s">
         <v>8</v>
@@ -4331,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G103" s="43" t="s">
         <v>8</v>
@@ -4361,7 +4374,7 @@
         <v>13</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,13 +4389,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G104" s="43" t="s">
         <v>8</v>
@@ -4391,7 +4404,7 @@
         <v>13</v>
       </c>
       <c r="I104" s="44" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,13 +4419,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G105" s="43" t="s">
         <v>8</v>
@@ -4421,7 +4434,7 @@
         <v>13</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,10 +4448,10 @@
         <v>8</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F106" s="43" t="s">
         <v>8</v>
@@ -4450,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="I106" s="44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,10 +4478,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>8</v>
@@ -4480,7 +4493,7 @@
         <v>13</v>
       </c>
       <c r="I107" s="46" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J107" s="47"/>
     </row>
@@ -4496,25 +4509,25 @@
         <v>8</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F108" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="G108" s="49" t="s">
+      <c r="G108" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="50" t="s">
-        <v>165</v>
+      <c r="I108" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J108" s="42" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,10 +4542,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F109" s="42" t="n">
         <v>2</v>
@@ -4543,8 +4556,8 @@
       <c r="H109" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="50" t="s">
-        <v>165</v>
+      <c r="I109" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J109" s="38"/>
       <c r="K109" s="38"/>
@@ -4577,10 +4590,10 @@
         <v>8</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F110" s="42" t="n">
         <v>3</v>
@@ -4591,8 +4604,8 @@
       <c r="H110" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I110" s="50" t="s">
-        <v>165</v>
+      <c r="I110" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J110" s="38"/>
       <c r="K110" s="38"/>
@@ -4625,10 +4638,10 @@
         <v>8</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F111" s="42" t="n">
         <v>4</v>
@@ -4639,8 +4652,8 @@
       <c r="H111" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="50" t="s">
-        <v>165</v>
+      <c r="I111" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J111" s="38"/>
       <c r="K111" s="38"/>
@@ -4673,10 +4686,10 @@
         <v>8</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F112" s="42" t="n">
         <v>5</v>
@@ -4687,8 +4700,8 @@
       <c r="H112" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="50" t="s">
-        <v>165</v>
+      <c r="I112" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J112" s="38"/>
       <c r="K112" s="38"/>
@@ -4721,10 +4734,10 @@
         <v>8</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F113" s="42" t="n">
         <v>6</v>
@@ -4735,8 +4748,8 @@
       <c r="H113" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="50" t="s">
-        <v>165</v>
+      <c r="I113" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J113" s="38"/>
       <c r="K113" s="38"/>
@@ -4769,10 +4782,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F114" s="42" t="n">
         <v>7</v>
@@ -4783,8 +4796,8 @@
       <c r="H114" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="50" t="s">
-        <v>165</v>
+      <c r="I114" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J114" s="38"/>
       <c r="K114" s="38"/>
@@ -4817,10 +4830,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F115" s="42" t="n">
         <v>8</v>
@@ -4831,8 +4844,8 @@
       <c r="H115" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I115" s="50" t="s">
-        <v>165</v>
+      <c r="I115" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J115" s="38"/>
       <c r="K115" s="38"/>
@@ -4865,10 +4878,10 @@
         <v>8</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F116" s="42" t="n">
         <v>9</v>
@@ -4879,8 +4892,8 @@
       <c r="H116" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I116" s="50" t="s">
-        <v>165</v>
+      <c r="I116" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J116" s="38"/>
       <c r="K116" s="38"/>
@@ -4913,10 +4926,10 @@
         <v>8</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F117" s="42" t="n">
         <v>10</v>
@@ -4927,8 +4940,8 @@
       <c r="H117" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="50" t="s">
-        <v>165</v>
+      <c r="I117" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J117" s="38"/>
       <c r="K117" s="38"/>
@@ -4961,25 +4974,25 @@
         <v>8</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F118" s="42" t="n">
         <v>11</v>
       </c>
-      <c r="G118" s="49" t="s">
+      <c r="G118" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H118" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="50" t="s">
-        <v>165</v>
+      <c r="I118" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J118" s="42" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,10 +5007,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F119" s="42" t="n">
         <v>12</v>
@@ -5008,8 +5021,8 @@
       <c r="H119" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="50" t="s">
-        <v>165</v>
+      <c r="I119" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J119" s="38"/>
       <c r="K119" s="38"/>
@@ -5042,10 +5055,10 @@
         <v>8</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F120" s="42" t="n">
         <v>13</v>
@@ -5056,8 +5069,8 @@
       <c r="H120" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="50" t="s">
-        <v>165</v>
+      <c r="I120" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J120" s="38"/>
       <c r="K120" s="38"/>
@@ -5090,10 +5103,10 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F121" s="42" t="n">
         <v>14</v>
@@ -5104,8 +5117,8 @@
       <c r="H121" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="50" t="s">
-        <v>165</v>
+      <c r="I121" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
@@ -5138,10 +5151,10 @@
         <v>8</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F122" s="42" t="n">
         <v>15</v>
@@ -5152,8 +5165,8 @@
       <c r="H122" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="50" t="s">
-        <v>165</v>
+      <c r="I122" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J122" s="38"/>
       <c r="K122" s="38"/>
@@ -5186,10 +5199,10 @@
         <v>8</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F123" s="42" t="n">
         <v>16</v>
@@ -5200,8 +5213,8 @@
       <c r="H123" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I123" s="50" t="s">
-        <v>165</v>
+      <c r="I123" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
@@ -5234,10 +5247,10 @@
         <v>8</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F124" s="42" t="n">
         <v>17</v>
@@ -5248,8 +5261,8 @@
       <c r="H124" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I124" s="50" t="s">
-        <v>165</v>
+      <c r="I124" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
@@ -5282,10 +5295,10 @@
         <v>8</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F125" s="42" t="n">
         <v>18</v>
@@ -5296,8 +5309,8 @@
       <c r="H125" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I125" s="50" t="s">
-        <v>165</v>
+      <c r="I125" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J125" s="38"/>
       <c r="K125" s="38"/>
@@ -5330,10 +5343,10 @@
         <v>8</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F126" s="42" t="n">
         <v>19</v>
@@ -5344,8 +5357,8 @@
       <c r="H126" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I126" s="50" t="s">
-        <v>165</v>
+      <c r="I126" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
@@ -5378,10 +5391,10 @@
         <v>8</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F127" s="42" t="n">
         <v>20</v>
@@ -5392,8 +5405,8 @@
       <c r="H127" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="50" t="s">
-        <v>165</v>
+      <c r="I127" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J127" s="38"/>
       <c r="K127" s="38"/>
@@ -5426,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E128" s="32" t="s">
         <v>5</v>
@@ -5440,8 +5453,8 @@
       <c r="H128" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I128" s="50" t="s">
-        <v>165</v>
+      <c r="I128" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J128" s="38"/>
       <c r="K128" s="38"/>
@@ -5474,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E129" s="32" t="s">
         <v>5</v>
@@ -5488,8 +5501,8 @@
       <c r="H129" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I129" s="50" t="s">
-        <v>165</v>
+      <c r="I129" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J129" s="38"/>
       <c r="K129" s="38"/>
@@ -5522,7 +5535,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E130" s="32" t="s">
         <v>5</v>
@@ -5536,8 +5549,8 @@
       <c r="H130" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="50" t="s">
-        <v>165</v>
+      <c r="I130" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J130" s="38"/>
       <c r="K130" s="38"/>
@@ -5570,7 +5583,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E131" s="32" t="s">
         <v>5</v>
@@ -5584,8 +5597,8 @@
       <c r="H131" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="50" t="s">
-        <v>165</v>
+      <c r="I131" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J131" s="38"/>
       <c r="K131" s="38"/>
@@ -5618,7 +5631,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E132" s="32" t="s">
         <v>5</v>
@@ -5632,8 +5645,8 @@
       <c r="H132" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I132" s="50" t="s">
-        <v>165</v>
+      <c r="I132" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J132" s="38"/>
       <c r="K132" s="38"/>
@@ -5666,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E133" s="32" t="s">
         <v>5</v>
@@ -5680,8 +5693,8 @@
       <c r="H133" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I133" s="50" t="s">
-        <v>165</v>
+      <c r="I133" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
@@ -5714,7 +5727,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>5</v>
@@ -5728,8 +5741,8 @@
       <c r="H134" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I134" s="50" t="s">
-        <v>165</v>
+      <c r="I134" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
@@ -5762,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E135" s="32" t="s">
         <v>5</v>
@@ -5776,8 +5789,8 @@
       <c r="H135" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I135" s="50" t="s">
-        <v>165</v>
+      <c r="I135" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J135" s="38"/>
       <c r="K135" s="38"/>
@@ -5810,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E136" s="32" t="s">
         <v>5</v>
@@ -5824,8 +5837,8 @@
       <c r="H136" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="50" t="s">
-        <v>165</v>
+      <c r="I136" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J136" s="38"/>
       <c r="K136" s="38"/>
@@ -5858,7 +5871,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E137" s="32" t="s">
         <v>5</v>
@@ -5872,8 +5885,8 @@
       <c r="H137" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I137" s="50" t="s">
-        <v>165</v>
+      <c r="I137" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J137" s="38"/>
       <c r="K137" s="38"/>
@@ -5906,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E138" s="32" t="s">
         <v>5</v>
@@ -5920,8 +5933,8 @@
       <c r="H138" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I138" s="50" t="s">
-        <v>165</v>
+      <c r="I138" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J138" s="38"/>
       <c r="K138" s="38"/>
@@ -5954,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E139" s="32" t="s">
         <v>5</v>
@@ -5968,8 +5981,8 @@
       <c r="H139" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I139" s="50" t="s">
-        <v>165</v>
+      <c r="I139" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J139" s="38"/>
       <c r="K139" s="38"/>
@@ -6002,7 +6015,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E140" s="32" t="s">
         <v>5</v>
@@ -6016,8 +6029,8 @@
       <c r="H140" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I140" s="50" t="s">
-        <v>165</v>
+      <c r="I140" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
@@ -6050,7 +6063,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E141" s="32" t="s">
         <v>5</v>
@@ -6064,8 +6077,8 @@
       <c r="H141" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I141" s="50" t="s">
-        <v>165</v>
+      <c r="I141" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J141" s="38"/>
       <c r="K141" s="38"/>
@@ -6098,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E142" s="32" t="s">
         <v>5</v>
@@ -6112,8 +6125,8 @@
       <c r="H142" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I142" s="50" t="s">
-        <v>165</v>
+      <c r="I142" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J142" s="38"/>
       <c r="K142" s="38"/>
@@ -6146,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E143" s="32" t="s">
         <v>5</v>
@@ -6160,8 +6173,8 @@
       <c r="H143" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I143" s="50" t="s">
-        <v>165</v>
+      <c r="I143" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
@@ -6194,7 +6207,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E144" s="32" t="s">
         <v>5</v>
@@ -6208,8 +6221,8 @@
       <c r="H144" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I144" s="50" t="s">
-        <v>165</v>
+      <c r="I144" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
@@ -6242,7 +6255,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>5</v>
@@ -6256,8 +6269,8 @@
       <c r="H145" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I145" s="50" t="s">
-        <v>165</v>
+      <c r="I145" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J145" s="38"/>
       <c r="K145" s="38"/>
@@ -6290,7 +6303,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>5</v>
@@ -6304,8 +6317,8 @@
       <c r="H146" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I146" s="50" t="s">
-        <v>165</v>
+      <c r="I146" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
@@ -6338,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E147" s="32" t="s">
         <v>5</v>
@@ -6352,8 +6365,8 @@
       <c r="H147" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I147" s="50" t="s">
-        <v>165</v>
+      <c r="I147" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J147" s="38"/>
       <c r="K147" s="38"/>
@@ -6386,10 +6399,10 @@
         <v>8</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F148" s="30" t="s">
         <v>23</v>
@@ -6401,7 +6414,7 @@
         <v>13</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,10 +6429,10 @@
         <v>8</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E149" s="51" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="F149" s="37" t="s">
         <v>26</v>
@@ -6431,7 +6444,7 @@
         <v>13</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,10 +6459,10 @@
         <v>8</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E150" s="51" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="F150" s="37" t="s">
         <v>27</v>
@@ -6461,7 +6474,7 @@
         <v>13</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,10 +6489,10 @@
         <v>8</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E151" s="51" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="E151" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="F151" s="37" t="s">
         <v>28</v>
@@ -6491,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,10 +6519,10 @@
         <v>8</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E152" s="51" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="E152" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="F152" s="37" t="s">
         <v>29</v>
@@ -6521,7 +6534,7 @@
         <v>13</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,13 +6549,13 @@
         <v>8</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E153" s="51" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="E153" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G153" s="37" t="s">
         <v>8</v>
@@ -6551,7 +6564,7 @@
         <v>13</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,10 +6579,10 @@
         <v>8</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E154" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E154" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F154" s="37" t="s">
         <v>23</v>
@@ -6581,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,10 +6609,10 @@
         <v>8</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E155" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E155" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F155" s="37" t="s">
         <v>26</v>
@@ -6611,7 +6624,7 @@
         <v>13</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,10 +6639,10 @@
         <v>8</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E156" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E156" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F156" s="37" t="s">
         <v>27</v>
@@ -6641,7 +6654,7 @@
         <v>13</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,10 +6669,10 @@
         <v>8</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E157" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E157" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F157" s="37" t="s">
         <v>28</v>
@@ -6671,7 +6684,7 @@
         <v>13</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,10 +6699,10 @@
         <v>8</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E158" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E158" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F158" s="37" t="s">
         <v>29</v>
@@ -6701,7 +6714,7 @@
         <v>13</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,13 +6729,13 @@
         <v>8</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E159" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G159" s="37" t="s">
         <v>8</v>
@@ -6731,7 +6744,7 @@
         <v>13</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,25 +6759,25 @@
         <v>8</v>
       </c>
       <c r="D160" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="E160" s="52" t="n">
+        <v>190</v>
+      </c>
+      <c r="E160" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F160" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="n">
         <f aca="false">ROW(A161)-1</f>
         <v>160</v>
@@ -6776,25 +6789,25 @@
         <v>8</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E161" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E161" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F161" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G161" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="n">
         <f aca="false">ROW(A162)-1</f>
         <v>161</v>
@@ -6806,25 +6819,25 @@
         <v>8</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E162" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E162" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="F162" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
         <f aca="false">ROW(A163)-1</f>
         <v>162</v>
@@ -6836,25 +6849,25 @@
         <v>8</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E163" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E163" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="F163" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I163" s="50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="n">
         <f aca="false">ROW(A164)-1</f>
         <v>163</v>
@@ -6866,25 +6879,25 @@
         <v>8</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E164" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E164" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="F164" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I164" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="n">
         <f aca="false">ROW(A165)-1</f>
         <v>164</v>
@@ -6896,25 +6909,25 @@
         <v>8</v>
       </c>
       <c r="D165" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E165" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E165" s="53" t="n">
         <v>6</v>
       </c>
-      <c r="F165" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G165" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I165" s="50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="n">
         <f aca="false">ROW(A166)-1</f>
         <v>165</v>
@@ -6926,25 +6939,25 @@
         <v>8</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E166" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E166" s="53" t="n">
         <v>7</v>
       </c>
-      <c r="F166" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I166" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="n">
         <f aca="false">ROW(A167)-1</f>
         <v>166</v>
@@ -6956,25 +6969,25 @@
         <v>8</v>
       </c>
       <c r="D167" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E167" s="55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F167" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="168" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="E167" s="53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F167" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="n">
         <f aca="false">ROW(A168)-1</f>
         <v>167</v>
@@ -6986,25 +6999,25 @@
         <v>8</v>
       </c>
       <c r="D168" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E168" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E168" s="53" t="n">
         <v>9</v>
       </c>
-      <c r="F168" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="n">
         <f aca="false">ROW(A169)-1</f>
         <v>168</v>
@@ -7016,22 +7029,22 @@
         <v>8</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E169" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E169" s="53" t="n">
         <v>10</v>
       </c>
-      <c r="F169" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="50" t="s">
-        <v>193</v>
+      <c r="F169" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,25 +7059,25 @@
         <v>8</v>
       </c>
       <c r="D170" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="E170" s="52" t="n">
+        <v>190</v>
+      </c>
+      <c r="E170" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="F170" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G170" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="171" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="n">
         <f aca="false">ROW(A171)-1</f>
         <v>170</v>
@@ -7076,25 +7089,25 @@
         <v>8</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E171" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E171" s="53" t="n">
         <v>12</v>
       </c>
-      <c r="F171" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G171" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="172" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="n">
         <f aca="false">ROW(A172)-1</f>
         <v>171</v>
@@ -7106,25 +7119,25 @@
         <v>8</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E172" s="55" t="n">
-        <v>13</v>
-      </c>
-      <c r="F172" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="173" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="E172" s="53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F172" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="n">
         <f aca="false">ROW(A173)-1</f>
         <v>172</v>
@@ -7136,25 +7149,25 @@
         <v>8</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E173" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E173" s="53" t="n">
         <v>14</v>
       </c>
-      <c r="F173" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H173" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="n">
         <f aca="false">ROW(A174)-1</f>
         <v>173</v>
@@ -7166,25 +7179,25 @@
         <v>8</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E174" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E174" s="53" t="n">
         <v>15</v>
       </c>
-      <c r="F174" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="n">
         <f aca="false">ROW(A175)-1</f>
         <v>174</v>
@@ -7196,25 +7209,25 @@
         <v>8</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E175" s="52" t="n">
+        <v>190</v>
+      </c>
+      <c r="E175" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="F175" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H175" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="176" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F175" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="n">
         <f aca="false">ROW(A176)-1</f>
         <v>175</v>
@@ -7226,25 +7239,25 @@
         <v>8</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E176" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E176" s="53" t="n">
         <v>17</v>
       </c>
-      <c r="F176" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I176" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="n">
         <f aca="false">ROW(A177)-1</f>
         <v>176</v>
@@ -7256,25 +7269,25 @@
         <v>8</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E177" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E177" s="53" t="n">
         <v>18</v>
       </c>
-      <c r="F177" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I177" s="50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="n">
         <f aca="false">ROW(A178)-1</f>
         <v>177</v>
@@ -7286,25 +7299,25 @@
         <v>8</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E178" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E178" s="53" t="n">
         <v>19</v>
       </c>
-      <c r="F178" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I178" s="54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F178" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="n">
         <f aca="false">ROW(A179)-1</f>
         <v>178</v>
@@ -7316,25 +7329,25 @@
         <v>8</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E179" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="E179" s="53" t="n">
         <v>20</v>
       </c>
-      <c r="F179" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H179" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I179" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="180" s="54" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F179" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="n">
         <f aca="false">ROW(A180)-1</f>
         <v>179</v>
@@ -7346,22 +7359,22 @@
         <v>8</v>
       </c>
       <c r="D180" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E180" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="F180" s="53" t="n">
+        <v>211</v>
+      </c>
+      <c r="E180" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="F180" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="G180" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="54" t="s">
-        <v>206</v>
+      <c r="G180" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="52" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,10 +7389,10 @@
         <v>8</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E181" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E181" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F181" s="37" t="n">
         <v>2</v>
@@ -7390,8 +7403,8 @@
       <c r="H181" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I181" s="50" t="s">
-        <v>206</v>
+      <c r="I181" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,10 +7419,10 @@
         <v>8</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E182" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E182" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F182" s="37" t="n">
         <v>3</v>
@@ -7420,8 +7433,8 @@
       <c r="H182" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I182" s="50" t="s">
-        <v>206</v>
+      <c r="I182" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,10 +7449,10 @@
         <v>8</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E183" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E183" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F183" s="37" t="n">
         <v>4</v>
@@ -7450,8 +7463,8 @@
       <c r="H183" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I183" s="50" t="s">
-        <v>206</v>
+      <c r="I183" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,10 +7479,10 @@
         <v>8</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E184" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E184" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F184" s="37" t="n">
         <v>5</v>
@@ -7480,8 +7493,8 @@
       <c r="H184" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I184" s="50" t="s">
-        <v>206</v>
+      <c r="I184" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,10 +7509,10 @@
         <v>8</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E185" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E185" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F185" s="37" t="n">
         <v>6</v>
@@ -7510,8 +7523,8 @@
       <c r="H185" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I185" s="50" t="s">
-        <v>206</v>
+      <c r="I185" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,10 +7539,10 @@
         <v>8</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E186" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E186" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F186" s="37" t="n">
         <v>7</v>
@@ -7540,8 +7553,8 @@
       <c r="H186" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I186" s="50" t="s">
-        <v>206</v>
+      <c r="I186" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,10 +7569,10 @@
         <v>8</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E187" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E187" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F187" s="37" t="n">
         <v>8</v>
@@ -7570,8 +7583,8 @@
       <c r="H187" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="50" t="s">
-        <v>206</v>
+      <c r="I187" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,10 +7599,10 @@
         <v>8</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E188" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E188" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F188" s="37" t="n">
         <v>9</v>
@@ -7600,8 +7613,8 @@
       <c r="H188" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I188" s="50" t="s">
-        <v>206</v>
+      <c r="I188" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,10 +7629,10 @@
         <v>8</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E189" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="E189" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="F189" s="37" t="n">
         <v>10</v>
@@ -7630,11 +7643,11 @@
       <c r="H189" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I189" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="190" s="54" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I189" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" s="52" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="n">
         <f aca="false">ROW(A190)-1</f>
         <v>189</v>
@@ -7646,22 +7659,22 @@
         <v>8</v>
       </c>
       <c r="D190" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E190" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F190" s="53" t="n">
+        <v>211</v>
+      </c>
+      <c r="E190" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F190" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="G190" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H190" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" s="54" t="s">
-        <v>206</v>
+      <c r="G190" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="52" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7676,10 +7689,10 @@
         <v>8</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E191" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E191" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F191" s="37" t="n">
         <v>2</v>
@@ -7690,8 +7703,8 @@
       <c r="H191" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I191" s="50" t="s">
-        <v>206</v>
+      <c r="I191" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,10 +7719,10 @@
         <v>8</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E192" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E192" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F192" s="37" t="n">
         <v>3</v>
@@ -7720,8 +7733,8 @@
       <c r="H192" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I192" s="50" t="s">
-        <v>206</v>
+      <c r="I192" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7736,10 +7749,10 @@
         <v>8</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E193" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E193" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F193" s="37" t="n">
         <v>4</v>
@@ -7750,8 +7763,8 @@
       <c r="H193" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I193" s="50" t="s">
-        <v>206</v>
+      <c r="I193" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,10 +7779,10 @@
         <v>8</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E194" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E194" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F194" s="37" t="n">
         <v>5</v>
@@ -7780,8 +7793,8 @@
       <c r="H194" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I194" s="50" t="s">
-        <v>206</v>
+      <c r="I194" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,10 +7809,10 @@
         <v>8</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E195" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E195" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F195" s="37" t="n">
         <v>6</v>
@@ -7810,8 +7823,8 @@
       <c r="H195" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="50" t="s">
-        <v>206</v>
+      <c r="I195" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7826,10 +7839,10 @@
         <v>8</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E196" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E196" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F196" s="37" t="n">
         <v>7</v>
@@ -7840,8 +7853,8 @@
       <c r="H196" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I196" s="50" t="s">
-        <v>206</v>
+      <c r="I196" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7856,10 +7869,10 @@
         <v>8</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E197" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E197" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F197" s="37" t="n">
         <v>8</v>
@@ -7870,8 +7883,8 @@
       <c r="H197" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I197" s="50" t="s">
-        <v>206</v>
+      <c r="I197" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,10 +7899,10 @@
         <v>8</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E198" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E198" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F198" s="37" t="n">
         <v>9</v>
@@ -7900,8 +7913,8 @@
       <c r="H198" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I198" s="50" t="s">
-        <v>206</v>
+      <c r="I198" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,10 +7929,10 @@
         <v>8</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E199" s="57" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="E199" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F199" s="37" t="n">
         <v>10</v>
@@ -7930,11 +7943,11 @@
       <c r="H199" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I199" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" s="54" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I199" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="n">
         <f aca="false">ROW(A200)-1</f>
         <v>199</v>
@@ -7946,25 +7959,25 @@
         <v>8</v>
       </c>
       <c r="D200" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="E200" s="52" t="n">
+        <v>215</v>
+      </c>
+      <c r="E200" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F200" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="G200" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H200" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" s="54" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="201" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="G200" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="n">
         <f aca="false">ROW(A201)-1</f>
         <v>200</v>
@@ -7976,25 +7989,25 @@
         <v>8</v>
       </c>
       <c r="D201" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E201" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E201" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="F201" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="G201" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H201" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I201" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F201" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G201" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="n">
         <f aca="false">ROW(A202)-1</f>
         <v>201</v>
@@ -8006,25 +8019,25 @@
         <v>8</v>
       </c>
       <c r="D202" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E202" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E202" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="F202" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G202" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H202" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I202" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="203" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F202" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G202" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="n">
         <f aca="false">ROW(A203)-1</f>
         <v>202</v>
@@ -8036,25 +8049,25 @@
         <v>8</v>
       </c>
       <c r="D203" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E203" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E203" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="F203" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="G203" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H203" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F203" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G203" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="n">
         <f aca="false">ROW(A204)-1</f>
         <v>203</v>
@@ -8066,25 +8079,25 @@
         <v>8</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E204" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E204" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F204" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="G204" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H204" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I204" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F204" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G204" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="n">
         <f aca="false">ROW(A205)-1</f>
         <v>204</v>
@@ -8096,25 +8109,25 @@
         <v>8</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E205" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E205" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F205" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="G205" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H205" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I205" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="206" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G205" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="n">
         <f aca="false">ROW(A206)-1</f>
         <v>205</v>
@@ -8126,25 +8139,25 @@
         <v>8</v>
       </c>
       <c r="D206" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E206" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E206" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F206" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G206" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H206" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I206" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F206" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G206" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="n">
         <f aca="false">ROW(A207)-1</f>
         <v>206</v>
@@ -8156,25 +8169,25 @@
         <v>8</v>
       </c>
       <c r="D207" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E207" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E207" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F207" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="G207" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H207" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I207" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F207" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G207" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="n">
         <f aca="false">ROW(A208)-1</f>
         <v>207</v>
@@ -8186,25 +8199,25 @@
         <v>8</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E208" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E208" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="F208" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="G208" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H208" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I208" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F208" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G208" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="n">
         <f aca="false">ROW(A209)-1</f>
         <v>208</v>
@@ -8216,25 +8229,25 @@
         <v>8</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E209" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E209" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="F209" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="G209" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H209" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I209" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F209" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G209" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H209" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="n">
         <f aca="false">ROW(A210)-1</f>
         <v>209</v>
@@ -8246,25 +8259,25 @@
         <v>8</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E210" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E210" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="F210" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G210" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H210" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I210" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" s="50" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F210" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G210" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="n">
         <f aca="false">ROW(A211)-1</f>
         <v>210</v>
@@ -8276,25 +8289,25 @@
         <v>8</v>
       </c>
       <c r="D211" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E211" s="55" t="n">
+        <v>215</v>
+      </c>
+      <c r="E211" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="F211" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="G211" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H211" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I211" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" s="54" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F211" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G211" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="n">
         <f aca="false">ROW(A212)-1</f>
         <v>211</v>
@@ -8306,22 +8319,22 @@
         <v>8</v>
       </c>
       <c r="D212" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="E212" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F212" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G212" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H212" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I212" s="54" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="E212" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="F212" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G212" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" s="52" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="238">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -169,61 +169,103 @@
     <t xml:space="preserve">Vermeidung</t>
   </si>
   <si>
-    <t xml:space="preserve">cbgbaustoffe</t>
+    <t xml:space="preserve">baustoffe_1</t>
   </si>
   <si>
     <t xml:space="preserve">Wiederverwendung</t>
   </si>
   <si>
+    <t xml:space="preserve">baustoffe_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recycling</t>
   </si>
   <si>
+    <t xml:space="preserve">baustoffe_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verwertung</t>
   </si>
   <si>
+    <t xml:space="preserve">baustoffe_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beseitigung</t>
   </si>
   <si>
+    <t xml:space="preserve">baustoffe_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klimaanpassung</t>
   </si>
   <si>
-    <t xml:space="preserve">cbgflaeche</t>
+    <t xml:space="preserve">flaeche_1</t>
   </si>
   <si>
     <t xml:space="preserve">Gesundheitsschutz</t>
   </si>
   <si>
+    <t xml:space="preserve">flaeche_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erhalt d. Grunddaseinsfunktion</t>
   </si>
   <si>
+    <t xml:space="preserve">flaeche_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naturschutz</t>
   </si>
   <si>
+    <t xml:space="preserve">flaeche_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klimaschutz</t>
   </si>
   <si>
+    <t xml:space="preserve">flaeche_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energiebereitstellung</t>
   </si>
   <si>
-    <t xml:space="preserve">cbgenergie</t>
+    <t xml:space="preserve">energie_1</t>
   </si>
   <si>
     <t xml:space="preserve">Energieverteilung</t>
   </si>
   <si>
+    <t xml:space="preserve">energie_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energieverbrauch</t>
   </si>
   <si>
+    <t xml:space="preserve">energie_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energiespeicherung</t>
   </si>
   <si>
+    <t xml:space="preserve">energie_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elektrizität</t>
   </si>
   <si>
+    <t xml:space="preserve">energie_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wärme</t>
   </si>
   <si>
+    <t xml:space="preserve">energie_6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brennstoffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energie_7</t>
   </si>
   <si>
     <t xml:space="preserve">Anwendungsebene</t>
@@ -1273,11 +1315,11 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.11"/>
@@ -1915,7 +1957,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +1978,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>8</v>
@@ -1945,7 +1987,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2008,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>8</v>
@@ -1975,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,7 +2038,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>8</v>
@@ -2005,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,7 +2068,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>8</v>
@@ -2035,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +2098,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>8</v>
@@ -2065,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,7 +2128,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>8</v>
@@ -2095,7 +2137,7 @@
         <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,7 +2158,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>8</v>
@@ -2125,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,7 +2188,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>8</v>
@@ -2155,7 +2197,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>8</v>
@@ -2185,7 +2227,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2206,7 +2248,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>8</v>
@@ -2215,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2278,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>8</v>
@@ -2245,7 +2287,7 @@
         <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,7 +2308,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>8</v>
@@ -2275,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2338,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>8</v>
@@ -2305,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2326,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>8</v>
@@ -2335,7 +2377,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2355,7 +2397,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>8</v>
@@ -2364,7 +2406,7 @@
         <v>24</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2421,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>8</v>
@@ -2394,7 +2436,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2451,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>8</v>
@@ -2424,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>8</v>
@@ -2454,7 +2496,7 @@
         <v>24</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2511,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>8</v>
@@ -2481,10 +2523,10 @@
         <v>8</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,10 +2541,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>8</v>
@@ -2511,10 +2553,10 @@
         <v>8</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,10 +2571,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F42" s="37" t="s">
         <v>8</v>
@@ -2541,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2601,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>8</v>
@@ -2571,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,10 +2631,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F44" s="37" t="s">
         <v>8</v>
@@ -2601,10 +2643,10 @@
         <v>8</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F45" s="37" t="s">
         <v>8</v>
@@ -2631,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2691,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F46" s="30" t="s">
         <v>8</v>
@@ -2664,7 +2706,7 @@
         <v>24</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,10 +2721,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F47" s="37" t="s">
         <v>8</v>
@@ -2694,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F48" s="37" t="s">
         <v>8</v>
@@ -2724,7 +2766,7 @@
         <v>24</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2781,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>8</v>
@@ -2754,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>8</v>
@@ -2784,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>16</v>
@@ -2814,7 +2856,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>19</v>
@@ -2844,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>21</v>
@@ -2874,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,10 +2931,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>8</v>
@@ -2904,7 +2946,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F55" s="43" t="s">
         <v>8</v>
@@ -2934,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +2991,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F56" s="43" t="s">
         <v>8</v>
@@ -2964,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +3021,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>8</v>
@@ -2994,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F58" s="43" t="s">
         <v>8</v>
@@ -3024,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,10 +3081,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F59" s="43" t="s">
         <v>8</v>
@@ -3054,7 +3096,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F60" s="43" t="s">
         <v>8</v>
@@ -3084,7 +3126,7 @@
         <v>13</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F61" s="43" t="s">
         <v>8</v>
@@ -3114,7 +3156,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,10 +3171,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F62" s="43" t="s">
         <v>8</v>
@@ -3144,7 +3186,7 @@
         <v>13</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,10 +3201,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>8</v>
@@ -3174,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,10 +3231,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F64" s="43" t="s">
         <v>8</v>
@@ -3204,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3261,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F65" s="30" t="s">
         <v>8</v>
@@ -3234,7 +3276,7 @@
         <v>13</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,13 +3291,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G66" s="43" t="s">
         <v>8</v>
@@ -3264,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="I66" s="44" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,13 +3321,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>8</v>
@@ -3294,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="I67" s="44" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,13 +3351,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G68" s="43" t="s">
         <v>8</v>
@@ -3324,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="44" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,13 +3381,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G69" s="43" t="s">
         <v>8</v>
@@ -3354,7 +3396,7 @@
         <v>13</v>
       </c>
       <c r="I69" s="44" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G70" s="43" t="s">
         <v>8</v>
@@ -3384,7 +3426,7 @@
         <v>13</v>
       </c>
       <c r="I70" s="44" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G71" s="43" t="s">
         <v>8</v>
@@ -3414,7 +3456,7 @@
         <v>13</v>
       </c>
       <c r="I71" s="44" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G72" s="43" t="s">
         <v>8</v>
@@ -3444,7 +3486,7 @@
         <v>13</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,13 +3501,13 @@
         <v>8</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G73" s="43" t="s">
         <v>8</v>
@@ -3474,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="I73" s="44" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,13 +3531,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G74" s="43" t="s">
         <v>8</v>
@@ -3504,7 +3546,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,13 +3561,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G75" s="43" t="s">
         <v>8</v>
@@ -3534,7 +3576,7 @@
         <v>13</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G76" s="43" t="s">
         <v>8</v>
@@ -3564,7 +3606,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,13 +3621,13 @@
         <v>8</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G77" s="43" t="s">
         <v>8</v>
@@ -3594,7 +3636,7 @@
         <v>13</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,13 +3651,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G78" s="43" t="s">
         <v>8</v>
@@ -3624,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G79" s="43" t="s">
         <v>8</v>
@@ -3654,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="44" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,13 +3711,13 @@
         <v>8</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G80" s="43" t="s">
         <v>8</v>
@@ -3684,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="I80" s="44" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G81" s="43" t="s">
         <v>8</v>
@@ -3714,7 +3756,7 @@
         <v>13</v>
       </c>
       <c r="I81" s="44" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G82" s="43" t="s">
         <v>8</v>
@@ -3744,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,13 +3801,13 @@
         <v>8</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G83" s="43" t="s">
         <v>8</v>
@@ -3774,7 +3816,7 @@
         <v>13</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,13 +3831,13 @@
         <v>8</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>8</v>
@@ -3804,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="44" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,13 +3861,13 @@
         <v>8</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G85" s="43" t="s">
         <v>8</v>
@@ -3834,7 +3876,7 @@
         <v>13</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>8</v>
@@ -3864,7 +3906,7 @@
         <v>13</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,13 +3921,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G87" s="43" t="s">
         <v>8</v>
@@ -3894,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,13 +3951,13 @@
         <v>8</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G88" s="43" t="s">
         <v>8</v>
@@ -3924,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,13 +3981,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G89" s="43" t="s">
         <v>8</v>
@@ -3954,7 +3996,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,13 +4011,13 @@
         <v>8</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G90" s="43" t="s">
         <v>8</v>
@@ -3984,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,13 +4041,13 @@
         <v>8</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G91" s="43" t="s">
         <v>8</v>
@@ -4014,7 +4056,7 @@
         <v>13</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,13 +4071,13 @@
         <v>8</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G92" s="43" t="s">
         <v>8</v>
@@ -4044,7 +4086,7 @@
         <v>13</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,13 +4101,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G93" s="43" t="s">
         <v>8</v>
@@ -4074,7 +4116,7 @@
         <v>13</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,13 +4131,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G94" s="43" t="s">
         <v>8</v>
@@ -4104,7 +4146,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,13 +4161,13 @@
         <v>8</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G95" s="43" t="s">
         <v>8</v>
@@ -4134,7 +4176,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G96" s="43" t="s">
         <v>8</v>
@@ -4164,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="44" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,13 +4221,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G97" s="43" t="s">
         <v>8</v>
@@ -4194,7 +4236,7 @@
         <v>13</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,13 +4251,13 @@
         <v>8</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G98" s="43" t="s">
         <v>8</v>
@@ -4224,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,13 +4281,13 @@
         <v>8</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G99" s="43" t="s">
         <v>8</v>
@@ -4254,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,13 +4311,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G100" s="43" t="s">
         <v>8</v>
@@ -4284,7 +4326,7 @@
         <v>13</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,13 +4341,13 @@
         <v>8</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G101" s="43" t="s">
         <v>8</v>
@@ -4314,7 +4356,7 @@
         <v>13</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,13 +4371,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G102" s="43" t="s">
         <v>8</v>
@@ -4344,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,13 +4401,13 @@
         <v>8</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G103" s="43" t="s">
         <v>8</v>
@@ -4374,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,13 +4431,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G104" s="43" t="s">
         <v>8</v>
@@ -4404,7 +4446,7 @@
         <v>13</v>
       </c>
       <c r="I104" s="44" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,13 +4461,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G105" s="43" t="s">
         <v>8</v>
@@ -4434,7 +4476,7 @@
         <v>13</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F106" s="43" t="s">
         <v>8</v>
@@ -4463,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="I106" s="44" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,10 +4520,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>8</v>
@@ -4493,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="I107" s="46" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="J107" s="47"/>
     </row>
@@ -4509,10 +4551,10 @@
         <v>8</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F108" s="42" t="n">
         <v>1</v>
@@ -4524,10 +4566,10 @@
         <v>13</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J108" s="42" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,10 +4584,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F109" s="42" t="n">
         <v>2</v>
@@ -4557,7 +4599,7 @@
         <v>13</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J109" s="38"/>
       <c r="K109" s="38"/>
@@ -4590,10 +4632,10 @@
         <v>8</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F110" s="42" t="n">
         <v>3</v>
@@ -4605,7 +4647,7 @@
         <v>13</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J110" s="38"/>
       <c r="K110" s="38"/>
@@ -4638,10 +4680,10 @@
         <v>8</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F111" s="42" t="n">
         <v>4</v>
@@ -4653,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J111" s="38"/>
       <c r="K111" s="38"/>
@@ -4686,10 +4728,10 @@
         <v>8</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F112" s="42" t="n">
         <v>5</v>
@@ -4701,7 +4743,7 @@
         <v>13</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J112" s="38"/>
       <c r="K112" s="38"/>
@@ -4734,10 +4776,10 @@
         <v>8</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F113" s="42" t="n">
         <v>6</v>
@@ -4749,7 +4791,7 @@
         <v>13</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J113" s="38"/>
       <c r="K113" s="38"/>
@@ -4782,10 +4824,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F114" s="42" t="n">
         <v>7</v>
@@ -4797,7 +4839,7 @@
         <v>13</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J114" s="38"/>
       <c r="K114" s="38"/>
@@ -4830,10 +4872,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F115" s="42" t="n">
         <v>8</v>
@@ -4845,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J115" s="38"/>
       <c r="K115" s="38"/>
@@ -4878,10 +4920,10 @@
         <v>8</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F116" s="42" t="n">
         <v>9</v>
@@ -4893,7 +4935,7 @@
         <v>13</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J116" s="38"/>
       <c r="K116" s="38"/>
@@ -4926,10 +4968,10 @@
         <v>8</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F117" s="42" t="n">
         <v>10</v>
@@ -4941,7 +4983,7 @@
         <v>13</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J117" s="38"/>
       <c r="K117" s="38"/>
@@ -4974,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F118" s="42" t="n">
         <v>11</v>
@@ -4989,10 +5031,10 @@
         <v>13</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J118" s="42" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +5049,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F119" s="42" t="n">
         <v>12</v>
@@ -5022,7 +5064,7 @@
         <v>13</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J119" s="38"/>
       <c r="K119" s="38"/>
@@ -5055,10 +5097,10 @@
         <v>8</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F120" s="42" t="n">
         <v>13</v>
@@ -5070,7 +5112,7 @@
         <v>13</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J120" s="38"/>
       <c r="K120" s="38"/>
@@ -5103,10 +5145,10 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F121" s="42" t="n">
         <v>14</v>
@@ -5118,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
@@ -5151,10 +5193,10 @@
         <v>8</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F122" s="42" t="n">
         <v>15</v>
@@ -5166,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J122" s="38"/>
       <c r="K122" s="38"/>
@@ -5199,10 +5241,10 @@
         <v>8</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F123" s="42" t="n">
         <v>16</v>
@@ -5214,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
@@ -5247,10 +5289,10 @@
         <v>8</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F124" s="42" t="n">
         <v>17</v>
@@ -5262,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
@@ -5295,10 +5337,10 @@
         <v>8</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F125" s="42" t="n">
         <v>18</v>
@@ -5310,7 +5352,7 @@
         <v>13</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J125" s="38"/>
       <c r="K125" s="38"/>
@@ -5343,10 +5385,10 @@
         <v>8</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F126" s="42" t="n">
         <v>19</v>
@@ -5358,7 +5400,7 @@
         <v>13</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
@@ -5391,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F127" s="42" t="n">
         <v>20</v>
@@ -5406,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J127" s="38"/>
       <c r="K127" s="38"/>
@@ -5439,7 +5481,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E128" s="32" t="s">
         <v>5</v>
@@ -5454,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J128" s="38"/>
       <c r="K128" s="38"/>
@@ -5487,7 +5529,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E129" s="32" t="s">
         <v>5</v>
@@ -5502,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J129" s="38"/>
       <c r="K129" s="38"/>
@@ -5535,7 +5577,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E130" s="32" t="s">
         <v>5</v>
@@ -5550,7 +5592,7 @@
         <v>13</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J130" s="38"/>
       <c r="K130" s="38"/>
@@ -5583,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E131" s="32" t="s">
         <v>5</v>
@@ -5598,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J131" s="38"/>
       <c r="K131" s="38"/>
@@ -5631,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E132" s="32" t="s">
         <v>5</v>
@@ -5646,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J132" s="38"/>
       <c r="K132" s="38"/>
@@ -5679,7 +5721,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E133" s="32" t="s">
         <v>5</v>
@@ -5694,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
@@ -5727,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>5</v>
@@ -5742,7 +5784,7 @@
         <v>13</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
@@ -5775,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E135" s="32" t="s">
         <v>5</v>
@@ -5790,7 +5832,7 @@
         <v>13</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J135" s="38"/>
       <c r="K135" s="38"/>
@@ -5823,7 +5865,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E136" s="32" t="s">
         <v>5</v>
@@ -5838,7 +5880,7 @@
         <v>13</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J136" s="38"/>
       <c r="K136" s="38"/>
@@ -5871,7 +5913,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E137" s="32" t="s">
         <v>5</v>
@@ -5886,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J137" s="38"/>
       <c r="K137" s="38"/>
@@ -5919,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E138" s="32" t="s">
         <v>5</v>
@@ -5934,7 +5976,7 @@
         <v>13</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J138" s="38"/>
       <c r="K138" s="38"/>
@@ -5967,7 +6009,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E139" s="32" t="s">
         <v>5</v>
@@ -5982,7 +6024,7 @@
         <v>13</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J139" s="38"/>
       <c r="K139" s="38"/>
@@ -6015,7 +6057,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E140" s="32" t="s">
         <v>5</v>
@@ -6030,7 +6072,7 @@
         <v>13</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
@@ -6063,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E141" s="32" t="s">
         <v>5</v>
@@ -6078,7 +6120,7 @@
         <v>13</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J141" s="38"/>
       <c r="K141" s="38"/>
@@ -6111,7 +6153,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E142" s="32" t="s">
         <v>5</v>
@@ -6126,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J142" s="38"/>
       <c r="K142" s="38"/>
@@ -6159,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E143" s="32" t="s">
         <v>5</v>
@@ -6174,7 +6216,7 @@
         <v>13</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
@@ -6207,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E144" s="32" t="s">
         <v>5</v>
@@ -6222,7 +6264,7 @@
         <v>13</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
@@ -6255,7 +6297,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>5</v>
@@ -6270,7 +6312,7 @@
         <v>13</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J145" s="38"/>
       <c r="K145" s="38"/>
@@ -6303,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>5</v>
@@ -6318,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
@@ -6351,7 +6393,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E147" s="32" t="s">
         <v>5</v>
@@ -6366,7 +6408,7 @@
         <v>13</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J147" s="38"/>
       <c r="K147" s="38"/>
@@ -6399,10 +6441,10 @@
         <v>8</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F148" s="30" t="s">
         <v>23</v>
@@ -6414,7 +6456,7 @@
         <v>13</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,10 +6471,10 @@
         <v>8</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F149" s="37" t="s">
         <v>26</v>
@@ -6444,7 +6486,7 @@
         <v>13</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,10 +6501,10 @@
         <v>8</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F150" s="37" t="s">
         <v>27</v>
@@ -6474,7 +6516,7 @@
         <v>13</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,10 +6531,10 @@
         <v>8</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F151" s="37" t="s">
         <v>28</v>
@@ -6504,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,10 +6561,10 @@
         <v>8</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F152" s="37" t="s">
         <v>29</v>
@@ -6534,7 +6576,7 @@
         <v>13</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,13 +6591,13 @@
         <v>8</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G153" s="37" t="s">
         <v>8</v>
@@ -6564,7 +6606,7 @@
         <v>13</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,10 +6621,10 @@
         <v>8</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E154" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F154" s="37" t="s">
         <v>23</v>
@@ -6594,7 +6636,7 @@
         <v>13</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,10 +6651,10 @@
         <v>8</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F155" s="37" t="s">
         <v>26</v>
@@ -6624,7 +6666,7 @@
         <v>13</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,10 +6681,10 @@
         <v>8</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F156" s="37" t="s">
         <v>27</v>
@@ -6654,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,10 +6711,10 @@
         <v>8</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E157" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F157" s="37" t="s">
         <v>28</v>
@@ -6684,7 +6726,7 @@
         <v>13</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,10 +6741,10 @@
         <v>8</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F158" s="37" t="s">
         <v>29</v>
@@ -6714,7 +6756,7 @@
         <v>13</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,13 +6771,13 @@
         <v>8</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E159" s="50" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G159" s="37" t="s">
         <v>8</v>
@@ -6744,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +6801,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="45" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E160" s="50" t="n">
         <v>1</v>
@@ -6774,7 +6816,7 @@
         <v>13</v>
       </c>
       <c r="I160" s="52" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,7 +6831,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E161" s="53" t="n">
         <v>2</v>
@@ -6804,7 +6846,7 @@
         <v>13</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,7 +6861,7 @@
         <v>8</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E162" s="53" t="n">
         <v>3</v>
@@ -6834,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6849,7 +6891,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E163" s="53" t="n">
         <v>4</v>
@@ -6864,7 +6906,7 @@
         <v>13</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E164" s="53" t="n">
         <v>5</v>
@@ -6894,7 +6936,7 @@
         <v>13</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E165" s="53" t="n">
         <v>6</v>
@@ -6924,7 +6966,7 @@
         <v>13</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,7 +6981,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E166" s="53" t="n">
         <v>7</v>
@@ -6954,7 +6996,7 @@
         <v>13</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,7 +7011,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E167" s="53" t="n">
         <v>8</v>
@@ -6984,7 +7026,7 @@
         <v>13</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,7 +7041,7 @@
         <v>8</v>
       </c>
       <c r="D168" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E168" s="53" t="n">
         <v>9</v>
@@ -7014,7 +7056,7 @@
         <v>13</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,7 +7071,7 @@
         <v>8</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E169" s="53" t="n">
         <v>10</v>
@@ -7044,7 +7086,7 @@
         <v>13</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="45" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E170" s="50" t="n">
         <v>11</v>
@@ -7074,7 +7116,7 @@
         <v>13</v>
       </c>
       <c r="I170" s="52" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,7 +7131,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E171" s="53" t="n">
         <v>12</v>
@@ -7104,7 +7146,7 @@
         <v>13</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +7161,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E172" s="53" t="n">
         <v>13</v>
@@ -7134,7 +7176,7 @@
         <v>13</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,7 +7191,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E173" s="53" t="n">
         <v>14</v>
@@ -7164,7 +7206,7 @@
         <v>13</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,7 +7221,7 @@
         <v>8</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E174" s="53" t="n">
         <v>15</v>
@@ -7194,7 +7236,7 @@
         <v>13</v>
       </c>
       <c r="I174" s="52" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,7 +7251,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E175" s="50" t="n">
         <v>16</v>
@@ -7224,7 +7266,7 @@
         <v>13</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +7281,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E176" s="53" t="n">
         <v>17</v>
@@ -7254,7 +7296,7 @@
         <v>13</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,7 +7311,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E177" s="53" t="n">
         <v>18</v>
@@ -7284,7 +7326,7 @@
         <v>13</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7299,7 +7341,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E178" s="53" t="n">
         <v>19</v>
@@ -7314,7 +7356,7 @@
         <v>13</v>
       </c>
       <c r="I178" s="52" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,7 +7371,7 @@
         <v>8</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E179" s="53" t="n">
         <v>20</v>
@@ -7344,7 +7386,7 @@
         <v>13</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,10 +7401,10 @@
         <v>8</v>
       </c>
       <c r="D180" s="45" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E180" s="50" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F180" s="51" t="n">
         <v>1</v>
@@ -7374,7 +7416,7 @@
         <v>13</v>
       </c>
       <c r="I180" s="52" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,10 +7431,10 @@
         <v>8</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E181" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F181" s="37" t="n">
         <v>2</v>
@@ -7404,7 +7446,7 @@
         <v>13</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,10 +7461,10 @@
         <v>8</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E182" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F182" s="37" t="n">
         <v>3</v>
@@ -7434,7 +7476,7 @@
         <v>13</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E183" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F183" s="37" t="n">
         <v>4</v>
@@ -7464,7 +7506,7 @@
         <v>13</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,10 +7521,10 @@
         <v>8</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F184" s="37" t="n">
         <v>5</v>
@@ -7494,7 +7536,7 @@
         <v>13</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,10 +7551,10 @@
         <v>8</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E185" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F185" s="37" t="n">
         <v>6</v>
@@ -7524,7 +7566,7 @@
         <v>13</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7539,10 +7581,10 @@
         <v>8</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E186" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F186" s="37" t="n">
         <v>7</v>
@@ -7554,7 +7596,7 @@
         <v>13</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,10 +7611,10 @@
         <v>8</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E187" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F187" s="37" t="n">
         <v>8</v>
@@ -7584,7 +7626,7 @@
         <v>13</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,10 +7641,10 @@
         <v>8</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E188" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F188" s="37" t="n">
         <v>9</v>
@@ -7614,7 +7656,7 @@
         <v>13</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,10 +7671,10 @@
         <v>8</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E189" s="54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F189" s="37" t="n">
         <v>10</v>
@@ -7644,7 +7686,7 @@
         <v>13</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" s="52" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7659,10 +7701,10 @@
         <v>8</v>
       </c>
       <c r="D190" s="45" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F190" s="51" t="n">
         <v>1</v>
@@ -7674,7 +7716,7 @@
         <v>13</v>
       </c>
       <c r="I190" s="52" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,10 +7731,10 @@
         <v>8</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E191" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F191" s="37" t="n">
         <v>2</v>
@@ -7704,7 +7746,7 @@
         <v>13</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7719,10 +7761,10 @@
         <v>8</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E192" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F192" s="37" t="n">
         <v>3</v>
@@ -7734,7 +7776,7 @@
         <v>13</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,10 +7791,10 @@
         <v>8</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E193" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F193" s="37" t="n">
         <v>4</v>
@@ -7764,7 +7806,7 @@
         <v>13</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,10 +7821,10 @@
         <v>8</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E194" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F194" s="37" t="n">
         <v>5</v>
@@ -7794,7 +7836,7 @@
         <v>13</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,10 +7851,10 @@
         <v>8</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E195" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F195" s="37" t="n">
         <v>6</v>
@@ -7824,7 +7866,7 @@
         <v>13</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,10 +7881,10 @@
         <v>8</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E196" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F196" s="37" t="n">
         <v>7</v>
@@ -7854,7 +7896,7 @@
         <v>13</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,10 +7911,10 @@
         <v>8</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E197" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F197" s="37" t="n">
         <v>8</v>
@@ -7884,7 +7926,7 @@
         <v>13</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7899,10 +7941,10 @@
         <v>8</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E198" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F198" s="37" t="n">
         <v>9</v>
@@ -7914,7 +7956,7 @@
         <v>13</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,10 +7971,10 @@
         <v>8</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E199" s="55" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F199" s="37" t="n">
         <v>10</v>
@@ -7944,7 +7986,7 @@
         <v>13</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,13 +8001,13 @@
         <v>8</v>
       </c>
       <c r="D200" s="45" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E200" s="50" t="n">
         <v>1</v>
       </c>
       <c r="F200" s="50" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G200" s="50" t="s">
         <v>8</v>
@@ -7974,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="I200" s="52" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,13 +8031,13 @@
         <v>8</v>
       </c>
       <c r="D201" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E201" s="53" t="n">
         <v>1</v>
       </c>
       <c r="F201" s="53" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G201" s="53" t="s">
         <v>8</v>
@@ -8004,7 +8046,7 @@
         <v>13</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,13 +8061,13 @@
         <v>8</v>
       </c>
       <c r="D202" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E202" s="53" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G202" s="53" t="s">
         <v>8</v>
@@ -8034,7 +8076,7 @@
         <v>13</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8049,13 +8091,13 @@
         <v>8</v>
       </c>
       <c r="D203" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E203" s="53" t="n">
         <v>1</v>
       </c>
       <c r="F203" s="53" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G203" s="53" t="s">
         <v>8</v>
@@ -8064,7 +8106,7 @@
         <v>13</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8079,13 +8121,13 @@
         <v>8</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E204" s="53" t="n">
         <v>2</v>
       </c>
       <c r="F204" s="53" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G204" s="53" t="s">
         <v>8</v>
@@ -8094,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,13 +8151,13 @@
         <v>8</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E205" s="53" t="n">
         <v>2</v>
       </c>
       <c r="F205" s="53" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G205" s="53" t="s">
         <v>8</v>
@@ -8124,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,13 +8181,13 @@
         <v>8</v>
       </c>
       <c r="D206" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E206" s="53" t="n">
         <v>2</v>
       </c>
       <c r="F206" s="53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G206" s="53" t="s">
         <v>8</v>
@@ -8154,7 +8196,7 @@
         <v>13</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,13 +8211,13 @@
         <v>8</v>
       </c>
       <c r="D207" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E207" s="53" t="n">
         <v>2</v>
       </c>
       <c r="F207" s="53" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G207" s="53" t="s">
         <v>8</v>
@@ -8184,7 +8226,7 @@
         <v>13</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,13 +8241,13 @@
         <v>8</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E208" s="53" t="n">
         <v>3</v>
       </c>
       <c r="F208" s="53" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G208" s="53" t="s">
         <v>8</v>
@@ -8214,7 +8256,7 @@
         <v>13</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,13 +8271,13 @@
         <v>8</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E209" s="53" t="n">
         <v>3</v>
       </c>
       <c r="F209" s="53" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G209" s="53" t="s">
         <v>8</v>
@@ -8244,7 +8286,7 @@
         <v>13</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8259,13 +8301,13 @@
         <v>8</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E210" s="53" t="n">
         <v>3</v>
       </c>
       <c r="F210" s="53" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G210" s="53" t="s">
         <v>8</v>
@@ -8274,7 +8316,7 @@
         <v>13</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8289,13 +8331,13 @@
         <v>8</v>
       </c>
       <c r="D211" s="42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E211" s="53" t="n">
         <v>3</v>
       </c>
       <c r="F211" s="53" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G211" s="53" t="s">
         <v>8</v>
@@ -8304,7 +8346,7 @@
         <v>13</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,13 +8361,13 @@
         <v>8</v>
       </c>
       <c r="D212" s="45" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E212" s="50" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F212" s="50" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G212" s="51" t="s">
         <v>8</v>
@@ -8334,7 +8376,7 @@
         <v>13</v>
       </c>
       <c r="I212" s="52" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DB272-C0A1-4384-9D1E-8CF65B7AC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Musterdatensatz" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Musterdatensatz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,731 +34,739 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="238">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebene1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebene2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebene3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werttyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parametername R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurzbeschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kurzb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umsetzungsbeispiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String(Image)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bspfoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschriftung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beschrbsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niederschlagswasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbgRessource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmutzwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baustoffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirkung/Funktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderung Verdunstung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderung Grundwasserneubildung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minderung Abfluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sammlung und Ableitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behandlung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinkwassereinsparung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nährstoffrückgewinnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starkregen-, Überflutungsvorsorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasser_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vermeidung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baustoffe_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiederverwendung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baustoffe_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baustoffe_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwertung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baustoffe_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beseitigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baustoffe_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klimaanpassung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesundheitsschutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erhalt d. Grunddaseinsfunktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturschutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klimaschutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energiebereitstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energieverteilung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energieverbrauch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energiespeicherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrizität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wärme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brennstoffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energie_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anwendungsebene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebäudeebene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbgAnwendungsebene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundstücksebene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartiersebene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächenbedarf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m²/EW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaechenbedEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaechenbedEinheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m²/XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fleachenbedXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutzungsdauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutzdmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutzdmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutzdueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entwicklungsstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand der Wissenschaft und Technik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbgentwicklungsstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand der Technik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allgemein annerkannter Stand der Technik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sammelhinweis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hinw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionsbeschreibung und Aufbau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funktiontxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemskizze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sysskizze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beschrsys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planung, Bemessung und rechtliche Aspekte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fließtext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planbemtxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normen/Regelwerke1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planbemtab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normen/Regelwerke2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normen/Regelwerke3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normen/Regelwerke4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normen/Regelwerke5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel/Inhalt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel/Inhalt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel/Inhalt3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel/Inhalt4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel/Inhalt5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwand und Kosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aufwandtxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskosten1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv1min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv1max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv1ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskosten2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv2e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv2min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv2max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv2ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskosten3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv3e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv3min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv3max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv3ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskosten4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv4min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv4max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv4ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskosten5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv5min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv5max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv5ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet1min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet1max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet1ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet2e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet2min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet2max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet2ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet3e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet3min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet3max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet3ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet4min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet4max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet4ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet5min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet5max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bet5ueblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kosten_hinweis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weitergehende Hinweise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whinwtxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whinw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fließtext + freie Anzahl an Zeilen mit Paramterspalte und Wertespalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressourcenübergreifende Aspekte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synergien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synniederschlagswasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synschmutzwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synbaustoffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sysnenergie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synflaeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ökobilanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synoekobilanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zielkonflikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfniederschlagswasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfschmutzwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfbaustoffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfenergie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfflaeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konfoekobilanz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kombinationsmöglichkeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selkombi20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vor- und Nachteile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorteile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vornach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachteile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallbeispiele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallbsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erläuterung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literatur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Struktur noch unklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noch in arbeit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="242">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Massnahme</t>
+  </si>
+  <si>
+    <t>ebene1</t>
+  </si>
+  <si>
+    <t>ebene2</t>
+  </si>
+  <si>
+    <t>ebene3</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
+    <t>Werttyp</t>
+  </si>
+  <si>
+    <t>Parametername R</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>Kurzbeschreibung</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>kurzb</t>
+  </si>
+  <si>
+    <t>Umsetzungsbeispiel</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>String(Image)</t>
+  </si>
+  <si>
+    <t>bspfoto</t>
+  </si>
+  <si>
+    <t>Beschriftung</t>
+  </si>
+  <si>
+    <t>beschrbsp</t>
+  </si>
+  <si>
+    <t>uptime</t>
+  </si>
+  <si>
+    <t>Ressource</t>
+  </si>
+  <si>
+    <t>Niederschlagswasser</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>cbgRessource</t>
+  </si>
+  <si>
+    <t>Schmutzwasser</t>
+  </si>
+  <si>
+    <t>Baustoffe</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Fläche</t>
+  </si>
+  <si>
+    <t>Wirkung/Funktion</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Förderung Verdunstung</t>
+  </si>
+  <si>
+    <t>wasser_1</t>
+  </si>
+  <si>
+    <t>Förderung Grundwasserneubildung</t>
+  </si>
+  <si>
+    <t>wasser_2</t>
+  </si>
+  <si>
+    <t>Minderung Abfluss</t>
+  </si>
+  <si>
+    <t>wasser_3</t>
+  </si>
+  <si>
+    <t>Sammlung und Ableitung</t>
+  </si>
+  <si>
+    <t>wasser_4</t>
+  </si>
+  <si>
+    <t>Behandlung</t>
+  </si>
+  <si>
+    <t>wasser_5</t>
+  </si>
+  <si>
+    <t>Trinkwassereinsparung</t>
+  </si>
+  <si>
+    <t>wasser_6</t>
+  </si>
+  <si>
+    <t>Nährstoffrückgewinnung</t>
+  </si>
+  <si>
+    <t>wasser_7</t>
+  </si>
+  <si>
+    <t>Starkregen-, Überflutungsvorsorge</t>
+  </si>
+  <si>
+    <t>wasser_8</t>
+  </si>
+  <si>
+    <t>Vermeidung</t>
+  </si>
+  <si>
+    <t>baustoffe_1</t>
+  </si>
+  <si>
+    <t>Wiederverwendung</t>
+  </si>
+  <si>
+    <t>baustoffe_2</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>baustoffe_3</t>
+  </si>
+  <si>
+    <t>Verwertung</t>
+  </si>
+  <si>
+    <t>baustoffe_4</t>
+  </si>
+  <si>
+    <t>Beseitigung</t>
+  </si>
+  <si>
+    <t>baustoffe_5</t>
+  </si>
+  <si>
+    <t>Klimaanpassung</t>
+  </si>
+  <si>
+    <t>flaeche_1</t>
+  </si>
+  <si>
+    <t>Gesundheitsschutz</t>
+  </si>
+  <si>
+    <t>flaeche_2</t>
+  </si>
+  <si>
+    <t>Erhalt d. Grunddaseinsfunktion</t>
+  </si>
+  <si>
+    <t>flaeche_3</t>
+  </si>
+  <si>
+    <t>Naturschutz</t>
+  </si>
+  <si>
+    <t>flaeche_4</t>
+  </si>
+  <si>
+    <t>Klimaschutz</t>
+  </si>
+  <si>
+    <t>flaeche_5</t>
+  </si>
+  <si>
+    <t>Energiebereitstellung</t>
+  </si>
+  <si>
+    <t>energie_1</t>
+  </si>
+  <si>
+    <t>Energieverteilung</t>
+  </si>
+  <si>
+    <t>energie_2</t>
+  </si>
+  <si>
+    <t>Energieverbrauch</t>
+  </si>
+  <si>
+    <t>energie_3</t>
+  </si>
+  <si>
+    <t>Energiespeicherung</t>
+  </si>
+  <si>
+    <t>energie_4</t>
+  </si>
+  <si>
+    <t>Elektrizität</t>
+  </si>
+  <si>
+    <t>energie_5</t>
+  </si>
+  <si>
+    <t>Wärme</t>
+  </si>
+  <si>
+    <t>energie_6</t>
+  </si>
+  <si>
+    <t>Brennstoffe</t>
+  </si>
+  <si>
+    <t>energie_7</t>
+  </si>
+  <si>
+    <t>Anwendungsebene</t>
+  </si>
+  <si>
+    <t>Gebäudeebene</t>
+  </si>
+  <si>
+    <t>cbgAnwendungsebene</t>
+  </si>
+  <si>
+    <t>Grundstücksebene</t>
+  </si>
+  <si>
+    <t>Quartiersebene</t>
+  </si>
+  <si>
+    <t>Flächenbedarf</t>
+  </si>
+  <si>
+    <t>m²/EW</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>flaechenbedEW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>flaechenbedEinheit</t>
+  </si>
+  <si>
+    <t>m²/XX</t>
+  </si>
+  <si>
+    <t>fleachenbedXX</t>
+  </si>
+  <si>
+    <t>Nutzungsdauer</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>nutzdmin</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>nutzdmax</t>
+  </si>
+  <si>
+    <t>üblich</t>
+  </si>
+  <si>
+    <t>nutzdueblich</t>
+  </si>
+  <si>
+    <t>Entwicklungsstand</t>
+  </si>
+  <si>
+    <t>Stand der Wissenschaft und Technik</t>
+  </si>
+  <si>
+    <t>cbgentwicklungsstand</t>
+  </si>
+  <si>
+    <t>Stand der Technik</t>
+  </si>
+  <si>
+    <t>Allgemein annerkannter Stand der Technik</t>
+  </si>
+  <si>
+    <t>Sammelhinweis</t>
+  </si>
+  <si>
+    <t>Hinweis</t>
+  </si>
+  <si>
+    <t>hinw1</t>
+  </si>
+  <si>
+    <t>Funktionsbeschreibung und Aufbau</t>
+  </si>
+  <si>
+    <t>funktiontxt</t>
+  </si>
+  <si>
+    <t>Systemskizze</t>
+  </si>
+  <si>
+    <t>sysskizze</t>
+  </si>
+  <si>
+    <t>beschrsys</t>
+  </si>
+  <si>
+    <t>Planung, Bemessung und rechtliche Aspekte</t>
+  </si>
+  <si>
+    <t>Fließtext</t>
+  </si>
+  <si>
+    <t>planbemtxt</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke1</t>
+  </si>
+  <si>
+    <t>planbemtab</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke2</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke3</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke4</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke5</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt1</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt2</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt3</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt4</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt5</t>
+  </si>
+  <si>
+    <t>Aufwand und Kosten</t>
+  </si>
+  <si>
+    <t>aufwandtxt</t>
+  </si>
+  <si>
+    <t>Investitionskosten1</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>inv1e</t>
+  </si>
+  <si>
+    <t>inv1min</t>
+  </si>
+  <si>
+    <t>inv1max</t>
+  </si>
+  <si>
+    <t>inv1ueblich</t>
+  </si>
+  <si>
+    <t>Investitionskosten2</t>
+  </si>
+  <si>
+    <t>inv2e</t>
+  </si>
+  <si>
+    <t>inv2min</t>
+  </si>
+  <si>
+    <t>inv2max</t>
+  </si>
+  <si>
+    <t>inv2ueblich</t>
+  </si>
+  <si>
+    <t>Investitionskosten3</t>
+  </si>
+  <si>
+    <t>inv3e</t>
+  </si>
+  <si>
+    <t>inv3min</t>
+  </si>
+  <si>
+    <t>inv3max</t>
+  </si>
+  <si>
+    <t>inv3ueblich</t>
+  </si>
+  <si>
+    <t>Investitionskosten4</t>
+  </si>
+  <si>
+    <t>inv4e</t>
+  </si>
+  <si>
+    <t>inv4min</t>
+  </si>
+  <si>
+    <t>inv4max</t>
+  </si>
+  <si>
+    <t>inv4ueblich</t>
+  </si>
+  <si>
+    <t>Investitionskosten5</t>
+  </si>
+  <si>
+    <t>inv5e</t>
+  </si>
+  <si>
+    <t>inv5min</t>
+  </si>
+  <si>
+    <t>inv5max</t>
+  </si>
+  <si>
+    <t>inv5ueblich</t>
+  </si>
+  <si>
+    <t>Betriebskosten1</t>
+  </si>
+  <si>
+    <t>bet1e</t>
+  </si>
+  <si>
+    <t>bet1min</t>
+  </si>
+  <si>
+    <t>bet1max</t>
+  </si>
+  <si>
+    <t>bet1ueblich</t>
+  </si>
+  <si>
+    <t>Betriebskosten2</t>
+  </si>
+  <si>
+    <t>bet2e</t>
+  </si>
+  <si>
+    <t>bet2min</t>
+  </si>
+  <si>
+    <t>bet2max</t>
+  </si>
+  <si>
+    <t>bet2ueblich</t>
+  </si>
+  <si>
+    <t>Betriebskosten3</t>
+  </si>
+  <si>
+    <t>bet3e</t>
+  </si>
+  <si>
+    <t>bet3min</t>
+  </si>
+  <si>
+    <t>bet3max</t>
+  </si>
+  <si>
+    <t>bet3ueblich</t>
+  </si>
+  <si>
+    <t>Betriebskosten4</t>
+  </si>
+  <si>
+    <t>bet4e</t>
+  </si>
+  <si>
+    <t>bet4min</t>
+  </si>
+  <si>
+    <t>bet4max</t>
+  </si>
+  <si>
+    <t>bet4ueblich</t>
+  </si>
+  <si>
+    <t>Betriebskosten5</t>
+  </si>
+  <si>
+    <t>bet5e</t>
+  </si>
+  <si>
+    <t>bet5min</t>
+  </si>
+  <si>
+    <t>bet5max</t>
+  </si>
+  <si>
+    <t>bet5ueblich</t>
+  </si>
+  <si>
+    <t>kosten_hinweis</t>
+  </si>
+  <si>
+    <t>Weitergehende Hinweise</t>
+  </si>
+  <si>
+    <t>whinwtxt</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>whinw</t>
+  </si>
+  <si>
+    <t>fließtext + freie Anzahl an Zeilen mit Paramterspalte und Wertespalte</t>
+  </si>
+  <si>
+    <t>Ressourcenübergreifende Aspekte</t>
+  </si>
+  <si>
+    <t>Synergien</t>
+  </si>
+  <si>
+    <t>synniederschlagswasser</t>
+  </si>
+  <si>
+    <t>synschmutzwasser</t>
+  </si>
+  <si>
+    <t>synbaustoffe</t>
+  </si>
+  <si>
+    <t>sysnenergie</t>
+  </si>
+  <si>
+    <t>synflaeche</t>
+  </si>
+  <si>
+    <t>Ökobilanz</t>
+  </si>
+  <si>
+    <t>synoekobilanz</t>
+  </si>
+  <si>
+    <t>Zielkonflikte</t>
+  </si>
+  <si>
+    <t>konfniederschlagswasser</t>
+  </si>
+  <si>
+    <t>konfschmutzwasser</t>
+  </si>
+  <si>
+    <t>konfbaustoffe</t>
+  </si>
+  <si>
+    <t>konfenergie</t>
+  </si>
+  <si>
+    <t>konfflaeche</t>
+  </si>
+  <si>
+    <t>konfoekobilanz</t>
+  </si>
+  <si>
+    <t>Kombinationsmöglichkeiten</t>
+  </si>
+  <si>
+    <t>selkombi1</t>
+  </si>
+  <si>
+    <t>selkombi2</t>
+  </si>
+  <si>
+    <t>selkombi3</t>
+  </si>
+  <si>
+    <t>selkombi4</t>
+  </si>
+  <si>
+    <t>selkombi5</t>
+  </si>
+  <si>
+    <t>selkombi6</t>
+  </si>
+  <si>
+    <t>selkombi7</t>
+  </si>
+  <si>
+    <t>selkombi8</t>
+  </si>
+  <si>
+    <t>selkombi9</t>
+  </si>
+  <si>
+    <t>selkombi10</t>
+  </si>
+  <si>
+    <t>selkombi11</t>
+  </si>
+  <si>
+    <t>selkombi12</t>
+  </si>
+  <si>
+    <t>selkombi13</t>
+  </si>
+  <si>
+    <t>selkombi14</t>
+  </si>
+  <si>
+    <t>selkombi15</t>
+  </si>
+  <si>
+    <t>selkombi16</t>
+  </si>
+  <si>
+    <t>selkombi17</t>
+  </si>
+  <si>
+    <t>selkombi18</t>
+  </si>
+  <si>
+    <t>selkombi19</t>
+  </si>
+  <si>
+    <t>selkombi20</t>
+  </si>
+  <si>
+    <t>Vor- und Nachteile</t>
+  </si>
+  <si>
+    <t>Vorteile</t>
+  </si>
+  <si>
+    <t>vornach</t>
+  </si>
+  <si>
+    <t>Nachteile</t>
+  </si>
+  <si>
+    <t>Fallbeispiele</t>
+  </si>
+  <si>
+    <t>Projektname</t>
+  </si>
+  <si>
+    <t>fallbsp</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Erläuterung</t>
+  </si>
+  <si>
+    <t>Literatur</t>
+  </si>
+  <si>
+    <t>Struktur noch unklar</t>
+  </si>
+  <si>
+    <t>noch in arbeit</t>
+  </si>
+  <si>
+    <t>Ökobilanzielle Bewertung</t>
+  </si>
+  <si>
+    <t>Literaturstelle</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>bewertung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -753,22 +775,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -783,7 +790,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -801,19 +808,24 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,16 +922,46 @@
         <bgColor rgb="FFA1B8E1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -928,323 +970,295 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="63">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="20"/>
-    <cellStyle name="Excel Built-in Good" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1303,40 +1317,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="10.87"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="1024" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
-        <f aca="false">ROW(A1)-1</f>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="17.25">
+      <c r="A1" s="3">
+        <f t="shared" ref="A1:A15" si="0">ROW(A1)-1</f>
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1364,9 +1686,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <f aca="false">ROW(A2)-1</f>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="17.25">
+      <c r="A2" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1394,9 +1716,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <f aca="false">ROW(A3)-1</f>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="17.25">
+      <c r="A3" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1424,9 +1746,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <f aca="false">ROW(A4)-1</f>
+    <row r="4" spans="1:12" ht="17.25">
+      <c r="A4" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1455,9 +1777,9 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <f aca="false">ROW(A5)-1</f>
+    <row r="5" spans="1:12" ht="17.25">
+      <c r="A5" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1486,9 +1808,9 @@
       </c>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <f aca="false">ROW(A6)-1</f>
+    <row r="6" spans="1:12" ht="17.25">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1514,9 +1836,9 @@
       </c>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <f aca="false">ROW(A7)-1</f>
+    <row r="7" spans="1:12" ht="17.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1544,9 +1866,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <f aca="false">ROW(A8)-1</f>
+    <row r="8" spans="1:12" ht="17.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1574,9 +1896,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <f aca="false">ROW(A9)-1</f>
+    <row r="9" spans="1:12" ht="17.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1604,9 +1926,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <f aca="false">ROW(A10)-1</f>
+    <row r="10" spans="1:12" ht="17.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1634,9 +1956,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <f aca="false">ROW(A11)-1</f>
+    <row r="11" spans="1:12" ht="17.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1664,9 +1986,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <f aca="false">ROW(A12)-1</f>
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="17.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1694,9 +2016,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <f aca="false">ROW(A13)-1</f>
+    <row r="13" spans="1:12" ht="17.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1724,9 +2046,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <f aca="false">ROW(A14)-1</f>
+    <row r="14" spans="1:12" ht="17.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1754,9 +2076,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <f aca="false">ROW(A15)-1</f>
+    <row r="15" spans="1:12" ht="17.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1784,8 +2106,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:12" ht="17.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1813,8 +2135,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+    <row r="17" spans="1:9" ht="17.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1842,8 +2164,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+    <row r="18" spans="1:9" ht="17.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1871,8 +2193,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" spans="1:9" ht="17.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1900,9 +2222,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <f aca="false">ROW(A20)-1</f>
+    <row r="20" spans="1:9" ht="17.25">
+      <c r="A20" s="9">
+        <f t="shared" ref="A20:A35" si="1">ROW(A20)-1</f>
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1930,9 +2252,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <f aca="false">ROW(A21)-1</f>
+    <row r="21" spans="1:9" ht="17.25">
+      <c r="A21" s="9">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1960,9 +2282,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <f aca="false">ROW(A22)-1</f>
+    <row r="22" spans="1:9" ht="17.25">
+      <c r="A22" s="9">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1990,9 +2312,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <f aca="false">ROW(A23)-1</f>
+    <row r="23" spans="1:9" ht="17.25">
+      <c r="A23" s="9">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2020,9 +2342,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <f aca="false">ROW(A24)-1</f>
+    <row r="24" spans="1:9" ht="17.25">
+      <c r="A24" s="9">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2050,9 +2372,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <f aca="false">ROW(A25)-1</f>
+    <row r="25" spans="1:9" ht="17.25">
+      <c r="A25" s="9">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2080,9 +2402,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <f aca="false">ROW(A26)-1</f>
+    <row r="26" spans="1:9" ht="17.25">
+      <c r="A26" s="9">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -2110,9 +2432,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
-        <f aca="false">ROW(A27)-1</f>
+    <row r="27" spans="1:9" ht="17.25">
+      <c r="A27" s="9">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -2140,9 +2462,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
-        <f aca="false">ROW(A28)-1</f>
+    <row r="28" spans="1:9" ht="17.25">
+      <c r="A28" s="9">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -2170,9 +2492,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <f aca="false">ROW(A29)-1</f>
+    <row r="29" spans="1:9" ht="17.25">
+      <c r="A29" s="9">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2200,9 +2522,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
-        <f aca="false">ROW(A30)-1</f>
+    <row r="30" spans="1:9" ht="17.25">
+      <c r="A30" s="9">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2230,9 +2552,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <f aca="false">ROW(A31)-1</f>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="9">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -2260,9 +2582,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <f aca="false">ROW(A32)-1</f>
+    <row r="32" spans="1:9" ht="17.25">
+      <c r="A32" s="9">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2290,9 +2612,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <f aca="false">ROW(A33)-1</f>
+    <row r="33" spans="1:9" ht="17.25">
+      <c r="A33" s="9">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -2320,9 +2642,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <f aca="false">ROW(A34)-1</f>
+    <row r="34" spans="1:9" ht="17.25">
+      <c r="A34" s="9">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2350,9 +2672,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <f aca="false">ROW(A35)-1</f>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="9">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -2380,8 +2702,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="9">
         <v>39</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -2409,9 +2731,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <f aca="false">ROW(A37)-1</f>
+    <row r="37" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A37" s="9">
+        <f t="shared" ref="A37:A68" si="2">ROW(A37)-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2439,9 +2761,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <f aca="false">ROW(A38)-1</f>
+    <row r="38" spans="1:9" ht="17.25">
+      <c r="A38" s="9">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -2469,9 +2791,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <f aca="false">ROW(A39)-1</f>
+    <row r="39" spans="1:9" ht="17.25">
+      <c r="A39" s="9">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -2499,9 +2821,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <f aca="false">ROW(A40)-1</f>
+    <row r="40" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A40" s="9">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -2529,9 +2851,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <f aca="false">ROW(A41)-1</f>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A41" s="9">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2559,9 +2881,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <f aca="false">ROW(A42)-1</f>
+    <row r="42" spans="1:9" ht="17.25">
+      <c r="A42" s="9">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2589,9 +2911,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <f aca="false">ROW(A43)-1</f>
+    <row r="43" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A43" s="9">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -2619,9 +2941,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <f aca="false">ROW(A44)-1</f>
+    <row r="44" spans="1:9" ht="17.25">
+      <c r="A44" s="9">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2649,9 +2971,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <f aca="false">ROW(A45)-1</f>
+    <row r="45" spans="1:9" ht="17.25">
+      <c r="A45" s="9">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2679,9 +3001,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
-        <f aca="false">ROW(A46)-1</f>
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="30">
+      <c r="A46" s="9">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2709,9 +3031,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <f aca="false">ROW(A47)-1</f>
+    <row r="47" spans="1:9" ht="17.25">
+      <c r="A47" s="9">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2739,9 +3061,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <f aca="false">ROW(A48)-1</f>
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" s="9">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2769,9 +3091,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <f aca="false">ROW(A49)-1</f>
+    <row r="49" spans="1:9" ht="17.25">
+      <c r="A49" s="9">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2799,9 +3121,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <f aca="false">ROW(A50)-1</f>
+    <row r="50" spans="1:9" s="16" customFormat="1" ht="30">
+      <c r="A50" s="9">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2829,9 +3151,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <f aca="false">ROW(A51)-1</f>
+    <row r="51" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A51" s="9">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -2859,9 +3181,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
-        <f aca="false">ROW(A52)-1</f>
+    <row r="52" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A52" s="9">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -2889,9 +3211,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
-        <f aca="false">ROW(A53)-1</f>
+    <row r="53" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A53" s="9">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2919,9 +3241,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" s="16" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
-        <f aca="false">ROW(A54)-1</f>
+    <row r="54" spans="1:9" s="16" customFormat="1" ht="30">
+      <c r="A54" s="9">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2949,9 +3271,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
-        <f aca="false">ROW(A55)-1</f>
+    <row r="55" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A55" s="9">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -2979,9 +3301,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
-        <f aca="false">ROW(A56)-1</f>
+    <row r="56" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A56" s="9">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3009,9 +3331,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
-        <f aca="false">ROW(A57)-1</f>
+    <row r="57" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A57" s="9">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -3039,9 +3361,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
-        <f aca="false">ROW(A58)-1</f>
+    <row r="58" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A58" s="9">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -3069,9 +3391,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
-        <f aca="false">ROW(A59)-1</f>
+    <row r="59" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A59" s="9">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -3099,9 +3421,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
-        <f aca="false">ROW(A60)-1</f>
+    <row r="60" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A60" s="9">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -3129,9 +3451,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <f aca="false">ROW(A61)-1</f>
+    <row r="61" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A61" s="9">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -3159,9 +3481,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
-        <f aca="false">ROW(A62)-1</f>
+    <row r="62" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A62" s="9">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -3189,9 +3511,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
-        <f aca="false">ROW(A63)-1</f>
+    <row r="63" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A63" s="9">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -3219,9 +3541,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" s="38" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
-        <f aca="false">ROW(A64)-1</f>
+    <row r="64" spans="1:9" s="38" customFormat="1" ht="30">
+      <c r="A64" s="9">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -3249,9 +3571,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
-        <f aca="false">ROW(A65)-1</f>
+    <row r="65" spans="1:9" s="16" customFormat="1" ht="17.25">
+      <c r="A65" s="9">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -3279,9 +3601,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
-        <f aca="false">ROW(A66)-1</f>
+    <row r="66" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A66" s="9">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -3309,9 +3631,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="n">
-        <f aca="false">ROW(A67)-1</f>
+    <row r="67" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A67" s="9">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -3339,9 +3661,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="n">
-        <f aca="false">ROW(A68)-1</f>
+    <row r="68" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A68" s="9">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -3369,9 +3691,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="n">
-        <f aca="false">ROW(A69)-1</f>
+    <row r="69" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A69" s="9">
+        <f t="shared" ref="A69:A105" si="3">ROW(A69)-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -3399,9 +3721,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
-        <f aca="false">ROW(A70)-1</f>
+    <row r="70" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A70" s="9">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -3429,9 +3751,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
-        <f aca="false">ROW(A71)-1</f>
+    <row r="71" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A71" s="9">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -3459,9 +3781,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
-        <f aca="false">ROW(A72)-1</f>
+    <row r="72" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A72" s="9">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -3489,9 +3811,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
-        <f aca="false">ROW(A73)-1</f>
+    <row r="73" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A73" s="9">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -3519,9 +3841,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
-        <f aca="false">ROW(A74)-1</f>
+    <row r="74" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A74" s="9">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -3549,9 +3871,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="n">
-        <f aca="false">ROW(A75)-1</f>
+    <row r="75" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A75" s="9">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -3579,9 +3901,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="n">
-        <f aca="false">ROW(A76)-1</f>
+    <row r="76" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A76" s="9">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -3609,9 +3931,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="n">
-        <f aca="false">ROW(A77)-1</f>
+    <row r="77" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A77" s="9">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3639,9 +3961,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="n">
-        <f aca="false">ROW(A78)-1</f>
+    <row r="78" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A78" s="9">
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -3669,9 +3991,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="n">
-        <f aca="false">ROW(A79)-1</f>
+    <row r="79" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A79" s="9">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -3699,9 +4021,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="n">
-        <f aca="false">ROW(A80)-1</f>
+    <row r="80" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A80" s="9">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -3729,9 +4051,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="n">
-        <f aca="false">ROW(A81)-1</f>
+    <row r="81" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A81" s="9">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -3759,9 +4081,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="n">
-        <f aca="false">ROW(A82)-1</f>
+    <row r="82" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A82" s="9">
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -3789,9 +4111,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="n">
-        <f aca="false">ROW(A83)-1</f>
+    <row r="83" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A83" s="9">
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -3819,9 +4141,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="n">
-        <f aca="false">ROW(A84)-1</f>
+    <row r="84" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A84" s="9">
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -3849,9 +4171,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="n">
-        <f aca="false">ROW(A85)-1</f>
+    <row r="85" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A85" s="9">
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -3879,9 +4201,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="n">
-        <f aca="false">ROW(A86)-1</f>
+    <row r="86" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A86" s="9">
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -3909,9 +4231,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="n">
-        <f aca="false">ROW(A87)-1</f>
+    <row r="87" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A87" s="9">
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -3939,9 +4261,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="n">
-        <f aca="false">ROW(A88)-1</f>
+    <row r="88" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A88" s="9">
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -3969,9 +4291,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="n">
-        <f aca="false">ROW(A89)-1</f>
+    <row r="89" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A89" s="9">
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -3999,9 +4321,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="n">
-        <f aca="false">ROW(A90)-1</f>
+    <row r="90" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A90" s="9">
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -4029,9 +4351,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="n">
-        <f aca="false">ROW(A91)-1</f>
+    <row r="91" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A91" s="9">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -4059,9 +4381,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="n">
-        <f aca="false">ROW(A92)-1</f>
+    <row r="92" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A92" s="9">
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -4089,9 +4411,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="n">
-        <f aca="false">ROW(A93)-1</f>
+    <row r="93" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A93" s="9">
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -4119,9 +4441,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="n">
-        <f aca="false">ROW(A94)-1</f>
+    <row r="94" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A94" s="9">
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -4149,9 +4471,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="n">
-        <f aca="false">ROW(A95)-1</f>
+    <row r="95" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A95" s="9">
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -4179,9 +4501,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="n">
-        <f aca="false">ROW(A96)-1</f>
+    <row r="96" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A96" s="9">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -4209,9 +4531,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="n">
-        <f aca="false">ROW(A97)-1</f>
+    <row r="97" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A97" s="9">
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -4239,9 +4561,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="n">
-        <f aca="false">ROW(A98)-1</f>
+    <row r="98" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A98" s="9">
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -4269,9 +4591,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="n">
-        <f aca="false">ROW(A99)-1</f>
+    <row r="99" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A99" s="9">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -4299,9 +4621,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="n">
-        <f aca="false">ROW(A100)-1</f>
+    <row r="100" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A100" s="9">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -4329,9 +4651,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="n">
-        <f aca="false">ROW(A101)-1</f>
+    <row r="101" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A101" s="9">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -4359,9 +4681,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="n">
-        <f aca="false">ROW(A102)-1</f>
+    <row r="102" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A102" s="9">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -4389,9 +4711,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="n">
-        <f aca="false">ROW(A103)-1</f>
+    <row r="103" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A103" s="9">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -4419,9 +4741,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="n">
-        <f aca="false">ROW(A104)-1</f>
+    <row r="104" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A104" s="9">
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -4449,9 +4771,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="n">
-        <f aca="false">ROW(A105)-1</f>
+    <row r="105" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A105" s="9">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -4479,8 +4801,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="n">
+    <row r="106" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A106" s="9">
         <v>107</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -4508,9 +4830,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="n">
-        <f aca="false">ROW(A107)-1</f>
+    <row r="107" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A107" s="9">
+        <f t="shared" ref="A107:A138" si="4">ROW(A107)-1</f>
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -4539,9 +4861,9 @@
       </c>
       <c r="J107" s="47"/>
     </row>
-    <row r="108" s="38" customFormat="true" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="n">
-        <f aca="false">ROW(A108)-1</f>
+    <row r="108" spans="1:27" s="38" customFormat="1" ht="60">
+      <c r="A108" s="9">
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -4556,7 +4878,7 @@
       <c r="E108" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F108" s="42" t="n">
+      <c r="F108" s="42">
         <v>1</v>
       </c>
       <c r="G108" s="37" t="s">
@@ -4572,9 +4894,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="n">
-        <f aca="false">ROW(A109)-1</f>
+    <row r="109" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A109" s="9">
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -4589,7 +4911,7 @@
       <c r="E109" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F109" s="42" t="n">
+      <c r="F109" s="42">
         <v>2</v>
       </c>
       <c r="G109" s="37" t="s">
@@ -4620,9 +4942,9 @@
       <c r="Z109" s="38"/>
       <c r="AA109" s="38"/>
     </row>
-    <row r="110" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="n">
-        <f aca="false">ROW(A110)-1</f>
+    <row r="110" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A110" s="9">
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -4637,7 +4959,7 @@
       <c r="E110" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F110" s="42" t="n">
+      <c r="F110" s="42">
         <v>3</v>
       </c>
       <c r="G110" s="37" t="s">
@@ -4668,9 +4990,9 @@
       <c r="Z110" s="38"/>
       <c r="AA110" s="38"/>
     </row>
-    <row r="111" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="n">
-        <f aca="false">ROW(A111)-1</f>
+    <row r="111" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A111" s="9">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -4685,7 +5007,7 @@
       <c r="E111" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F111" s="42" t="n">
+      <c r="F111" s="42">
         <v>4</v>
       </c>
       <c r="G111" s="37" t="s">
@@ -4716,9 +5038,9 @@
       <c r="Z111" s="38"/>
       <c r="AA111" s="38"/>
     </row>
-    <row r="112" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="n">
-        <f aca="false">ROW(A112)-1</f>
+    <row r="112" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A112" s="9">
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -4733,7 +5055,7 @@
       <c r="E112" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F112" s="42" t="n">
+      <c r="F112" s="42">
         <v>5</v>
       </c>
       <c r="G112" s="37" t="s">
@@ -4764,9 +5086,9 @@
       <c r="Z112" s="38"/>
       <c r="AA112" s="38"/>
     </row>
-    <row r="113" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="n">
-        <f aca="false">ROW(A113)-1</f>
+    <row r="113" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A113" s="9">
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -4781,7 +5103,7 @@
       <c r="E113" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F113" s="42" t="n">
+      <c r="F113" s="42">
         <v>6</v>
       </c>
       <c r="G113" s="37" t="s">
@@ -4812,9 +5134,9 @@
       <c r="Z113" s="38"/>
       <c r="AA113" s="38"/>
     </row>
-    <row r="114" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="n">
-        <f aca="false">ROW(A114)-1</f>
+    <row r="114" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A114" s="9">
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -4829,7 +5151,7 @@
       <c r="E114" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F114" s="42" t="n">
+      <c r="F114" s="42">
         <v>7</v>
       </c>
       <c r="G114" s="37" t="s">
@@ -4860,9 +5182,9 @@
       <c r="Z114" s="38"/>
       <c r="AA114" s="38"/>
     </row>
-    <row r="115" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="n">
-        <f aca="false">ROW(A115)-1</f>
+    <row r="115" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A115" s="9">
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -4877,7 +5199,7 @@
       <c r="E115" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F115" s="42" t="n">
+      <c r="F115" s="42">
         <v>8</v>
       </c>
       <c r="G115" s="37" t="s">
@@ -4908,9 +5230,9 @@
       <c r="Z115" s="38"/>
       <c r="AA115" s="38"/>
     </row>
-    <row r="116" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="n">
-        <f aca="false">ROW(A116)-1</f>
+    <row r="116" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A116" s="9">
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -4925,7 +5247,7 @@
       <c r="E116" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F116" s="42" t="n">
+      <c r="F116" s="42">
         <v>9</v>
       </c>
       <c r="G116" s="37" t="s">
@@ -4956,9 +5278,9 @@
       <c r="Z116" s="38"/>
       <c r="AA116" s="38"/>
     </row>
-    <row r="117" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="n">
-        <f aca="false">ROW(A117)-1</f>
+    <row r="117" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A117" s="9">
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -4973,7 +5295,7 @@
       <c r="E117" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F117" s="42" t="n">
+      <c r="F117" s="42">
         <v>10</v>
       </c>
       <c r="G117" s="37" t="s">
@@ -5004,9 +5326,9 @@
       <c r="Z117" s="38"/>
       <c r="AA117" s="38"/>
     </row>
-    <row r="118" s="38" customFormat="true" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="n">
-        <f aca="false">ROW(A118)-1</f>
+    <row r="118" spans="1:27" s="38" customFormat="1" ht="60">
+      <c r="A118" s="9">
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -5021,7 +5343,7 @@
       <c r="E118" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F118" s="42" t="n">
+      <c r="F118" s="42">
         <v>11</v>
       </c>
       <c r="G118" s="37" t="s">
@@ -5037,9 +5359,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="n">
-        <f aca="false">ROW(A119)-1</f>
+    <row r="119" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A119" s="9">
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -5054,7 +5376,7 @@
       <c r="E119" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F119" s="42" t="n">
+      <c r="F119" s="42">
         <v>12</v>
       </c>
       <c r="G119" s="37" t="s">
@@ -5085,9 +5407,9 @@
       <c r="Z119" s="38"/>
       <c r="AA119" s="38"/>
     </row>
-    <row r="120" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="n">
-        <f aca="false">ROW(A120)-1</f>
+    <row r="120" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A120" s="9">
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -5102,7 +5424,7 @@
       <c r="E120" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F120" s="42" t="n">
+      <c r="F120" s="42">
         <v>13</v>
       </c>
       <c r="G120" s="37" t="s">
@@ -5133,9 +5455,9 @@
       <c r="Z120" s="38"/>
       <c r="AA120" s="38"/>
     </row>
-    <row r="121" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="n">
-        <f aca="false">ROW(A121)-1</f>
+    <row r="121" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A121" s="9">
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -5150,7 +5472,7 @@
       <c r="E121" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F121" s="42" t="n">
+      <c r="F121" s="42">
         <v>14</v>
       </c>
       <c r="G121" s="37" t="s">
@@ -5181,9 +5503,9 @@
       <c r="Z121" s="38"/>
       <c r="AA121" s="38"/>
     </row>
-    <row r="122" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="n">
-        <f aca="false">ROW(A122)-1</f>
+    <row r="122" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A122" s="9">
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -5198,7 +5520,7 @@
       <c r="E122" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F122" s="42" t="n">
+      <c r="F122" s="42">
         <v>15</v>
       </c>
       <c r="G122" s="37" t="s">
@@ -5229,9 +5551,9 @@
       <c r="Z122" s="38"/>
       <c r="AA122" s="38"/>
     </row>
-    <row r="123" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="n">
-        <f aca="false">ROW(A123)-1</f>
+    <row r="123" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A123" s="9">
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -5246,7 +5568,7 @@
       <c r="E123" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F123" s="42" t="n">
+      <c r="F123" s="42">
         <v>16</v>
       </c>
       <c r="G123" s="37" t="s">
@@ -5277,9 +5599,9 @@
       <c r="Z123" s="38"/>
       <c r="AA123" s="38"/>
     </row>
-    <row r="124" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="n">
-        <f aca="false">ROW(A124)-1</f>
+    <row r="124" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A124" s="9">
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -5294,7 +5616,7 @@
       <c r="E124" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="42" t="n">
+      <c r="F124" s="42">
         <v>17</v>
       </c>
       <c r="G124" s="37" t="s">
@@ -5325,9 +5647,9 @@
       <c r="Z124" s="38"/>
       <c r="AA124" s="38"/>
     </row>
-    <row r="125" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="n">
-        <f aca="false">ROW(A125)-1</f>
+    <row r="125" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A125" s="9">
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -5342,7 +5664,7 @@
       <c r="E125" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F125" s="42" t="n">
+      <c r="F125" s="42">
         <v>18</v>
       </c>
       <c r="G125" s="37" t="s">
@@ -5373,9 +5695,9 @@
       <c r="Z125" s="38"/>
       <c r="AA125" s="38"/>
     </row>
-    <row r="126" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="n">
-        <f aca="false">ROW(A126)-1</f>
+    <row r="126" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A126" s="9">
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -5390,7 +5712,7 @@
       <c r="E126" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F126" s="42" t="n">
+      <c r="F126" s="42">
         <v>19</v>
       </c>
       <c r="G126" s="37" t="s">
@@ -5421,9 +5743,9 @@
       <c r="Z126" s="38"/>
       <c r="AA126" s="38"/>
     </row>
-    <row r="127" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="n">
-        <f aca="false">ROW(A127)-1</f>
+    <row r="127" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A127" s="9">
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -5438,7 +5760,7 @@
       <c r="E127" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F127" s="42" t="n">
+      <c r="F127" s="42">
         <v>20</v>
       </c>
       <c r="G127" s="37" t="s">
@@ -5469,9 +5791,9 @@
       <c r="Z127" s="38"/>
       <c r="AA127" s="38"/>
     </row>
-    <row r="128" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="n">
-        <f aca="false">ROW(A128)-1</f>
+    <row r="128" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A128" s="9">
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -5486,7 +5808,7 @@
       <c r="E128" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F128" s="42" t="n">
+      <c r="F128" s="42">
         <v>1</v>
       </c>
       <c r="G128" s="37" t="s">
@@ -5517,9 +5839,9 @@
       <c r="Z128" s="38"/>
       <c r="AA128" s="38"/>
     </row>
-    <row r="129" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="n">
-        <f aca="false">ROW(A129)-1</f>
+    <row r="129" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A129" s="9">
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -5534,7 +5856,7 @@
       <c r="E129" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F129" s="42" t="n">
+      <c r="F129" s="42">
         <v>2</v>
       </c>
       <c r="G129" s="37" t="s">
@@ -5565,9 +5887,9 @@
       <c r="Z129" s="38"/>
       <c r="AA129" s="38"/>
     </row>
-    <row r="130" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="n">
-        <f aca="false">ROW(A130)-1</f>
+    <row r="130" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A130" s="9">
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -5582,7 +5904,7 @@
       <c r="E130" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="42" t="n">
+      <c r="F130" s="42">
         <v>3</v>
       </c>
       <c r="G130" s="37" t="s">
@@ -5613,9 +5935,9 @@
       <c r="Z130" s="38"/>
       <c r="AA130" s="38"/>
     </row>
-    <row r="131" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="n">
-        <f aca="false">ROW(A131)-1</f>
+    <row r="131" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A131" s="9">
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -5630,7 +5952,7 @@
       <c r="E131" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F131" s="42" t="n">
+      <c r="F131" s="42">
         <v>4</v>
       </c>
       <c r="G131" s="37" t="s">
@@ -5661,9 +5983,9 @@
       <c r="Z131" s="38"/>
       <c r="AA131" s="38"/>
     </row>
-    <row r="132" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="n">
-        <f aca="false">ROW(A132)-1</f>
+    <row r="132" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A132" s="9">
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -5678,7 +6000,7 @@
       <c r="E132" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F132" s="42" t="n">
+      <c r="F132" s="42">
         <v>5</v>
       </c>
       <c r="G132" s="37" t="s">
@@ -5709,9 +6031,9 @@
       <c r="Z132" s="38"/>
       <c r="AA132" s="38"/>
     </row>
-    <row r="133" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="n">
-        <f aca="false">ROW(A133)-1</f>
+    <row r="133" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A133" s="9">
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -5726,7 +6048,7 @@
       <c r="E133" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F133" s="42" t="n">
+      <c r="F133" s="42">
         <v>6</v>
       </c>
       <c r="G133" s="37" t="s">
@@ -5757,9 +6079,9 @@
       <c r="Z133" s="38"/>
       <c r="AA133" s="38"/>
     </row>
-    <row r="134" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="n">
-        <f aca="false">ROW(A134)-1</f>
+    <row r="134" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A134" s="9">
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -5774,7 +6096,7 @@
       <c r="E134" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F134" s="42" t="n">
+      <c r="F134" s="42">
         <v>7</v>
       </c>
       <c r="G134" s="37" t="s">
@@ -5805,9 +6127,9 @@
       <c r="Z134" s="38"/>
       <c r="AA134" s="38"/>
     </row>
-    <row r="135" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="n">
-        <f aca="false">ROW(A135)-1</f>
+    <row r="135" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A135" s="9">
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5822,7 +6144,7 @@
       <c r="E135" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="42" t="n">
+      <c r="F135" s="42">
         <v>8</v>
       </c>
       <c r="G135" s="37" t="s">
@@ -5853,9 +6175,9 @@
       <c r="Z135" s="38"/>
       <c r="AA135" s="38"/>
     </row>
-    <row r="136" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="n">
-        <f aca="false">ROW(A136)-1</f>
+    <row r="136" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A136" s="9">
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -5870,7 +6192,7 @@
       <c r="E136" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F136" s="42" t="n">
+      <c r="F136" s="42">
         <v>9</v>
       </c>
       <c r="G136" s="37" t="s">
@@ -5901,9 +6223,9 @@
       <c r="Z136" s="38"/>
       <c r="AA136" s="38"/>
     </row>
-    <row r="137" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="n">
-        <f aca="false">ROW(A137)-1</f>
+    <row r="137" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A137" s="9">
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -5918,7 +6240,7 @@
       <c r="E137" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="42" t="n">
+      <c r="F137" s="42">
         <v>10</v>
       </c>
       <c r="G137" s="37" t="s">
@@ -5949,9 +6271,9 @@
       <c r="Z137" s="38"/>
       <c r="AA137" s="38"/>
     </row>
-    <row r="138" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="n">
-        <f aca="false">ROW(A138)-1</f>
+    <row r="138" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A138" s="9">
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -5966,7 +6288,7 @@
       <c r="E138" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="42" t="n">
+      <c r="F138" s="42">
         <v>11</v>
       </c>
       <c r="G138" s="37" t="s">
@@ -5997,9 +6319,9 @@
       <c r="Z138" s="38"/>
       <c r="AA138" s="38"/>
     </row>
-    <row r="139" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="n">
-        <f aca="false">ROW(A139)-1</f>
+    <row r="139" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A139" s="9">
+        <f t="shared" ref="A139:A190" si="5">ROW(A139)-1</f>
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -6014,7 +6336,7 @@
       <c r="E139" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F139" s="42" t="n">
+      <c r="F139" s="42">
         <v>12</v>
       </c>
       <c r="G139" s="37" t="s">
@@ -6045,9 +6367,9 @@
       <c r="Z139" s="38"/>
       <c r="AA139" s="38"/>
     </row>
-    <row r="140" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="n">
-        <f aca="false">ROW(A140)-1</f>
+    <row r="140" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A140" s="9">
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -6062,7 +6384,7 @@
       <c r="E140" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="42" t="n">
+      <c r="F140" s="42">
         <v>13</v>
       </c>
       <c r="G140" s="37" t="s">
@@ -6093,9 +6415,9 @@
       <c r="Z140" s="38"/>
       <c r="AA140" s="38"/>
     </row>
-    <row r="141" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="n">
-        <f aca="false">ROW(A141)-1</f>
+    <row r="141" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A141" s="9">
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -6110,7 +6432,7 @@
       <c r="E141" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F141" s="42" t="n">
+      <c r="F141" s="42">
         <v>14</v>
       </c>
       <c r="G141" s="37" t="s">
@@ -6141,9 +6463,9 @@
       <c r="Z141" s="38"/>
       <c r="AA141" s="38"/>
     </row>
-    <row r="142" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="n">
-        <f aca="false">ROW(A142)-1</f>
+    <row r="142" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A142" s="9">
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -6158,7 +6480,7 @@
       <c r="E142" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="42" t="n">
+      <c r="F142" s="42">
         <v>15</v>
       </c>
       <c r="G142" s="37" t="s">
@@ -6189,9 +6511,9 @@
       <c r="Z142" s="38"/>
       <c r="AA142" s="38"/>
     </row>
-    <row r="143" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="n">
-        <f aca="false">ROW(A143)-1</f>
+    <row r="143" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A143" s="9">
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -6206,7 +6528,7 @@
       <c r="E143" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F143" s="42" t="n">
+      <c r="F143" s="42">
         <v>16</v>
       </c>
       <c r="G143" s="37" t="s">
@@ -6237,9 +6559,9 @@
       <c r="Z143" s="38"/>
       <c r="AA143" s="38"/>
     </row>
-    <row r="144" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="n">
-        <f aca="false">ROW(A144)-1</f>
+    <row r="144" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A144" s="9">
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -6254,7 +6576,7 @@
       <c r="E144" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F144" s="42" t="n">
+      <c r="F144" s="42">
         <v>17</v>
       </c>
       <c r="G144" s="37" t="s">
@@ -6285,9 +6607,9 @@
       <c r="Z144" s="38"/>
       <c r="AA144" s="38"/>
     </row>
-    <row r="145" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="n">
-        <f aca="false">ROW(A145)-1</f>
+    <row r="145" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A145" s="9">
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -6302,7 +6624,7 @@
       <c r="E145" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F145" s="42" t="n">
+      <c r="F145" s="42">
         <v>18</v>
       </c>
       <c r="G145" s="37" t="s">
@@ -6333,9 +6655,9 @@
       <c r="Z145" s="38"/>
       <c r="AA145" s="38"/>
     </row>
-    <row r="146" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="n">
-        <f aca="false">ROW(A146)-1</f>
+    <row r="146" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A146" s="9">
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -6350,7 +6672,7 @@
       <c r="E146" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F146" s="42" t="n">
+      <c r="F146" s="42">
         <v>19</v>
       </c>
       <c r="G146" s="37" t="s">
@@ -6381,9 +6703,9 @@
       <c r="Z146" s="38"/>
       <c r="AA146" s="38"/>
     </row>
-    <row r="147" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="n">
-        <f aca="false">ROW(A147)-1</f>
+    <row r="147" spans="1:27" s="16" customFormat="1" ht="17.25">
+      <c r="A147" s="9">
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -6398,7 +6720,7 @@
       <c r="E147" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F147" s="42" t="n">
+      <c r="F147" s="42">
         <v>20</v>
       </c>
       <c r="G147" s="37" t="s">
@@ -6429,9 +6751,9 @@
       <c r="Z147" s="38"/>
       <c r="AA147" s="38"/>
     </row>
-    <row r="148" s="16" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="n">
-        <f aca="false">ROW(A148)-1</f>
+    <row r="148" spans="1:27" s="16" customFormat="1" ht="30">
+      <c r="A148" s="9">
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -6459,9 +6781,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="n">
-        <f aca="false">ROW(A149)-1</f>
+    <row r="149" spans="1:27" ht="30">
+      <c r="A149" s="9">
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -6489,9 +6811,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="n">
-        <f aca="false">ROW(A150)-1</f>
+    <row r="150" spans="1:27" ht="30">
+      <c r="A150" s="9">
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -6519,9 +6841,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="n">
-        <f aca="false">ROW(A151)-1</f>
+    <row r="151" spans="1:27" ht="30">
+      <c r="A151" s="9">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -6549,9 +6871,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="n">
-        <f aca="false">ROW(A152)-1</f>
+    <row r="152" spans="1:27" ht="30">
+      <c r="A152" s="9">
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -6579,9 +6901,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9" t="n">
-        <f aca="false">ROW(A153)-1</f>
+    <row r="153" spans="1:27" ht="30">
+      <c r="A153" s="9">
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -6609,9 +6931,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="n">
-        <f aca="false">ROW(A154)-1</f>
+    <row r="154" spans="1:27" ht="30">
+      <c r="A154" s="9">
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
@@ -6639,9 +6961,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="n">
-        <f aca="false">ROW(A155)-1</f>
+    <row r="155" spans="1:27" ht="30">
+      <c r="A155" s="9">
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -6669,9 +6991,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="n">
-        <f aca="false">ROW(A156)-1</f>
+    <row r="156" spans="1:27" ht="30">
+      <c r="A156" s="9">
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -6699,9 +7021,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="n">
-        <f aca="false">ROW(A157)-1</f>
+    <row r="157" spans="1:27" ht="30">
+      <c r="A157" s="9">
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -6729,9 +7051,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="n">
-        <f aca="false">ROW(A158)-1</f>
+    <row r="158" spans="1:27" ht="30">
+      <c r="A158" s="9">
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
@@ -6759,9 +7081,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="n">
-        <f aca="false">ROW(A159)-1</f>
+    <row r="159" spans="1:27" ht="30">
+      <c r="A159" s="9">
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -6789,9 +7111,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="n">
-        <f aca="false">ROW(A160)-1</f>
+    <row r="160" spans="1:27" ht="17.25">
+      <c r="A160" s="9">
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
@@ -6800,1697 +7122,2194 @@
       <c r="C160" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="45" t="s">
+      <c r="D160" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="F160" s="58">
+        <v>1</v>
+      </c>
+      <c r="G160" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="J160" s="59"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25">
+      <c r="A161" s="9">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F161" s="37">
+        <v>2</v>
+      </c>
+      <c r="G161" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17.25">
+      <c r="A162" s="9">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F162" s="37">
+        <v>3</v>
+      </c>
+      <c r="G162" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17.25">
+      <c r="A163" s="9">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F163" s="37">
+        <v>4</v>
+      </c>
+      <c r="G163" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17.25">
+      <c r="A164" s="9">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E164" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F164" s="37">
+        <v>5</v>
+      </c>
+      <c r="G164" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17.25">
+      <c r="A165" s="9">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E165" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F165" s="37">
+        <v>6</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17.25">
+      <c r="A166" s="9">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E166" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F166" s="37">
+        <v>7</v>
+      </c>
+      <c r="G166" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="17.25">
+      <c r="A167" s="9">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E167" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F167" s="37">
+        <v>8</v>
+      </c>
+      <c r="G167" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17.25">
+      <c r="A168" s="9">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E168" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F168" s="37">
+        <v>9</v>
+      </c>
+      <c r="G168" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17.25">
+      <c r="A169" s="9">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E169" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F169" s="37">
+        <v>10</v>
+      </c>
+      <c r="G169" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="17.25">
+      <c r="A170" s="9">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E170" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F170" s="60">
+        <v>1</v>
+      </c>
+      <c r="G170" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17.25">
+      <c r="A171" s="9">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E171" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F171" s="37">
+        <v>2</v>
+      </c>
+      <c r="G171" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17.25">
+      <c r="A172" s="9">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E172" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F172" s="37">
+        <v>3</v>
+      </c>
+      <c r="G172" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17.25">
+      <c r="A173" s="9">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F173" s="37">
+        <v>4</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17.25">
+      <c r="A174" s="9">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E174" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F174" s="37">
+        <v>5</v>
+      </c>
+      <c r="G174" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17.25">
+      <c r="A175" s="9">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E175" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F175" s="37">
+        <v>6</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17.25">
+      <c r="A176" s="9">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E176" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F176" s="37">
+        <v>7</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17.25">
+      <c r="A177" s="9">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E177" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F177" s="37">
+        <v>8</v>
+      </c>
+      <c r="G177" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17.25">
+      <c r="A178" s="9">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E178" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F178" s="37">
+        <v>9</v>
+      </c>
+      <c r="G178" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17.25">
+      <c r="A179" s="9">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E179" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F179" s="37">
+        <v>10</v>
+      </c>
+      <c r="G179" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17.25">
+      <c r="A180" s="9">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E160" s="50" t="n">
+      <c r="E180" s="50">
         <v>1</v>
       </c>
-      <c r="F160" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="52" t="s">
+      <c r="F180" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="n">
-        <f aca="false">ROW(A161)-1</f>
-        <v>160</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="42" t="s">
+    <row r="181" spans="1:9" ht="17.25">
+      <c r="A181" s="9">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="53" t="n">
+      <c r="E181" s="53">
         <v>2</v>
       </c>
-      <c r="F161" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G161" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="F181" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="n">
-        <f aca="false">ROW(A162)-1</f>
-        <v>161</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="42" t="s">
+    <row r="182" spans="1:9" ht="17.25">
+      <c r="A182" s="9">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E162" s="53" t="n">
+      <c r="E182" s="53">
         <v>3</v>
       </c>
-      <c r="F162" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="1" t="s">
+      <c r="F182" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="n">
-        <f aca="false">ROW(A163)-1</f>
-        <v>162</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="42" t="s">
+    <row r="183" spans="1:9" ht="17.25">
+      <c r="A183" s="9">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E163" s="53" t="n">
+      <c r="E183" s="53">
         <v>4</v>
       </c>
-      <c r="F163" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I163" s="1" t="s">
+      <c r="F183" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="n">
-        <f aca="false">ROW(A164)-1</f>
-        <v>163</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="42" t="s">
+    <row r="184" spans="1:9" ht="17.25">
+      <c r="A184" s="9">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E164" s="53" t="n">
+      <c r="E184" s="53">
         <v>5</v>
       </c>
-      <c r="F164" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I164" s="1" t="s">
+      <c r="F184" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="n">
-        <f aca="false">ROW(A165)-1</f>
-        <v>164</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="42" t="s">
+    <row r="185" spans="1:9" ht="17.25">
+      <c r="A185" s="9">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E165" s="53" t="n">
+      <c r="E185" s="53">
         <v>6</v>
       </c>
-      <c r="F165" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G165" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I165" s="1" t="s">
+      <c r="F185" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="n">
-        <f aca="false">ROW(A166)-1</f>
-        <v>165</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="42" t="s">
+    <row r="186" spans="1:9" ht="17.25">
+      <c r="A186" s="9">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E166" s="53" t="n">
+      <c r="E186" s="53">
         <v>7</v>
       </c>
-      <c r="F166" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I166" s="1" t="s">
+      <c r="F186" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="n">
-        <f aca="false">ROW(A167)-1</f>
-        <v>166</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="42" t="s">
+    <row r="187" spans="1:9" ht="17.25">
+      <c r="A187" s="9">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E167" s="53" t="n">
-        <v>8</v>
-      </c>
-      <c r="F167" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="1" t="s">
+      <c r="E187" s="53">
+        <v>8</v>
+      </c>
+      <c r="F187" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="n">
-        <f aca="false">ROW(A168)-1</f>
-        <v>167</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="42" t="s">
+    <row r="188" spans="1:9" ht="17.25">
+      <c r="A188" s="9">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E168" s="53" t="n">
+      <c r="E188" s="53">
         <v>9</v>
       </c>
-      <c r="F168" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="1" t="s">
+      <c r="F188" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="n">
-        <f aca="false">ROW(A169)-1</f>
-        <v>168</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="42" t="s">
+    <row r="189" spans="1:9" ht="17.25">
+      <c r="A189" s="9">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E169" s="53" t="n">
+      <c r="E189" s="53">
         <v>10</v>
       </c>
-      <c r="F169" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="1" t="s">
+      <c r="F189" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="n">
-        <f aca="false">ROW(A170)-1</f>
-        <v>169</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="45" t="s">
+    <row r="190" spans="1:9" ht="17.25">
+      <c r="A190" s="9">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E170" s="50" t="n">
+      <c r="E190" s="50">
         <v>11</v>
       </c>
-      <c r="F170" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G170" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="52" t="s">
+      <c r="F190" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9" t="n">
-        <f aca="false">ROW(A171)-1</f>
-        <v>170</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="42" t="s">
+    <row r="191" spans="1:9" ht="17.25">
+      <c r="A191" s="9">
+        <f t="shared" ref="A191:A222" si="6">ROW(A191)-1</f>
+        <v>190</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E171" s="53" t="n">
+      <c r="E191" s="53">
         <v>12</v>
       </c>
-      <c r="F171" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G171" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="1" t="s">
+      <c r="F191" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="n">
-        <f aca="false">ROW(A172)-1</f>
-        <v>171</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="42" t="s">
+    <row r="192" spans="1:9" ht="17.25">
+      <c r="A192" s="9">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E172" s="53" t="n">
-        <v>13</v>
-      </c>
-      <c r="F172" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="1" t="s">
+      <c r="E192" s="53">
+        <v>13</v>
+      </c>
+      <c r="F192" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9" t="n">
-        <f aca="false">ROW(A173)-1</f>
-        <v>172</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="42" t="s">
+    <row r="193" spans="1:9" ht="17.25">
+      <c r="A193" s="9">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E173" s="53" t="n">
+      <c r="E193" s="53">
         <v>14</v>
       </c>
-      <c r="F173" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H173" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="1" t="s">
+      <c r="F193" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="n">
-        <f aca="false">ROW(A174)-1</f>
-        <v>173</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="42" t="s">
+    <row r="194" spans="1:9" ht="17.25">
+      <c r="A194" s="9">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E174" s="53" t="n">
+      <c r="E194" s="53">
         <v>15</v>
       </c>
-      <c r="F174" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="52" t="s">
+      <c r="F194" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" s="52" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="n">
-        <f aca="false">ROW(A175)-1</f>
-        <v>174</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="42" t="s">
+    <row r="195" spans="1:9" ht="17.25">
+      <c r="A195" s="9">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E175" s="50" t="n">
+      <c r="E195" s="50">
         <v>16</v>
       </c>
-      <c r="F175" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H175" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="1" t="s">
+      <c r="F195" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="n">
-        <f aca="false">ROW(A176)-1</f>
-        <v>175</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="42" t="s">
+    <row r="196" spans="1:9" ht="17.25">
+      <c r="A196" s="9">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E176" s="53" t="n">
+      <c r="E196" s="53">
         <v>17</v>
       </c>
-      <c r="F176" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I176" s="1" t="s">
+      <c r="F196" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9" t="n">
-        <f aca="false">ROW(A177)-1</f>
-        <v>176</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="42" t="s">
+    <row r="197" spans="1:9" ht="17.25">
+      <c r="A197" s="9">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E177" s="53" t="n">
+      <c r="E197" s="53">
         <v>18</v>
       </c>
-      <c r="F177" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I177" s="1" t="s">
+      <c r="F197" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9" t="n">
-        <f aca="false">ROW(A178)-1</f>
-        <v>177</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="42" t="s">
+    <row r="198" spans="1:9" ht="17.25">
+      <c r="A198" s="9">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E178" s="53" t="n">
+      <c r="E198" s="53">
         <v>19</v>
       </c>
-      <c r="F178" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I178" s="52" t="s">
+      <c r="F198" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" s="52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9" t="n">
-        <f aca="false">ROW(A179)-1</f>
-        <v>178</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="42" t="s">
+    <row r="199" spans="1:9" ht="17.25">
+      <c r="A199" s="9">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E179" s="53" t="n">
+      <c r="E199" s="53">
         <v>20</v>
       </c>
-      <c r="F179" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H179" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I179" s="1" t="s">
+      <c r="F199" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="180" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9" t="n">
-        <f aca="false">ROW(A180)-1</f>
-        <v>179</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="45" t="s">
+    <row r="200" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A200" s="9">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E180" s="50" t="s">
+      <c r="E200" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="F180" s="51" t="n">
+      <c r="F200" s="51">
         <v>1</v>
       </c>
-      <c r="G180" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="52" t="s">
+      <c r="G200" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9" t="n">
-        <f aca="false">ROW(A181)-1</f>
-        <v>180</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="22" t="s">
+    <row r="201" spans="1:9" ht="17.25">
+      <c r="A201" s="9">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E181" s="54" t="s">
+      <c r="E201" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F181" s="37" t="n">
+      <c r="F201" s="37">
         <v>2</v>
       </c>
-      <c r="G181" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H181" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="1" t="s">
+      <c r="G201" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="n">
-        <f aca="false">ROW(A182)-1</f>
-        <v>181</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="22" t="s">
+    <row r="202" spans="1:9" ht="17.25">
+      <c r="A202" s="9">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E182" s="54" t="s">
+      <c r="E202" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F182" s="37" t="n">
+      <c r="F202" s="37">
         <v>3</v>
       </c>
-      <c r="G182" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H182" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="1" t="s">
+      <c r="G202" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="n">
-        <f aca="false">ROW(A183)-1</f>
-        <v>182</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="22" t="s">
+    <row r="203" spans="1:9" ht="17.25">
+      <c r="A203" s="9">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E183" s="54" t="s">
+      <c r="E203" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F183" s="37" t="n">
+      <c r="F203" s="37">
         <v>4</v>
       </c>
-      <c r="G183" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H183" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" s="1" t="s">
+      <c r="G203" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="n">
-        <f aca="false">ROW(A184)-1</f>
-        <v>183</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="22" t="s">
+    <row r="204" spans="1:9" ht="17.25">
+      <c r="A204" s="9">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E184" s="54" t="s">
+      <c r="E204" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F184" s="37" t="n">
+      <c r="F204" s="37">
         <v>5</v>
       </c>
-      <c r="G184" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H184" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" s="1" t="s">
+      <c r="G204" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="n">
-        <f aca="false">ROW(A185)-1</f>
-        <v>184</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="22" t="s">
+    <row r="205" spans="1:9" ht="17.25">
+      <c r="A205" s="9">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E185" s="54" t="s">
+      <c r="E205" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F185" s="37" t="n">
+      <c r="F205" s="37">
         <v>6</v>
       </c>
-      <c r="G185" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H185" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I185" s="1" t="s">
+      <c r="G205" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="n">
-        <f aca="false">ROW(A186)-1</f>
-        <v>185</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="22" t="s">
+    <row r="206" spans="1:9" ht="17.25">
+      <c r="A206" s="9">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E186" s="54" t="s">
+      <c r="E206" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F186" s="37" t="n">
+      <c r="F206" s="37">
         <v>7</v>
       </c>
-      <c r="G186" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H186" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="1" t="s">
+      <c r="G206" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9" t="n">
-        <f aca="false">ROW(A187)-1</f>
-        <v>186</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="22" t="s">
+    <row r="207" spans="1:9" ht="17.25">
+      <c r="A207" s="9">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E187" s="54" t="s">
+      <c r="E207" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F187" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="G187" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H187" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" s="1" t="s">
+      <c r="F207" s="37">
+        <v>8</v>
+      </c>
+      <c r="G207" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="n">
-        <f aca="false">ROW(A188)-1</f>
-        <v>187</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="22" t="s">
+    <row r="208" spans="1:9" ht="17.25">
+      <c r="A208" s="9">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E188" s="54" t="s">
+      <c r="E208" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F188" s="37" t="n">
+      <c r="F208" s="37">
         <v>9</v>
       </c>
-      <c r="G188" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H188" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" s="1" t="s">
+      <c r="G208" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9" t="n">
-        <f aca="false">ROW(A189)-1</f>
-        <v>188</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="22" t="s">
+    <row r="209" spans="1:9" ht="17.25">
+      <c r="A209" s="9">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E189" s="54" t="s">
+      <c r="E209" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F189" s="37" t="n">
+      <c r="F209" s="37">
         <v>10</v>
       </c>
-      <c r="G189" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H189" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I189" s="1" t="s">
+      <c r="G209" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H209" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="190" s="52" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9" t="n">
-        <f aca="false">ROW(A190)-1</f>
-        <v>189</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="45" t="s">
+    <row r="210" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A210" s="9">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E190" s="50" t="s">
+      <c r="E210" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F190" s="51" t="n">
+      <c r="F210" s="51">
         <v>1</v>
       </c>
-      <c r="G190" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H190" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" s="52" t="s">
+      <c r="G210" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" s="52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="n">
-        <f aca="false">ROW(A191)-1</f>
-        <v>190</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="22" t="s">
+    <row r="211" spans="1:9" ht="17.25">
+      <c r="A211" s="9">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E191" s="55" t="s">
+      <c r="E211" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F191" s="37" t="n">
+      <c r="F211" s="37">
         <v>2</v>
       </c>
-      <c r="G191" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H191" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="1" t="s">
+      <c r="G211" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="n">
-        <f aca="false">ROW(A192)-1</f>
-        <v>191</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="22" t="s">
+    <row r="212" spans="1:9" ht="17.25">
+      <c r="A212" s="9">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E192" s="55" t="s">
+      <c r="E212" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F192" s="37" t="n">
+      <c r="F212" s="37">
         <v>3</v>
       </c>
-      <c r="G192" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H192" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I192" s="1" t="s">
+      <c r="G212" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="n">
-        <f aca="false">ROW(A193)-1</f>
-        <v>192</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="22" t="s">
+    <row r="213" spans="1:9" ht="17.25">
+      <c r="A213" s="9">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E193" s="55" t="s">
+      <c r="E213" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F193" s="37" t="n">
+      <c r="F213" s="37">
         <v>4</v>
       </c>
-      <c r="G193" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H193" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I193" s="1" t="s">
+      <c r="G213" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="n">
-        <f aca="false">ROW(A194)-1</f>
-        <v>193</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="22" t="s">
+    <row r="214" spans="1:9" ht="17.25">
+      <c r="A214" s="9">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E194" s="55" t="s">
+      <c r="E214" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F194" s="37" t="n">
+      <c r="F214" s="37">
         <v>5</v>
       </c>
-      <c r="G194" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H194" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="G214" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="n">
-        <f aca="false">ROW(A195)-1</f>
-        <v>194</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="22" t="s">
+    <row r="215" spans="1:9" ht="17.25">
+      <c r="A215" s="9">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E195" s="55" t="s">
+      <c r="E215" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F195" s="37" t="n">
+      <c r="F215" s="37">
         <v>6</v>
       </c>
-      <c r="G195" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H195" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I195" s="1" t="s">
+      <c r="G215" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="n">
-        <f aca="false">ROW(A196)-1</f>
-        <v>195</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="22" t="s">
+    <row r="216" spans="1:9" ht="17.25">
+      <c r="A216" s="9">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E196" s="55" t="s">
+      <c r="E216" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F196" s="37" t="n">
+      <c r="F216" s="37">
         <v>7</v>
       </c>
-      <c r="G196" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H196" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I196" s="1" t="s">
+      <c r="G216" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="n">
-        <f aca="false">ROW(A197)-1</f>
-        <v>196</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="22" t="s">
+    <row r="217" spans="1:9" ht="17.25">
+      <c r="A217" s="9">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E197" s="55" t="s">
+      <c r="E217" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F197" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="G197" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H197" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I197" s="1" t="s">
+      <c r="F217" s="37">
+        <v>8</v>
+      </c>
+      <c r="G217" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="n">
-        <f aca="false">ROW(A198)-1</f>
-        <v>197</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="22" t="s">
+    <row r="218" spans="1:9" ht="17.25">
+      <c r="A218" s="9">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E198" s="55" t="s">
+      <c r="E218" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F198" s="37" t="n">
+      <c r="F218" s="37">
         <v>9</v>
       </c>
-      <c r="G198" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H198" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I198" s="1" t="s">
+      <c r="G218" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="n">
-        <f aca="false">ROW(A199)-1</f>
-        <v>198</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="22" t="s">
+    <row r="219" spans="1:9" ht="17.25">
+      <c r="A219" s="9">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E199" s="55" t="s">
+      <c r="E219" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F199" s="37" t="n">
+      <c r="F219" s="37">
         <v>10</v>
       </c>
-      <c r="G199" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H199" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I199" s="1" t="s">
+      <c r="G219" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="200" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9" t="n">
-        <f aca="false">ROW(A200)-1</f>
-        <v>199</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="45" t="s">
+    <row r="220" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A220" s="9">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E200" s="50" t="n">
+      <c r="E220" s="50">
         <v>1</v>
       </c>
-      <c r="F200" s="50" t="s">
+      <c r="F220" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="G200" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H200" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" s="52" t="s">
+      <c r="G220" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" s="52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="9" t="n">
-        <f aca="false">ROW(A201)-1</f>
-        <v>200</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="42" t="s">
+    <row r="221" spans="1:9" ht="17.25">
+      <c r="A221" s="9">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E201" s="53" t="n">
+      <c r="E221" s="53">
         <v>1</v>
       </c>
-      <c r="F201" s="53" t="s">
+      <c r="F221" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="G201" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H201" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I201" s="1" t="s">
+      <c r="G221" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="9" t="n">
-        <f aca="false">ROW(A202)-1</f>
-        <v>201</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="42" t="s">
+    <row r="222" spans="1:9" ht="17.25">
+      <c r="A222" s="9">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E202" s="53" t="n">
+      <c r="E222" s="53">
         <v>1</v>
       </c>
-      <c r="F202" s="53" t="s">
+      <c r="F222" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G202" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H202" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I202" s="1" t="s">
+      <c r="G222" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9" t="n">
-        <f aca="false">ROW(A203)-1</f>
-        <v>202</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="42" t="s">
+    <row r="223" spans="1:9" ht="17.25">
+      <c r="A223" s="9">
+        <f t="shared" ref="A223:A232" si="7">ROW(A223)-1</f>
+        <v>222</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E203" s="53" t="n">
+      <c r="E223" s="53">
         <v>1</v>
       </c>
-      <c r="F203" s="53" t="s">
+      <c r="F223" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="G203" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H203" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" s="1" t="s">
+      <c r="G223" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9" t="n">
-        <f aca="false">ROW(A204)-1</f>
-        <v>203</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="42" t="s">
+    <row r="224" spans="1:9" ht="17.25">
+      <c r="A224" s="9">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E204" s="53" t="n">
+      <c r="E224" s="53">
         <v>2</v>
       </c>
-      <c r="F204" s="53" t="s">
+      <c r="F224" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="G204" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H204" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I204" s="1" t="s">
+      <c r="G224" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="9" t="n">
-        <f aca="false">ROW(A205)-1</f>
-        <v>204</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="42" t="s">
+    <row r="225" spans="1:9" ht="17.25">
+      <c r="A225" s="9">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E205" s="53" t="n">
+      <c r="E225" s="53">
         <v>2</v>
       </c>
-      <c r="F205" s="53" t="s">
+      <c r="F225" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="G205" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H205" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I205" s="1" t="s">
+      <c r="G225" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9" t="n">
-        <f aca="false">ROW(A206)-1</f>
-        <v>205</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="42" t="s">
+    <row r="226" spans="1:9" ht="17.25">
+      <c r="A226" s="9">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E206" s="53" t="n">
+      <c r="E226" s="53">
         <v>2</v>
       </c>
-      <c r="F206" s="53" t="s">
+      <c r="F226" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G206" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H206" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I206" s="1" t="s">
+      <c r="G226" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="9" t="n">
-        <f aca="false">ROW(A207)-1</f>
-        <v>206</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="42" t="s">
+    <row r="227" spans="1:9" ht="17.25">
+      <c r="A227" s="9">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E207" s="53" t="n">
+      <c r="E227" s="53">
         <v>2</v>
       </c>
-      <c r="F207" s="53" t="s">
+      <c r="F227" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="G207" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H207" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I207" s="1" t="s">
+      <c r="G227" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9" t="n">
-        <f aca="false">ROW(A208)-1</f>
-        <v>207</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="42" t="s">
+    <row r="228" spans="1:9" ht="17.25">
+      <c r="A228" s="9">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E208" s="53" t="n">
+      <c r="E228" s="53">
         <v>3</v>
       </c>
-      <c r="F208" s="53" t="s">
+      <c r="F228" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="G208" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H208" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I208" s="1" t="s">
+      <c r="G228" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="9" t="n">
-        <f aca="false">ROW(A209)-1</f>
-        <v>208</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="42" t="s">
+    <row r="229" spans="1:9" ht="17.25">
+      <c r="A229" s="9">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E209" s="53" t="n">
+      <c r="E229" s="53">
         <v>3</v>
       </c>
-      <c r="F209" s="53" t="s">
+      <c r="F229" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="G209" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H209" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I209" s="1" t="s">
+      <c r="G229" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="9" t="n">
-        <f aca="false">ROW(A210)-1</f>
-        <v>209</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="42" t="s">
+    <row r="230" spans="1:9" ht="17.25">
+      <c r="A230" s="9">
+        <f t="shared" si="7"/>
         <v>229</v>
       </c>
-      <c r="E210" s="53" t="n">
+      <c r="B230" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E230" s="53">
         <v>3</v>
       </c>
-      <c r="F210" s="53" t="s">
+      <c r="F230" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G210" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H210" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I210" s="1" t="s">
+      <c r="G230" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9" t="n">
-        <f aca="false">ROW(A211)-1</f>
-        <v>210</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="42" t="s">
+    <row r="231" spans="1:9" ht="17.25">
+      <c r="A231" s="9">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E211" s="53" t="n">
+      <c r="E231" s="53">
         <v>3</v>
       </c>
-      <c r="F211" s="53" t="s">
+      <c r="F231" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="G211" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H211" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I211" s="1" t="s">
+      <c r="G231" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="212" s="52" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9" t="n">
-        <f aca="false">ROW(A212)-1</f>
-        <v>211</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="45" t="s">
+    <row r="232" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A232" s="9">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E212" s="50" t="s">
+      <c r="E232" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="F212" s="50" t="s">
+      <c r="F232" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="G212" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H212" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I212" s="52" t="s">
+      <c r="G232" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" s="52" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G39 G46:G48" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G39 G46:G48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$3:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DB272-C0A1-4384-9D1E-8CF65B7AC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D8FB5-8FDB-4C80-ABA6-7304D81A7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Musterdatensatz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>bewertung</t>
+  </si>
+  <si>
+    <t>bewertungText</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,15 +1236,6 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,6 +1244,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1635,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ232"/>
+  <dimension ref="A1:AMJ233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -6321,7 +6330,7 @@
     </row>
     <row r="139" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A139" s="9">
-        <f t="shared" ref="A139:A190" si="5">ROW(A139)-1</f>
+        <f t="shared" ref="A139:A191" si="5">ROW(A139)-1</f>
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -7081,7 +7090,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="30">
+    <row r="159" spans="1:27" ht="31.5" thickTop="1" thickBot="1">
       <c r="A159" s="9">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -7111,7 +7120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="17.25">
+    <row r="160" spans="1:27" ht="18.75" thickTop="1" thickBot="1">
       <c r="A160" s="9">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -7125,24 +7134,23 @@
       <c r="D160" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="E160" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="F160" s="58">
-        <v>1</v>
-      </c>
-      <c r="G160" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="J160" s="59"/>
-    </row>
-    <row r="161" spans="1:9" ht="17.25">
+      <c r="E160" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F160" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
       <c r="A161" s="9">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -7153,26 +7161,27 @@
       <c r="C161" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="61" t="s">
+      <c r="E161" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="F161" s="37">
-        <v>2</v>
-      </c>
-      <c r="G161" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="F161" s="57">
+        <v>1</v>
+      </c>
+      <c r="G161" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I161" s="61" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="17.25">
+      <c r="J161" s="61"/>
+    </row>
+    <row r="162" spans="1:10" ht="17.25">
       <c r="A162" s="9">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -7186,23 +7195,23 @@
       <c r="D162" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="61" t="s">
+      <c r="E162" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F162" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H162" s="37" t="s">
-        <v>13</v>
+      <c r="H162" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17.25">
+    <row r="163" spans="1:10" ht="17.25">
       <c r="A163" s="9">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -7216,23 +7225,23 @@
       <c r="D163" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E163" s="61" t="s">
+      <c r="E163" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F163" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G163" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H163" s="37" t="s">
-        <v>13</v>
+      <c r="H163" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17.25">
+    <row r="164" spans="1:10" ht="17.25">
       <c r="A164" s="9">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -7246,23 +7255,23 @@
       <c r="D164" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E164" s="61" t="s">
+      <c r="E164" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F164" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G164" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H164" s="37" t="s">
-        <v>13</v>
+      <c r="H164" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="17.25">
+    <row r="165" spans="1:10" ht="17.25">
       <c r="A165" s="9">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -7276,23 +7285,23 @@
       <c r="D165" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E165" s="61" t="s">
+      <c r="E165" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F165" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G165" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="37" t="s">
-        <v>13</v>
+      <c r="H165" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17.25">
+    <row r="166" spans="1:10" ht="17.25">
       <c r="A166" s="9">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -7306,23 +7315,23 @@
       <c r="D166" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E166" s="61" t="s">
+      <c r="E166" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F166" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G166" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="37" t="s">
-        <v>13</v>
+      <c r="H166" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="17.25">
+    <row r="167" spans="1:10" ht="17.25">
       <c r="A167" s="9">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -7336,23 +7345,23 @@
       <c r="D167" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E167" s="61" t="s">
+      <c r="E167" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F167" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G167" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H167" s="37" t="s">
-        <v>13</v>
+      <c r="H167" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17.25">
+    <row r="168" spans="1:10" ht="17.25">
       <c r="A168" s="9">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -7366,23 +7375,23 @@
       <c r="D168" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E168" s="61" t="s">
+      <c r="E168" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F168" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G168" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="37" t="s">
-        <v>13</v>
+      <c r="H168" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17.25">
+    <row r="169" spans="1:10" ht="17.25">
       <c r="A169" s="9">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -7396,23 +7405,23 @@
       <c r="D169" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E169" s="61" t="s">
+      <c r="E169" s="58" t="s">
         <v>239</v>
       </c>
       <c r="F169" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G169" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H169" s="37" t="s">
-        <v>13</v>
+      <c r="H169" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="17.25">
+    <row r="170" spans="1:10" ht="17.25">
       <c r="A170" s="9">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -7426,23 +7435,23 @@
       <c r="D170" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F170" s="60">
-        <v>1</v>
+      <c r="E170" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F170" s="37">
+        <v>10</v>
       </c>
       <c r="G170" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H170" s="37" t="s">
-        <v>13</v>
+      <c r="H170" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="17.25">
+    <row r="171" spans="1:10" ht="17.25">
       <c r="A171" s="9">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -7456,23 +7465,23 @@
       <c r="D171" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E171" s="62" t="s">
+      <c r="E171" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="F171" s="37">
-        <v>2</v>
+      <c r="F171" s="57">
+        <v>1</v>
       </c>
       <c r="G171" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="37" t="s">
-        <v>13</v>
+      <c r="H171" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="17.25">
+    <row r="172" spans="1:10" ht="17.25">
       <c r="A172" s="9">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -7486,23 +7495,23 @@
       <c r="D172" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E172" s="62" t="s">
+      <c r="E172" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F172" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H172" s="37" t="s">
-        <v>13</v>
+      <c r="H172" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17.25">
+    <row r="173" spans="1:10" ht="17.25">
       <c r="A173" s="9">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -7516,23 +7525,23 @@
       <c r="D173" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E173" s="62" t="s">
+      <c r="E173" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F173" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G173" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H173" s="37" t="s">
-        <v>13</v>
+      <c r="H173" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17.25">
+    <row r="174" spans="1:10" ht="17.25">
       <c r="A174" s="9">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -7546,23 +7555,23 @@
       <c r="D174" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E174" s="62" t="s">
+      <c r="E174" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F174" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G174" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H174" s="37" t="s">
-        <v>13</v>
+      <c r="H174" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17.25">
+    <row r="175" spans="1:10" ht="17.25">
       <c r="A175" s="9">
         <f t="shared" si="5"/>
         <v>174</v>
@@ -7576,23 +7585,23 @@
       <c r="D175" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E175" s="62" t="s">
+      <c r="E175" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F175" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G175" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="37" t="s">
-        <v>13</v>
+      <c r="H175" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17.25">
+    <row r="176" spans="1:10" ht="17.25">
       <c r="A176" s="9">
         <f t="shared" si="5"/>
         <v>175</v>
@@ -7606,17 +7615,17 @@
       <c r="D176" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E176" s="62" t="s">
+      <c r="E176" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F176" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G176" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H176" s="37" t="s">
-        <v>13</v>
+      <c r="H176" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>241</v>
@@ -7636,17 +7645,17 @@
       <c r="D177" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E177" s="62" t="s">
+      <c r="E177" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F177" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G177" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H177" s="37" t="s">
-        <v>13</v>
+      <c r="H177" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>241</v>
@@ -7666,17 +7675,17 @@
       <c r="D178" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E178" s="62" t="s">
+      <c r="E178" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F178" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G178" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H178" s="37" t="s">
-        <v>13</v>
+      <c r="H178" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>241</v>
@@ -7696,17 +7705,17 @@
       <c r="D179" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E179" s="62" t="s">
+      <c r="E179" s="59" t="s">
         <v>240</v>
       </c>
       <c r="F179" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G179" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="37" t="s">
-        <v>13</v>
+      <c r="H179" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>241</v>
@@ -7723,23 +7732,23 @@
       <c r="C180" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E180" s="50">
-        <v>1</v>
-      </c>
-      <c r="F180" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="52" t="s">
-        <v>205</v>
+      <c r="D180" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E180" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F180" s="37">
+        <v>10</v>
+      </c>
+      <c r="G180" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="17.25">
@@ -7753,23 +7762,23 @@
       <c r="C181" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="42" t="s">
+      <c r="D181" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E181" s="53">
-        <v>2</v>
-      </c>
-      <c r="F181" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H181" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>206</v>
+      <c r="E181" s="50">
+        <v>1</v>
+      </c>
+      <c r="F181" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17.25">
@@ -7787,7 +7796,7 @@
         <v>204</v>
       </c>
       <c r="E182" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F182" s="53" t="s">
         <v>8</v>
@@ -7799,7 +7808,7 @@
         <v>13</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17.25">
@@ -7817,7 +7826,7 @@
         <v>204</v>
       </c>
       <c r="E183" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F183" s="53" t="s">
         <v>8</v>
@@ -7829,7 +7838,7 @@
         <v>13</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17.25">
@@ -7847,7 +7856,7 @@
         <v>204</v>
       </c>
       <c r="E184" s="53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F184" s="53" t="s">
         <v>8</v>
@@ -7859,7 +7868,7 @@
         <v>13</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17.25">
@@ -7877,7 +7886,7 @@
         <v>204</v>
       </c>
       <c r="E185" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F185" s="53" t="s">
         <v>8</v>
@@ -7889,7 +7898,7 @@
         <v>13</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="17.25">
@@ -7907,7 +7916,7 @@
         <v>204</v>
       </c>
       <c r="E186" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F186" s="53" t="s">
         <v>8</v>
@@ -7919,7 +7928,7 @@
         <v>13</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="17.25">
@@ -7937,7 +7946,7 @@
         <v>204</v>
       </c>
       <c r="E187" s="53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F187" s="53" t="s">
         <v>8</v>
@@ -7949,7 +7958,7 @@
         <v>13</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="17.25">
@@ -7967,7 +7976,7 @@
         <v>204</v>
       </c>
       <c r="E188" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F188" s="53" t="s">
         <v>8</v>
@@ -7979,7 +7988,7 @@
         <v>13</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="17.25">
@@ -7997,7 +8006,7 @@
         <v>204</v>
       </c>
       <c r="E189" s="53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F189" s="53" t="s">
         <v>8</v>
@@ -8009,7 +8018,7 @@
         <v>13</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="17.25">
@@ -8023,28 +8032,28 @@
       <c r="C190" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="45" t="s">
+      <c r="D190" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E190" s="50">
-        <v>11</v>
-      </c>
-      <c r="F190" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H190" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" s="52" t="s">
-        <v>215</v>
+      <c r="E190" s="53">
+        <v>10</v>
+      </c>
+      <c r="F190" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="17.25">
       <c r="A191" s="9">
-        <f t="shared" ref="A191:A222" si="6">ROW(A191)-1</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -8053,28 +8062,28 @@
       <c r="C191" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="42" t="s">
+      <c r="D191" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E191" s="53">
-        <v>12</v>
-      </c>
-      <c r="F191" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H191" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>216</v>
+      <c r="E191" s="50">
+        <v>11</v>
+      </c>
+      <c r="F191" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="52" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="17.25">
       <c r="A192" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A192:A223" si="6">ROW(A192)-1</f>
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
@@ -8087,7 +8096,7 @@
         <v>204</v>
       </c>
       <c r="E192" s="53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F192" s="53" t="s">
         <v>8</v>
@@ -8099,7 +8108,7 @@
         <v>13</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17.25">
@@ -8117,7 +8126,7 @@
         <v>204</v>
       </c>
       <c r="E193" s="53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F193" s="53" t="s">
         <v>8</v>
@@ -8129,7 +8138,7 @@
         <v>13</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17.25">
@@ -8147,7 +8156,7 @@
         <v>204</v>
       </c>
       <c r="E194" s="53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F194" s="53" t="s">
         <v>8</v>
@@ -8158,8 +8167,8 @@
       <c r="H194" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I194" s="52" t="s">
-        <v>219</v>
+      <c r="I194" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17.25">
@@ -8176,8 +8185,8 @@
       <c r="D195" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E195" s="50">
-        <v>16</v>
+      <c r="E195" s="53">
+        <v>15</v>
       </c>
       <c r="F195" s="53" t="s">
         <v>8</v>
@@ -8188,8 +8197,8 @@
       <c r="H195" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>220</v>
+      <c r="I195" s="52" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17.25">
@@ -8206,8 +8215,8 @@
       <c r="D196" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E196" s="53">
-        <v>17</v>
+      <c r="E196" s="50">
+        <v>16</v>
       </c>
       <c r="F196" s="53" t="s">
         <v>8</v>
@@ -8219,7 +8228,7 @@
         <v>13</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="17.25">
@@ -8237,7 +8246,7 @@
         <v>204</v>
       </c>
       <c r="E197" s="53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F197" s="53" t="s">
         <v>8</v>
@@ -8249,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="17.25">
@@ -8267,7 +8276,7 @@
         <v>204</v>
       </c>
       <c r="E198" s="53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F198" s="53" t="s">
         <v>8</v>
@@ -8278,8 +8287,8 @@
       <c r="H198" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I198" s="52" t="s">
-        <v>223</v>
+      <c r="I198" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="17.25">
@@ -8297,7 +8306,7 @@
         <v>204</v>
       </c>
       <c r="E199" s="53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F199" s="53" t="s">
         <v>8</v>
@@ -8308,11 +8317,11 @@
       <c r="H199" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="I199" s="52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="17.25">
       <c r="A200" s="9">
         <f t="shared" si="6"/>
         <v>199</v>
@@ -8323,26 +8332,26 @@
       <c r="C200" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E200" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="F200" s="51">
-        <v>1</v>
-      </c>
-      <c r="G200" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H200" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="17.25">
+      <c r="D200" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E200" s="53">
+        <v>20</v>
+      </c>
+      <c r="F200" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="52" customFormat="1" ht="17.25">
       <c r="A201" s="9">
         <f t="shared" si="6"/>
         <v>200</v>
@@ -8353,22 +8362,22 @@
       <c r="C201" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="22" t="s">
+      <c r="D201" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E201" s="54" t="s">
+      <c r="E201" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="F201" s="37">
-        <v>2</v>
-      </c>
-      <c r="G201" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H201" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I201" s="1" t="s">
+      <c r="F201" s="51">
+        <v>1</v>
+      </c>
+      <c r="G201" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="52" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8390,7 +8399,7 @@
         <v>226</v>
       </c>
       <c r="F202" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G202" s="37" t="s">
         <v>8</v>
@@ -8420,7 +8429,7 @@
         <v>226</v>
       </c>
       <c r="F203" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G203" s="37" t="s">
         <v>8</v>
@@ -8450,7 +8459,7 @@
         <v>226</v>
       </c>
       <c r="F204" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G204" s="37" t="s">
         <v>8</v>
@@ -8480,7 +8489,7 @@
         <v>226</v>
       </c>
       <c r="F205" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G205" s="37" t="s">
         <v>8</v>
@@ -8510,7 +8519,7 @@
         <v>226</v>
       </c>
       <c r="F206" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G206" s="37" t="s">
         <v>8</v>
@@ -8540,7 +8549,7 @@
         <v>226</v>
       </c>
       <c r="F207" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G207" s="37" t="s">
         <v>8</v>
@@ -8570,7 +8579,7 @@
         <v>226</v>
       </c>
       <c r="F208" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G208" s="37" t="s">
         <v>8</v>
@@ -8600,7 +8609,7 @@
         <v>226</v>
       </c>
       <c r="F209" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G209" s="37" t="s">
         <v>8</v>
@@ -8612,7 +8621,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
+    <row r="210" spans="1:9" ht="17.25">
       <c r="A210" s="9">
         <f t="shared" si="6"/>
         <v>209</v>
@@ -8623,26 +8632,26 @@
       <c r="C210" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="45" t="s">
+      <c r="D210" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E210" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="F210" s="51">
-        <v>1</v>
-      </c>
-      <c r="G210" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H210" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I210" s="52" t="s">
+      <c r="E210" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F210" s="37">
+        <v>10</v>
+      </c>
+      <c r="G210" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="17.25">
+    <row r="211" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
       <c r="A211" s="9">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -8653,22 +8662,22 @@
       <c r="C211" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E211" s="55" t="s">
+      <c r="E211" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F211" s="37">
-        <v>2</v>
-      </c>
-      <c r="G211" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H211" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I211" s="1" t="s">
+      <c r="F211" s="51">
+        <v>1</v>
+      </c>
+      <c r="G211" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="52" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8690,7 +8699,7 @@
         <v>228</v>
       </c>
       <c r="F212" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G212" s="37" t="s">
         <v>8</v>
@@ -8720,7 +8729,7 @@
         <v>228</v>
       </c>
       <c r="F213" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G213" s="37" t="s">
         <v>8</v>
@@ -8750,7 +8759,7 @@
         <v>228</v>
       </c>
       <c r="F214" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G214" s="37" t="s">
         <v>8</v>
@@ -8780,7 +8789,7 @@
         <v>228</v>
       </c>
       <c r="F215" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G215" s="37" t="s">
         <v>8</v>
@@ -8810,7 +8819,7 @@
         <v>228</v>
       </c>
       <c r="F216" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G216" s="37" t="s">
         <v>8</v>
@@ -8840,7 +8849,7 @@
         <v>228</v>
       </c>
       <c r="F217" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G217" s="37" t="s">
         <v>8</v>
@@ -8870,7 +8879,7 @@
         <v>228</v>
       </c>
       <c r="F218" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G218" s="37" t="s">
         <v>8</v>
@@ -8900,7 +8909,7 @@
         <v>228</v>
       </c>
       <c r="F219" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G219" s="37" t="s">
         <v>8</v>
@@ -8912,7 +8921,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="52" customFormat="1" ht="17.25">
+    <row r="220" spans="1:9" ht="17.25">
       <c r="A220" s="9">
         <f t="shared" si="6"/>
         <v>219</v>
@@ -8923,26 +8932,26 @@
       <c r="C220" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="E220" s="50">
-        <v>1</v>
-      </c>
-      <c r="F220" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="G220" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H220" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I220" s="52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="17.25">
+      <c r="D220" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E220" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F220" s="37">
+        <v>10</v>
+      </c>
+      <c r="G220" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="52" customFormat="1" ht="17.25">
       <c r="A221" s="9">
         <f t="shared" si="6"/>
         <v>220</v>
@@ -8953,22 +8962,22 @@
       <c r="C221" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D221" s="42" t="s">
+      <c r="D221" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E221" s="53">
+      <c r="E221" s="50">
         <v>1</v>
       </c>
-      <c r="F221" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G221" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H221" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I221" s="1" t="s">
+      <c r="F221" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G221" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" s="52" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8990,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G222" s="53" t="s">
         <v>8</v>
@@ -9004,7 +9013,7 @@
     </row>
     <row r="223" spans="1:9" ht="17.25">
       <c r="A223" s="9">
-        <f t="shared" ref="A223:A232" si="7">ROW(A223)-1</f>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
@@ -9020,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G223" s="53" t="s">
         <v>8</v>
@@ -9034,7 +9043,7 @@
     </row>
     <row r="224" spans="1:9" ht="17.25">
       <c r="A224" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A224:A233" si="7">ROW(A224)-1</f>
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -9047,10 +9056,10 @@
         <v>229</v>
       </c>
       <c r="E224" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="53" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G224" s="53" t="s">
         <v>8</v>
@@ -9080,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="F225" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G225" s="53" t="s">
         <v>8</v>
@@ -9110,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="F226" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G226" s="53" t="s">
         <v>8</v>
@@ -9140,7 +9149,7 @@
         <v>2</v>
       </c>
       <c r="F227" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G227" s="53" t="s">
         <v>8</v>
@@ -9167,10 +9176,10 @@
         <v>229</v>
       </c>
       <c r="E228" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F228" s="53" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G228" s="53" t="s">
         <v>8</v>
@@ -9200,7 +9209,7 @@
         <v>3</v>
       </c>
       <c r="F229" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G229" s="53" t="s">
         <v>8</v>
@@ -9230,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="F230" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G230" s="53" t="s">
         <v>8</v>
@@ -9260,7 +9269,7 @@
         <v>3</v>
       </c>
       <c r="F231" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G231" s="53" t="s">
         <v>8</v>
@@ -9272,7 +9281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="52" customFormat="1" ht="17.25">
+    <row r="232" spans="1:9" ht="17.25">
       <c r="A232" s="9">
         <f t="shared" si="7"/>
         <v>231</v>
@@ -9283,22 +9292,52 @@
       <c r="C232" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="45" t="s">
+      <c r="D232" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E232" s="53">
+        <v>3</v>
+      </c>
+      <c r="F232" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G232" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A233" s="9">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E232" s="50" t="s">
+      <c r="E233" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="F232" s="50" t="s">
+      <c r="F233" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="G232" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H232" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I232" s="52" t="s">
+      <c r="G233" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="52" t="s">
         <v>237</v>
       </c>
     </row>

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D8FB5-8FDB-4C80-ABA6-7304D81A7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB12EDF-D125-4847-A88E-EA9F2E4C31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="253">
   <si>
     <t>ID</t>
   </si>
@@ -763,6 +763,36 @@
   </si>
   <si>
     <t>bewertungText</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke6</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke7</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke8</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke9</t>
+  </si>
+  <si>
+    <t>Normen/Regelwerke10</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt6</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt7</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt8</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt9</t>
+  </si>
+  <si>
+    <t>Titel/Inhalt10</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ233"/>
+  <dimension ref="A1:AMJ243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2742,7 +2772,7 @@
     </row>
     <row r="37" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A37" s="9">
-        <f t="shared" ref="A37:A68" si="2">ROW(A37)-1</f>
+        <f t="shared" ref="A37:A78" si="2">ROW(A37)-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -3370,7 +3400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="58" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A58" s="9">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -3400,7 +3430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="59" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A59" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -3430,7 +3460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="60" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A60" s="9">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -3445,7 +3475,7 @@
         <v>115</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="F60" s="43" t="s">
         <v>8</v>
@@ -3460,7 +3490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="61" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A61" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3475,7 +3505,7 @@
         <v>115</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="F61" s="43" t="s">
         <v>8</v>
@@ -3490,7 +3520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="62" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A62" s="9">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -3505,7 +3535,7 @@
         <v>115</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="F62" s="43" t="s">
         <v>8</v>
@@ -3520,7 +3550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="63" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A63" s="9">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -3535,7 +3565,7 @@
         <v>115</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>8</v>
@@ -3550,7 +3580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="64" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A64" s="9">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -3565,7 +3595,7 @@
         <v>115</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="F64" s="43" t="s">
         <v>8</v>
@@ -3580,7 +3610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="65" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
       <c r="A65" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -3591,26 +3621,26 @@
       <c r="C65" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="43" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="I65" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A66" s="9">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -3622,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="G66" s="43" t="s">
         <v>8</v>
@@ -3636,11 +3666,11 @@
       <c r="H66" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="I66" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A67" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -3652,13 +3682,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>8</v>
@@ -3666,11 +3696,11 @@
       <c r="H67" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="I67" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A68" s="9">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -3682,237 +3712,237 @@
         <v>8</v>
       </c>
       <c r="D68" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A69" s="9">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A70" s="9">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A71" s="9">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A72" s="9">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A73" s="9">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A74" s="9">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A75" s="9">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A69" s="9">
-        <f t="shared" ref="A69:A105" si="3">ROW(A69)-1</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A70" s="9">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A71" s="9">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A72" s="9">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A73" s="9">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A74" s="9">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="38" customFormat="1" ht="17.25">
-      <c r="A75" s="9">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" s="43" t="s">
+      <c r="E75" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>144</v>
+      <c r="I75" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A76" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -3925,10 +3955,10 @@
         <v>129</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G76" s="43" t="s">
         <v>8</v>
@@ -3937,12 +3967,12 @@
         <v>13</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A77" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3955,10 +3985,10 @@
         <v>129</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G77" s="43" t="s">
         <v>8</v>
@@ -3967,12 +3997,12 @@
         <v>13</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A78" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -3985,10 +4015,10 @@
         <v>129</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G78" s="43" t="s">
         <v>8</v>
@@ -3997,12 +4027,12 @@
         <v>13</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A79" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A79:A115" si="3">ROW(A79)-1</f>
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -4015,10 +4045,10 @@
         <v>129</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G79" s="43" t="s">
         <v>8</v>
@@ -4027,7 +4057,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="44" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4045,10 +4075,10 @@
         <v>129</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G80" s="43" t="s">
         <v>8</v>
@@ -4057,7 +4087,7 @@
         <v>13</v>
       </c>
       <c r="I80" s="44" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4075,10 +4105,10 @@
         <v>129</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G81" s="43" t="s">
         <v>8</v>
@@ -4087,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="I81" s="44" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4105,10 +4135,10 @@
         <v>129</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G82" s="43" t="s">
         <v>8</v>
@@ -4117,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4135,10 +4165,10 @@
         <v>129</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G83" s="43" t="s">
         <v>8</v>
@@ -4147,7 +4177,7 @@
         <v>13</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4165,10 +4195,10 @@
         <v>129</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>8</v>
@@ -4177,7 +4207,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="44" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4195,10 +4225,10 @@
         <v>129</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G85" s="43" t="s">
         <v>8</v>
@@ -4207,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4225,10 +4255,10 @@
         <v>129</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>8</v>
@@ -4237,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4255,10 +4285,10 @@
         <v>129</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G87" s="43" t="s">
         <v>8</v>
@@ -4267,7 +4297,7 @@
         <v>13</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4285,10 +4315,10 @@
         <v>129</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G88" s="43" t="s">
         <v>8</v>
@@ -4297,7 +4327,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4315,10 +4345,10 @@
         <v>129</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G89" s="43" t="s">
         <v>8</v>
@@ -4327,7 +4357,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4345,10 +4375,10 @@
         <v>129</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G90" s="43" t="s">
         <v>8</v>
@@ -4357,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4375,10 +4405,10 @@
         <v>129</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G91" s="43" t="s">
         <v>8</v>
@@ -4387,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4405,10 +4435,10 @@
         <v>129</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G92" s="43" t="s">
         <v>8</v>
@@ -4417,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4435,10 +4465,10 @@
         <v>129</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G93" s="43" t="s">
         <v>8</v>
@@ -4447,7 +4477,7 @@
         <v>13</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4465,10 +4495,10 @@
         <v>129</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G94" s="43" t="s">
         <v>8</v>
@@ -4477,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4495,10 +4525,10 @@
         <v>129</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G95" s="43" t="s">
         <v>8</v>
@@ -4507,7 +4537,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="38" customFormat="1" ht="17.25">
@@ -4525,10 +4555,10 @@
         <v>129</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G96" s="43" t="s">
         <v>8</v>
@@ -4537,10 +4567,10 @@
         <v>13</v>
       </c>
       <c r="I96" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A97" s="9">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -4555,10 +4585,10 @@
         <v>129</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G97" s="43" t="s">
         <v>8</v>
@@ -4567,10 +4597,10 @@
         <v>13</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A98" s="9">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -4585,10 +4615,10 @@
         <v>129</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G98" s="43" t="s">
         <v>8</v>
@@ -4597,10 +4627,10 @@
         <v>13</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A99" s="9">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -4615,10 +4645,10 @@
         <v>129</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G99" s="43" t="s">
         <v>8</v>
@@ -4627,10 +4657,10 @@
         <v>13</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A100" s="9">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -4645,10 +4675,10 @@
         <v>129</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G100" s="43" t="s">
         <v>8</v>
@@ -4657,10 +4687,10 @@
         <v>13</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A101" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -4675,10 +4705,10 @@
         <v>129</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G101" s="43" t="s">
         <v>8</v>
@@ -4687,10 +4717,10 @@
         <v>13</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A102" s="9">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -4705,10 +4735,10 @@
         <v>129</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G102" s="43" t="s">
         <v>8</v>
@@ -4717,10 +4747,10 @@
         <v>13</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A103" s="9">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -4735,10 +4765,10 @@
         <v>129</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G103" s="43" t="s">
         <v>8</v>
@@ -4747,10 +4777,10 @@
         <v>13</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A104" s="9">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -4765,10 +4795,10 @@
         <v>129</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G104" s="43" t="s">
         <v>8</v>
@@ -4777,10 +4807,10 @@
         <v>13</v>
       </c>
       <c r="I104" s="44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A105" s="9">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -4795,10 +4825,10 @@
         <v>129</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G105" s="43" t="s">
         <v>8</v>
@@ -4807,12 +4837,13 @@
         <v>13</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="38" customFormat="1" ht="17.25">
       <c r="A106" s="9">
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>0</v>
@@ -4824,472 +4855,323 @@
         <v>129</v>
       </c>
       <c r="E106" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G106" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A107" s="9">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A108" s="9">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A109" s="9">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="F106" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="44" t="s">
+      <c r="B109" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A110" s="9">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A111" s="9">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G111" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="38" customFormat="1" ht="17.25">
+      <c r="A112" s="9">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A113" s="9">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G113" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A114" s="9">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A115" s="9">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" s="38" customFormat="1" ht="17.25">
+      <c r="A116" s="9">
+        <v>107</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="44" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A107" s="9">
-        <f t="shared" ref="A107:A138" si="4">ROW(A107)-1</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="J107" s="47"/>
-    </row>
-    <row r="108" spans="1:27" s="38" customFormat="1" ht="60">
-      <c r="A108" s="9">
-        <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E108" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F108" s="42">
-        <v>1</v>
-      </c>
-      <c r="G108" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J108" s="42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A109" s="9">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F109" s="42">
-        <v>2</v>
-      </c>
-      <c r="G109" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
-      <c r="R109" s="38"/>
-      <c r="S109" s="38"/>
-      <c r="T109" s="38"/>
-      <c r="U109" s="38"/>
-      <c r="V109" s="38"/>
-      <c r="W109" s="38"/>
-      <c r="X109" s="38"/>
-      <c r="Y109" s="38"/>
-      <c r="Z109" s="38"/>
-      <c r="AA109" s="38"/>
-    </row>
-    <row r="110" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A110" s="9">
-        <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E110" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F110" s="42">
-        <v>3</v>
-      </c>
-      <c r="G110" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="38"/>
-      <c r="S110" s="38"/>
-      <c r="T110" s="38"/>
-      <c r="U110" s="38"/>
-      <c r="V110" s="38"/>
-      <c r="W110" s="38"/>
-      <c r="X110" s="38"/>
-      <c r="Y110" s="38"/>
-      <c r="Z110" s="38"/>
-      <c r="AA110" s="38"/>
-    </row>
-    <row r="111" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A111" s="9">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E111" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F111" s="42">
-        <v>4</v>
-      </c>
-      <c r="G111" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
-      <c r="O111" s="38"/>
-      <c r="P111" s="38"/>
-      <c r="Q111" s="38"/>
-      <c r="R111" s="38"/>
-      <c r="S111" s="38"/>
-      <c r="T111" s="38"/>
-      <c r="U111" s="38"/>
-      <c r="V111" s="38"/>
-      <c r="W111" s="38"/>
-      <c r="X111" s="38"/>
-      <c r="Y111" s="38"/>
-      <c r="Z111" s="38"/>
-      <c r="AA111" s="38"/>
-    </row>
-    <row r="112" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A112" s="9">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F112" s="42">
-        <v>5</v>
-      </c>
-      <c r="G112" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="38"/>
-      <c r="Q112" s="38"/>
-      <c r="R112" s="38"/>
-      <c r="S112" s="38"/>
-      <c r="T112" s="38"/>
-      <c r="U112" s="38"/>
-      <c r="V112" s="38"/>
-      <c r="W112" s="38"/>
-      <c r="X112" s="38"/>
-      <c r="Y112" s="38"/>
-      <c r="Z112" s="38"/>
-      <c r="AA112" s="38"/>
-    </row>
-    <row r="113" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A113" s="9">
-        <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F113" s="42">
-        <v>6</v>
-      </c>
-      <c r="G113" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="38"/>
-      <c r="S113" s="38"/>
-      <c r="T113" s="38"/>
-      <c r="U113" s="38"/>
-      <c r="V113" s="38"/>
-      <c r="W113" s="38"/>
-      <c r="X113" s="38"/>
-      <c r="Y113" s="38"/>
-      <c r="Z113" s="38"/>
-      <c r="AA113" s="38"/>
-    </row>
-    <row r="114" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A114" s="9">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E114" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="42">
-        <v>7</v>
-      </c>
-      <c r="G114" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="38"/>
-      <c r="Q114" s="38"/>
-      <c r="R114" s="38"/>
-      <c r="S114" s="38"/>
-      <c r="T114" s="38"/>
-      <c r="U114" s="38"/>
-      <c r="V114" s="38"/>
-      <c r="W114" s="38"/>
-      <c r="X114" s="38"/>
-      <c r="Y114" s="38"/>
-      <c r="Z114" s="38"/>
-      <c r="AA114" s="38"/>
-    </row>
-    <row r="115" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A115" s="9">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F115" s="42">
-        <v>8</v>
-      </c>
-      <c r="G115" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="38"/>
-      <c r="S115" s="38"/>
-      <c r="T115" s="38"/>
-      <c r="U115" s="38"/>
-      <c r="V115" s="38"/>
-      <c r="W115" s="38"/>
-      <c r="X115" s="38"/>
-      <c r="Y115" s="38"/>
-      <c r="Z115" s="38"/>
-      <c r="AA115" s="38"/>
-    </row>
-    <row r="116" spans="1:27" s="16" customFormat="1" ht="17.25">
-      <c r="A116" s="9">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E116" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F116" s="42">
-        <v>9</v>
-      </c>
-      <c r="G116" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="38"/>
-      <c r="S116" s="38"/>
-      <c r="T116" s="38"/>
-      <c r="U116" s="38"/>
-      <c r="V116" s="38"/>
-      <c r="W116" s="38"/>
-      <c r="X116" s="38"/>
-      <c r="Y116" s="38"/>
-      <c r="Z116" s="38"/>
-      <c r="AA116" s="38"/>
     </row>
     <row r="117" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A117" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A117:A148" si="4">ROW(A117)-1</f>
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -5298,42 +5180,25 @@
       <c r="C117" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="42" t="s">
+      <c r="D117" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="E117" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F117" s="42">
-        <v>10</v>
-      </c>
-      <c r="G117" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
-      <c r="S117" s="38"/>
-      <c r="T117" s="38"/>
-      <c r="U117" s="38"/>
-      <c r="V117" s="38"/>
-      <c r="W117" s="38"/>
-      <c r="X117" s="38"/>
-      <c r="Y117" s="38"/>
-      <c r="Z117" s="38"/>
-      <c r="AA117" s="38"/>
+      <c r="E117" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J117" s="47"/>
     </row>
     <row r="118" spans="1:27" s="38" customFormat="1" ht="60">
       <c r="A118" s="9">
@@ -5353,7 +5218,7 @@
         <v>185</v>
       </c>
       <c r="F118" s="42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G118" s="37" t="s">
         <v>8</v>
@@ -5386,7 +5251,7 @@
         <v>185</v>
       </c>
       <c r="F119" s="42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G119" s="37" t="s">
         <v>8</v>
@@ -5434,7 +5299,7 @@
         <v>185</v>
       </c>
       <c r="F120" s="42">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G120" s="37" t="s">
         <v>8</v>
@@ -5482,7 +5347,7 @@
         <v>185</v>
       </c>
       <c r="F121" s="42">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G121" s="37" t="s">
         <v>8</v>
@@ -5530,7 +5395,7 @@
         <v>185</v>
       </c>
       <c r="F122" s="42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G122" s="37" t="s">
         <v>8</v>
@@ -5578,7 +5443,7 @@
         <v>185</v>
       </c>
       <c r="F123" s="42">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G123" s="37" t="s">
         <v>8</v>
@@ -5626,7 +5491,7 @@
         <v>185</v>
       </c>
       <c r="F124" s="42">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G124" s="37" t="s">
         <v>8</v>
@@ -5674,7 +5539,7 @@
         <v>185</v>
       </c>
       <c r="F125" s="42">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G125" s="37" t="s">
         <v>8</v>
@@ -5722,7 +5587,7 @@
         <v>185</v>
       </c>
       <c r="F126" s="42">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G126" s="37" t="s">
         <v>8</v>
@@ -5770,7 +5635,7 @@
         <v>185</v>
       </c>
       <c r="F127" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G127" s="37" t="s">
         <v>8</v>
@@ -5800,7 +5665,7 @@
       <c r="Z127" s="38"/>
       <c r="AA127" s="38"/>
     </row>
-    <row r="128" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="128" spans="1:27" s="38" customFormat="1" ht="60">
       <c r="A128" s="9">
         <f t="shared" si="4"/>
         <v>127</v>
@@ -5814,11 +5679,11 @@
       <c r="D128" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E128" s="32" t="s">
-        <v>5</v>
+      <c r="E128" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F128" s="42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G128" s="37" t="s">
         <v>8</v>
@@ -5829,24 +5694,9 @@
       <c r="I128" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
-      <c r="L128" s="38"/>
-      <c r="M128" s="38"/>
-      <c r="N128" s="38"/>
-      <c r="O128" s="38"/>
-      <c r="P128" s="38"/>
-      <c r="Q128" s="38"/>
-      <c r="R128" s="38"/>
-      <c r="S128" s="38"/>
-      <c r="T128" s="38"/>
-      <c r="U128" s="38"/>
-      <c r="V128" s="38"/>
-      <c r="W128" s="38"/>
-      <c r="X128" s="38"/>
-      <c r="Y128" s="38"/>
-      <c r="Z128" s="38"/>
-      <c r="AA128" s="38"/>
+      <c r="J128" s="42" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="129" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A129" s="9">
@@ -5862,11 +5712,11 @@
       <c r="D129" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E129" s="32" t="s">
-        <v>5</v>
+      <c r="E129" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F129" s="42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G129" s="37" t="s">
         <v>8</v>
@@ -5910,11 +5760,11 @@
       <c r="D130" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E130" s="32" t="s">
-        <v>5</v>
+      <c r="E130" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F130" s="42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G130" s="37" t="s">
         <v>8</v>
@@ -5958,11 +5808,11 @@
       <c r="D131" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E131" s="32" t="s">
-        <v>5</v>
+      <c r="E131" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F131" s="42">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G131" s="37" t="s">
         <v>8</v>
@@ -6006,11 +5856,11 @@
       <c r="D132" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E132" s="32" t="s">
-        <v>5</v>
+      <c r="E132" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F132" s="42">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G132" s="37" t="s">
         <v>8</v>
@@ -6054,11 +5904,11 @@
       <c r="D133" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E133" s="32" t="s">
-        <v>5</v>
+      <c r="E133" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F133" s="42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G133" s="37" t="s">
         <v>8</v>
@@ -6102,11 +5952,11 @@
       <c r="D134" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E134" s="32" t="s">
-        <v>5</v>
+      <c r="E134" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F134" s="42">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G134" s="37" t="s">
         <v>8</v>
@@ -6150,11 +6000,11 @@
       <c r="D135" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="32" t="s">
-        <v>5</v>
+      <c r="E135" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F135" s="42">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G135" s="37" t="s">
         <v>8</v>
@@ -6198,11 +6048,11 @@
       <c r="D136" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E136" s="32" t="s">
-        <v>5</v>
+      <c r="E136" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F136" s="42">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G136" s="37" t="s">
         <v>8</v>
@@ -6246,11 +6096,11 @@
       <c r="D137" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E137" s="32" t="s">
-        <v>5</v>
+      <c r="E137" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="F137" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G137" s="37" t="s">
         <v>8</v>
@@ -6298,7 +6148,7 @@
         <v>5</v>
       </c>
       <c r="F138" s="42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G138" s="37" t="s">
         <v>8</v>
@@ -6330,7 +6180,7 @@
     </row>
     <row r="139" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A139" s="9">
-        <f t="shared" ref="A139:A191" si="5">ROW(A139)-1</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -6346,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G139" s="37" t="s">
         <v>8</v>
@@ -6378,7 +6228,7 @@
     </row>
     <row r="140" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A140" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -6394,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="F140" s="42">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G140" s="37" t="s">
         <v>8</v>
@@ -6426,7 +6276,7 @@
     </row>
     <row r="141" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A141" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -6442,7 +6292,7 @@
         <v>5</v>
       </c>
       <c r="F141" s="42">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G141" s="37" t="s">
         <v>8</v>
@@ -6474,7 +6324,7 @@
     </row>
     <row r="142" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A142" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -6490,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="F142" s="42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G142" s="37" t="s">
         <v>8</v>
@@ -6522,7 +6372,7 @@
     </row>
     <row r="143" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A143" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -6538,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="F143" s="42">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G143" s="37" t="s">
         <v>8</v>
@@ -6570,7 +6420,7 @@
     </row>
     <row r="144" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A144" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -6586,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="F144" s="42">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G144" s="37" t="s">
         <v>8</v>
@@ -6618,7 +6468,7 @@
     </row>
     <row r="145" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A145" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -6634,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="F145" s="42">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G145" s="37" t="s">
         <v>8</v>
@@ -6666,7 +6516,7 @@
     </row>
     <row r="146" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A146" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -6682,7 +6532,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="42">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G146" s="37" t="s">
         <v>8</v>
@@ -6714,7 +6564,7 @@
     </row>
     <row r="147" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A147" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -6730,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="F147" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G147" s="37" t="s">
         <v>8</v>
@@ -6760,9 +6610,9 @@
       <c r="Z147" s="38"/>
       <c r="AA147" s="38"/>
     </row>
-    <row r="148" spans="1:27" s="16" customFormat="1" ht="30">
+    <row r="148" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A148" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -6771,28 +6621,46 @@
       <c r="C148" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F148" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="30">
+      <c r="D148" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" s="42">
+        <v>11</v>
+      </c>
+      <c r="G148" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J148" s="38"/>
+      <c r="K148" s="38"/>
+      <c r="L148" s="38"/>
+      <c r="M148" s="38"/>
+      <c r="N148" s="38"/>
+      <c r="O148" s="38"/>
+      <c r="P148" s="38"/>
+      <c r="Q148" s="38"/>
+      <c r="R148" s="38"/>
+      <c r="S148" s="38"/>
+      <c r="T148" s="38"/>
+      <c r="U148" s="38"/>
+      <c r="V148" s="38"/>
+      <c r="W148" s="38"/>
+      <c r="X148" s="38"/>
+      <c r="Y148" s="38"/>
+      <c r="Z148" s="38"/>
+      <c r="AA148" s="38"/>
+    </row>
+    <row r="149" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A149" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A149:A201" si="5">ROW(A149)-1</f>
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -6801,26 +6669,44 @@
       <c r="C149" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E149" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F149" s="37" t="s">
-        <v>26</v>
+      <c r="D149" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="42">
+        <v>12</v>
       </c>
       <c r="G149" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="37" t="s">
+      <c r="H149" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J149" s="38"/>
+      <c r="K149" s="38"/>
+      <c r="L149" s="38"/>
+      <c r="M149" s="38"/>
+      <c r="N149" s="38"/>
+      <c r="O149" s="38"/>
+      <c r="P149" s="38"/>
+      <c r="Q149" s="38"/>
+      <c r="R149" s="38"/>
+      <c r="S149" s="38"/>
+      <c r="T149" s="38"/>
+      <c r="U149" s="38"/>
+      <c r="V149" s="38"/>
+      <c r="W149" s="38"/>
+      <c r="X149" s="38"/>
+      <c r="Y149" s="38"/>
+      <c r="Z149" s="38"/>
+      <c r="AA149" s="38"/>
+    </row>
+    <row r="150" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A150" s="9">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -6831,26 +6717,44 @@
       <c r="C150" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E150" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F150" s="37" t="s">
-        <v>27</v>
+      <c r="D150" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E150" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" s="42">
+        <v>13</v>
       </c>
       <c r="G150" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H150" s="37" t="s">
+      <c r="H150" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J150" s="38"/>
+      <c r="K150" s="38"/>
+      <c r="L150" s="38"/>
+      <c r="M150" s="38"/>
+      <c r="N150" s="38"/>
+      <c r="O150" s="38"/>
+      <c r="P150" s="38"/>
+      <c r="Q150" s="38"/>
+      <c r="R150" s="38"/>
+      <c r="S150" s="38"/>
+      <c r="T150" s="38"/>
+      <c r="U150" s="38"/>
+      <c r="V150" s="38"/>
+      <c r="W150" s="38"/>
+      <c r="X150" s="38"/>
+      <c r="Y150" s="38"/>
+      <c r="Z150" s="38"/>
+      <c r="AA150" s="38"/>
+    </row>
+    <row r="151" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A151" s="9">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -6861,26 +6765,44 @@
       <c r="C151" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E151" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F151" s="37" t="s">
-        <v>28</v>
+      <c r="D151" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" s="42">
+        <v>14</v>
       </c>
       <c r="G151" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H151" s="37" t="s">
+      <c r="H151" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J151" s="38"/>
+      <c r="K151" s="38"/>
+      <c r="L151" s="38"/>
+      <c r="M151" s="38"/>
+      <c r="N151" s="38"/>
+      <c r="O151" s="38"/>
+      <c r="P151" s="38"/>
+      <c r="Q151" s="38"/>
+      <c r="R151" s="38"/>
+      <c r="S151" s="38"/>
+      <c r="T151" s="38"/>
+      <c r="U151" s="38"/>
+      <c r="V151" s="38"/>
+      <c r="W151" s="38"/>
+      <c r="X151" s="38"/>
+      <c r="Y151" s="38"/>
+      <c r="Z151" s="38"/>
+      <c r="AA151" s="38"/>
+    </row>
+    <row r="152" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A152" s="9">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -6891,26 +6813,44 @@
       <c r="C152" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E152" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F152" s="37" t="s">
-        <v>29</v>
+      <c r="D152" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="42">
+        <v>15</v>
       </c>
       <c r="G152" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H152" s="37" t="s">
+      <c r="H152" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J152" s="38"/>
+      <c r="K152" s="38"/>
+      <c r="L152" s="38"/>
+      <c r="M152" s="38"/>
+      <c r="N152" s="38"/>
+      <c r="O152" s="38"/>
+      <c r="P152" s="38"/>
+      <c r="Q152" s="38"/>
+      <c r="R152" s="38"/>
+      <c r="S152" s="38"/>
+      <c r="T152" s="38"/>
+      <c r="U152" s="38"/>
+      <c r="V152" s="38"/>
+      <c r="W152" s="38"/>
+      <c r="X152" s="38"/>
+      <c r="Y152" s="38"/>
+      <c r="Z152" s="38"/>
+      <c r="AA152" s="38"/>
+    </row>
+    <row r="153" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A153" s="9">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -6921,26 +6861,44 @@
       <c r="C153" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E153" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F153" s="37" t="s">
-        <v>195</v>
+      <c r="D153" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="42">
+        <v>16</v>
       </c>
       <c r="G153" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H153" s="37" t="s">
+      <c r="H153" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J153" s="38"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="38"/>
+      <c r="V153" s="38"/>
+      <c r="W153" s="38"/>
+      <c r="X153" s="38"/>
+      <c r="Y153" s="38"/>
+      <c r="Z153" s="38"/>
+      <c r="AA153" s="38"/>
+    </row>
+    <row r="154" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A154" s="9">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -6951,26 +6909,44 @@
       <c r="C154" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E154" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F154" s="37" t="s">
-        <v>23</v>
+      <c r="D154" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="42">
+        <v>17</v>
       </c>
       <c r="G154" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H154" s="37" t="s">
+      <c r="H154" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J154" s="38"/>
+      <c r="K154" s="38"/>
+      <c r="L154" s="38"/>
+      <c r="M154" s="38"/>
+      <c r="N154" s="38"/>
+      <c r="O154" s="38"/>
+      <c r="P154" s="38"/>
+      <c r="Q154" s="38"/>
+      <c r="R154" s="38"/>
+      <c r="S154" s="38"/>
+      <c r="T154" s="38"/>
+      <c r="U154" s="38"/>
+      <c r="V154" s="38"/>
+      <c r="W154" s="38"/>
+      <c r="X154" s="38"/>
+      <c r="Y154" s="38"/>
+      <c r="Z154" s="38"/>
+      <c r="AA154" s="38"/>
+    </row>
+    <row r="155" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A155" s="9">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -6981,26 +6957,44 @@
       <c r="C155" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F155" s="37" t="s">
-        <v>26</v>
+      <c r="D155" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E155" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" s="42">
+        <v>18</v>
       </c>
       <c r="G155" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="37" t="s">
+      <c r="H155" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J155" s="38"/>
+      <c r="K155" s="38"/>
+      <c r="L155" s="38"/>
+      <c r="M155" s="38"/>
+      <c r="N155" s="38"/>
+      <c r="O155" s="38"/>
+      <c r="P155" s="38"/>
+      <c r="Q155" s="38"/>
+      <c r="R155" s="38"/>
+      <c r="S155" s="38"/>
+      <c r="T155" s="38"/>
+      <c r="U155" s="38"/>
+      <c r="V155" s="38"/>
+      <c r="W155" s="38"/>
+      <c r="X155" s="38"/>
+      <c r="Y155" s="38"/>
+      <c r="Z155" s="38"/>
+      <c r="AA155" s="38"/>
+    </row>
+    <row r="156" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A156" s="9">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -7011,26 +7005,44 @@
       <c r="C156" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E156" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F156" s="37" t="s">
-        <v>27</v>
+      <c r="D156" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E156" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="42">
+        <v>19</v>
       </c>
       <c r="G156" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H156" s="37" t="s">
+      <c r="H156" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J156" s="38"/>
+      <c r="K156" s="38"/>
+      <c r="L156" s="38"/>
+      <c r="M156" s="38"/>
+      <c r="N156" s="38"/>
+      <c r="O156" s="38"/>
+      <c r="P156" s="38"/>
+      <c r="Q156" s="38"/>
+      <c r="R156" s="38"/>
+      <c r="S156" s="38"/>
+      <c r="T156" s="38"/>
+      <c r="U156" s="38"/>
+      <c r="V156" s="38"/>
+      <c r="W156" s="38"/>
+      <c r="X156" s="38"/>
+      <c r="Y156" s="38"/>
+      <c r="Z156" s="38"/>
+      <c r="AA156" s="38"/>
+    </row>
+    <row r="157" spans="1:27" s="16" customFormat="1" ht="17.25">
       <c r="A157" s="9">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -7041,26 +7053,44 @@
       <c r="C157" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E157" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F157" s="37" t="s">
-        <v>28</v>
+      <c r="D157" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" s="42">
+        <v>20</v>
       </c>
       <c r="G157" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H157" s="37" t="s">
+      <c r="H157" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" ht="30">
+        <v>186</v>
+      </c>
+      <c r="J157" s="38"/>
+      <c r="K157" s="38"/>
+      <c r="L157" s="38"/>
+      <c r="M157" s="38"/>
+      <c r="N157" s="38"/>
+      <c r="O157" s="38"/>
+      <c r="P157" s="38"/>
+      <c r="Q157" s="38"/>
+      <c r="R157" s="38"/>
+      <c r="S157" s="38"/>
+      <c r="T157" s="38"/>
+      <c r="U157" s="38"/>
+      <c r="V157" s="38"/>
+      <c r="W157" s="38"/>
+      <c r="X157" s="38"/>
+      <c r="Y157" s="38"/>
+      <c r="Z157" s="38"/>
+      <c r="AA157" s="38"/>
+    </row>
+    <row r="158" spans="1:27" s="16" customFormat="1" ht="30">
       <c r="A158" s="9">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -7071,26 +7101,26 @@
       <c r="C158" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E158" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F158" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G158" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="31.5" thickTop="1" thickBot="1">
+      <c r="E158" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F158" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="30">
       <c r="A159" s="9">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -7104,11 +7134,11 @@
       <c r="D159" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E159" s="50" t="s">
-        <v>197</v>
+      <c r="E159" s="49" t="s">
+        <v>189</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="G159" s="37" t="s">
         <v>8</v>
@@ -7117,10 +7147,10 @@
         <v>13</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="18.75" thickTop="1" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="30">
       <c r="A160" s="9">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -7131,26 +7161,26 @@
       <c r="C160" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E160" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="F160" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="64" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
+      <c r="D160" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="30">
       <c r="A161" s="9">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -7161,27 +7191,26 @@
       <c r="C161" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="E161" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F161" s="57">
-        <v>1</v>
-      </c>
-      <c r="G161" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="I161" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="J161" s="61"/>
-    </row>
-    <row r="162" spans="1:10" ht="17.25">
+      <c r="D161" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E161" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="30">
       <c r="A162" s="9">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -7193,25 +7222,25 @@
         <v>8</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E162" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F162" s="37">
-        <v>2</v>
+        <v>188</v>
+      </c>
+      <c r="E162" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F162" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="G162" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H162" s="57" t="s">
-        <v>89</v>
+      <c r="H162" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="17.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="30">
       <c r="A163" s="9">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -7223,25 +7252,25 @@
         <v>8</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E163" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F163" s="37">
-        <v>3</v>
+        <v>188</v>
+      </c>
+      <c r="E163" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F163" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="G163" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H163" s="57" t="s">
-        <v>89</v>
+      <c r="H163" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="17.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="30">
       <c r="A164" s="9">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -7253,25 +7282,25 @@
         <v>8</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E164" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F164" s="37">
-        <v>4</v>
+        <v>188</v>
+      </c>
+      <c r="E164" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="G164" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H164" s="57" t="s">
-        <v>89</v>
+      <c r="H164" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="17.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="30">
       <c r="A165" s="9">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -7283,25 +7312,25 @@
         <v>8</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E165" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F165" s="37">
-        <v>5</v>
+        <v>188</v>
+      </c>
+      <c r="E165" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F165" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="G165" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="57" t="s">
-        <v>89</v>
+      <c r="H165" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="17.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="30">
       <c r="A166" s="9">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -7313,25 +7342,25 @@
         <v>8</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E166" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F166" s="37">
-        <v>6</v>
+        <v>188</v>
+      </c>
+      <c r="E166" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F166" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="G166" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="57" t="s">
-        <v>89</v>
+      <c r="H166" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="17.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="30">
       <c r="A167" s="9">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -7343,25 +7372,25 @@
         <v>8</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E167" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F167" s="37">
-        <v>7</v>
+        <v>188</v>
+      </c>
+      <c r="E167" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="G167" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H167" s="57" t="s">
-        <v>89</v>
+      <c r="H167" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="17.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="30">
       <c r="A168" s="9">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -7373,25 +7402,25 @@
         <v>8</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E168" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F168" s="37">
-        <v>8</v>
+        <v>188</v>
+      </c>
+      <c r="E168" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="G168" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="57" t="s">
-        <v>89</v>
+      <c r="H168" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="17.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A169" s="9">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -7403,25 +7432,25 @@
         <v>8</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E169" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F169" s="37">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="E169" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="G169" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H169" s="57" t="s">
-        <v>89</v>
+      <c r="H169" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="17.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
       <c r="A170" s="9">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -7432,26 +7461,26 @@
       <c r="C170" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F170" s="37">
-        <v>10</v>
-      </c>
-      <c r="G170" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="17.25">
+      <c r="E170" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F170" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
       <c r="A171" s="9">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -7462,24 +7491,25 @@
       <c r="C171" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="E171" s="59" t="s">
-        <v>240</v>
+      <c r="E171" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F171" s="57">
         <v>1</v>
       </c>
-      <c r="G171" s="37" t="s">
+      <c r="G171" s="57" t="s">
         <v>8</v>
       </c>
       <c r="H171" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="I171" s="61" t="s">
         <v>241</v>
       </c>
+      <c r="J171" s="61"/>
     </row>
     <row r="172" spans="1:10" ht="17.25">
       <c r="A172" s="9">
@@ -7495,8 +7525,8 @@
       <c r="D172" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E172" s="59" t="s">
-        <v>240</v>
+      <c r="E172" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F172" s="37">
         <v>2</v>
@@ -7525,8 +7555,8 @@
       <c r="D173" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E173" s="59" t="s">
-        <v>240</v>
+      <c r="E173" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F173" s="37">
         <v>3</v>
@@ -7555,8 +7585,8 @@
       <c r="D174" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E174" s="59" t="s">
-        <v>240</v>
+      <c r="E174" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F174" s="37">
         <v>4</v>
@@ -7585,8 +7615,8 @@
       <c r="D175" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E175" s="59" t="s">
-        <v>240</v>
+      <c r="E175" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F175" s="37">
         <v>5</v>
@@ -7615,8 +7645,8 @@
       <c r="D176" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E176" s="59" t="s">
-        <v>240</v>
+      <c r="E176" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F176" s="37">
         <v>6</v>
@@ -7645,8 +7675,8 @@
       <c r="D177" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E177" s="59" t="s">
-        <v>240</v>
+      <c r="E177" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F177" s="37">
         <v>7</v>
@@ -7675,8 +7705,8 @@
       <c r="D178" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E178" s="59" t="s">
-        <v>240</v>
+      <c r="E178" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F178" s="37">
         <v>8</v>
@@ -7705,8 +7735,8 @@
       <c r="D179" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E179" s="59" t="s">
-        <v>240</v>
+      <c r="E179" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F179" s="37">
         <v>9</v>
@@ -7735,8 +7765,8 @@
       <c r="D180" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E180" s="59" t="s">
-        <v>240</v>
+      <c r="E180" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="F180" s="37">
         <v>10</v>
@@ -7762,23 +7792,23 @@
       <c r="C181" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E181" s="50">
+      <c r="D181" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E181" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F181" s="57">
         <v>1</v>
       </c>
-      <c r="F181" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H181" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="52" t="s">
-        <v>205</v>
+      <c r="G181" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="17.25">
@@ -7792,23 +7822,23 @@
       <c r="C182" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E182" s="53">
+      <c r="D182" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E182" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F182" s="37">
         <v>2</v>
       </c>
-      <c r="F182" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G182" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H182" s="37" t="s">
-        <v>13</v>
+      <c r="H182" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="17.25">
@@ -7822,23 +7852,23 @@
       <c r="C183" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E183" s="53">
+      <c r="D183" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E183" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F183" s="37">
         <v>3</v>
       </c>
-      <c r="F183" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G183" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H183" s="37" t="s">
-        <v>13</v>
+      <c r="H183" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="17.25">
@@ -7852,23 +7882,23 @@
       <c r="C184" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D184" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E184" s="53">
+      <c r="D184" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E184" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F184" s="37">
         <v>4</v>
       </c>
-      <c r="F184" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G184" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H184" s="37" t="s">
-        <v>13</v>
+      <c r="H184" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="17.25">
@@ -7882,23 +7912,23 @@
       <c r="C185" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E185" s="53">
+      <c r="D185" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E185" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F185" s="37">
         <v>5</v>
       </c>
-      <c r="F185" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G185" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H185" s="37" t="s">
-        <v>13</v>
+      <c r="H185" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="17.25">
@@ -7912,23 +7942,23 @@
       <c r="C186" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D186" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E186" s="53">
+      <c r="D186" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E186" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F186" s="37">
         <v>6</v>
       </c>
-      <c r="F186" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G186" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H186" s="37" t="s">
-        <v>13</v>
+      <c r="H186" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="17.25">
@@ -7942,23 +7972,23 @@
       <c r="C187" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E187" s="53">
+      <c r="D187" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E187" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F187" s="37">
         <v>7</v>
       </c>
-      <c r="F187" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G187" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="37" t="s">
-        <v>13</v>
+      <c r="H187" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="17.25">
@@ -7972,23 +8002,23 @@
       <c r="C188" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E188" s="53">
-        <v>8</v>
-      </c>
-      <c r="F188" s="53" t="s">
+      <c r="D188" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E188" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F188" s="37">
         <v>8</v>
       </c>
       <c r="G188" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H188" s="37" t="s">
-        <v>13</v>
+      <c r="H188" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="17.25">
@@ -8002,23 +8032,23 @@
       <c r="C189" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D189" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E189" s="53">
+      <c r="D189" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E189" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F189" s="37">
         <v>9</v>
       </c>
-      <c r="F189" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G189" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H189" s="37" t="s">
-        <v>13</v>
+      <c r="H189" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="17.25">
@@ -8032,23 +8062,23 @@
       <c r="C190" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E190" s="53">
+      <c r="D190" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E190" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F190" s="37">
         <v>10</v>
       </c>
-      <c r="F190" s="53" t="s">
-        <v>8</v>
-      </c>
       <c r="G190" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H190" s="37" t="s">
-        <v>13</v>
+      <c r="H190" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="17.25">
@@ -8066,7 +8096,7 @@
         <v>204</v>
       </c>
       <c r="E191" s="50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F191" s="50" t="s">
         <v>8</v>
@@ -8078,12 +8108,12 @@
         <v>13</v>
       </c>
       <c r="I191" s="52" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="17.25">
       <c r="A192" s="9">
-        <f t="shared" ref="A192:A223" si="6">ROW(A192)-1</f>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
@@ -8096,7 +8126,7 @@
         <v>204</v>
       </c>
       <c r="E192" s="53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F192" s="53" t="s">
         <v>8</v>
@@ -8108,12 +8138,12 @@
         <v>13</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17.25">
       <c r="A193" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -8126,7 +8156,7 @@
         <v>204</v>
       </c>
       <c r="E193" s="53">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F193" s="53" t="s">
         <v>8</v>
@@ -8138,12 +8168,12 @@
         <v>13</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17.25">
       <c r="A194" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
@@ -8156,7 +8186,7 @@
         <v>204</v>
       </c>
       <c r="E194" s="53">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F194" s="53" t="s">
         <v>8</v>
@@ -8168,12 +8198,12 @@
         <v>13</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17.25">
       <c r="A195" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
@@ -8186,7 +8216,7 @@
         <v>204</v>
       </c>
       <c r="E195" s="53">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F195" s="53" t="s">
         <v>8</v>
@@ -8197,13 +8227,13 @@
       <c r="H195" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="52" t="s">
-        <v>219</v>
+      <c r="I195" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17.25">
       <c r="A196" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
@@ -8215,8 +8245,8 @@
       <c r="D196" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E196" s="50">
-        <v>16</v>
+      <c r="E196" s="53">
+        <v>6</v>
       </c>
       <c r="F196" s="53" t="s">
         <v>8</v>
@@ -8228,12 +8258,12 @@
         <v>13</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="17.25">
       <c r="A197" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
@@ -8246,7 +8276,7 @@
         <v>204</v>
       </c>
       <c r="E197" s="53">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F197" s="53" t="s">
         <v>8</v>
@@ -8258,12 +8288,12 @@
         <v>13</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="17.25">
       <c r="A198" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
@@ -8276,7 +8306,7 @@
         <v>204</v>
       </c>
       <c r="E198" s="53">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F198" s="53" t="s">
         <v>8</v>
@@ -8288,12 +8318,12 @@
         <v>13</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="17.25">
       <c r="A199" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
@@ -8306,7 +8336,7 @@
         <v>204</v>
       </c>
       <c r="E199" s="53">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F199" s="53" t="s">
         <v>8</v>
@@ -8317,13 +8347,13 @@
       <c r="H199" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I199" s="52" t="s">
-        <v>223</v>
+      <c r="I199" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="17.25">
       <c r="A200" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
@@ -8336,7 +8366,7 @@
         <v>204</v>
       </c>
       <c r="E200" s="53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F200" s="53" t="s">
         <v>8</v>
@@ -8348,12 +8378,12 @@
         <v>13</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="52" customFormat="1" ht="17.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="17.25">
       <c r="A201" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
@@ -8363,27 +8393,27 @@
         <v>8</v>
       </c>
       <c r="D201" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E201" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="F201" s="51">
-        <v>1</v>
-      </c>
-      <c r="G201" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E201" s="50">
+        <v>11</v>
+      </c>
+      <c r="F201" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H201" s="51" t="s">
         <v>13</v>
       </c>
       <c r="I201" s="52" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="17.25">
       <c r="A202" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A202:A233" si="6">ROW(A202)-1</f>
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
@@ -8392,14 +8422,14 @@
       <c r="C202" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E202" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F202" s="37">
-        <v>2</v>
+      <c r="D202" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E202" s="53">
+        <v>12</v>
+      </c>
+      <c r="F202" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G202" s="37" t="s">
         <v>8</v>
@@ -8408,7 +8438,7 @@
         <v>13</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="17.25">
@@ -8422,14 +8452,14 @@
       <c r="C203" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E203" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F203" s="37">
-        <v>3</v>
+      <c r="D203" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E203" s="53">
+        <v>13</v>
+      </c>
+      <c r="F203" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G203" s="37" t="s">
         <v>8</v>
@@ -8438,7 +8468,7 @@
         <v>13</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="17.25">
@@ -8452,14 +8482,14 @@
       <c r="C204" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D204" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E204" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F204" s="37">
-        <v>4</v>
+      <c r="D204" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" s="53">
+        <v>14</v>
+      </c>
+      <c r="F204" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G204" s="37" t="s">
         <v>8</v>
@@ -8468,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="17.25">
@@ -8482,14 +8512,14 @@
       <c r="C205" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E205" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F205" s="37">
-        <v>5</v>
+      <c r="D205" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" s="53">
+        <v>15</v>
+      </c>
+      <c r="F205" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G205" s="37" t="s">
         <v>8</v>
@@ -8497,8 +8527,8 @@
       <c r="H205" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I205" s="1" t="s">
-        <v>227</v>
+      <c r="I205" s="52" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="17.25">
@@ -8512,14 +8542,14 @@
       <c r="C206" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E206" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F206" s="37">
-        <v>6</v>
+      <c r="D206" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E206" s="50">
+        <v>16</v>
+      </c>
+      <c r="F206" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G206" s="37" t="s">
         <v>8</v>
@@ -8528,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17.25">
@@ -8542,14 +8572,14 @@
       <c r="C207" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E207" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F207" s="37">
-        <v>7</v>
+      <c r="D207" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E207" s="53">
+        <v>17</v>
+      </c>
+      <c r="F207" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G207" s="37" t="s">
         <v>8</v>
@@ -8558,7 +8588,7 @@
         <v>13</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17.25">
@@ -8572,13 +8602,13 @@
       <c r="C208" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D208" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E208" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F208" s="37">
+      <c r="D208" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E208" s="53">
+        <v>18</v>
+      </c>
+      <c r="F208" s="53" t="s">
         <v>8</v>
       </c>
       <c r="G208" s="37" t="s">
@@ -8588,7 +8618,7 @@
         <v>13</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="17.25">
@@ -8602,14 +8632,14 @@
       <c r="C209" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D209" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E209" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F209" s="37">
-        <v>9</v>
+      <c r="D209" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E209" s="53">
+        <v>19</v>
+      </c>
+      <c r="F209" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G209" s="37" t="s">
         <v>8</v>
@@ -8617,8 +8647,8 @@
       <c r="H209" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I209" s="1" t="s">
-        <v>227</v>
+      <c r="I209" s="52" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="17.25">
@@ -8632,14 +8662,14 @@
       <c r="C210" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E210" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F210" s="37">
-        <v>10</v>
+      <c r="D210" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E210" s="53">
+        <v>20</v>
+      </c>
+      <c r="F210" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="G210" s="37" t="s">
         <v>8</v>
@@ -8648,10 +8678,10 @@
         <v>13</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="52" customFormat="1" ht="17.25">
       <c r="A211" s="9">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -8666,7 +8696,7 @@
         <v>225</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F211" s="51">
         <v>1</v>
@@ -8695,8 +8725,8 @@
       <c r="D212" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E212" s="55" t="s">
-        <v>228</v>
+      <c r="E212" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F212" s="37">
         <v>2</v>
@@ -8725,8 +8755,8 @@
       <c r="D213" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E213" s="55" t="s">
-        <v>228</v>
+      <c r="E213" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F213" s="37">
         <v>3</v>
@@ -8755,8 +8785,8 @@
       <c r="D214" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E214" s="55" t="s">
-        <v>228</v>
+      <c r="E214" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F214" s="37">
         <v>4</v>
@@ -8785,8 +8815,8 @@
       <c r="D215" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E215" s="55" t="s">
-        <v>228</v>
+      <c r="E215" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F215" s="37">
         <v>5</v>
@@ -8815,8 +8845,8 @@
       <c r="D216" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E216" s="55" t="s">
-        <v>228</v>
+      <c r="E216" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F216" s="37">
         <v>6</v>
@@ -8845,8 +8875,8 @@
       <c r="D217" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E217" s="55" t="s">
-        <v>228</v>
+      <c r="E217" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F217" s="37">
         <v>7</v>
@@ -8875,8 +8905,8 @@
       <c r="D218" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E218" s="55" t="s">
-        <v>228</v>
+      <c r="E218" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F218" s="37">
         <v>8</v>
@@ -8905,8 +8935,8 @@
       <c r="D219" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E219" s="55" t="s">
-        <v>228</v>
+      <c r="E219" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F219" s="37">
         <v>9</v>
@@ -8935,8 +8965,8 @@
       <c r="D220" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E220" s="55" t="s">
-        <v>228</v>
+      <c r="E220" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="F220" s="37">
         <v>10</v>
@@ -8951,7 +8981,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="52" customFormat="1" ht="17.25">
+    <row r="221" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
       <c r="A221" s="9">
         <f t="shared" si="6"/>
         <v>220</v>
@@ -8963,14 +8993,14 @@
         <v>8</v>
       </c>
       <c r="D221" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="E221" s="50">
+        <v>225</v>
+      </c>
+      <c r="E221" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F221" s="51">
         <v>1</v>
       </c>
-      <c r="F221" s="50" t="s">
-        <v>230</v>
-      </c>
       <c r="G221" s="50" t="s">
         <v>8</v>
       </c>
@@ -8978,7 +9008,7 @@
         <v>13</v>
       </c>
       <c r="I221" s="52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="17.25">
@@ -8992,23 +9022,23 @@
       <c r="C222" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D222" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E222" s="53">
-        <v>1</v>
-      </c>
-      <c r="F222" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G222" s="53" t="s">
+      <c r="D222" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E222" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F222" s="37">
+        <v>2</v>
+      </c>
+      <c r="G222" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H222" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="17.25">
@@ -9022,28 +9052,28 @@
       <c r="C223" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D223" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E223" s="53">
-        <v>1</v>
-      </c>
-      <c r="F223" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G223" s="53" t="s">
+      <c r="D223" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E223" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F223" s="37">
+        <v>3</v>
+      </c>
+      <c r="G223" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H223" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="17.25">
       <c r="A224" s="9">
-        <f t="shared" ref="A224:A233" si="7">ROW(A224)-1</f>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -9052,28 +9082,28 @@
       <c r="C224" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E224" s="53">
-        <v>1</v>
-      </c>
-      <c r="F224" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="G224" s="53" t="s">
+      <c r="D224" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E224" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F224" s="37">
+        <v>4</v>
+      </c>
+      <c r="G224" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H224" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="17.25">
       <c r="A225" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -9082,28 +9112,28 @@
       <c r="C225" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D225" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E225" s="53">
-        <v>2</v>
-      </c>
-      <c r="F225" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="G225" s="53" t="s">
+      <c r="D225" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E225" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F225" s="37">
+        <v>5</v>
+      </c>
+      <c r="G225" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H225" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="17.25">
       <c r="A226" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -9112,28 +9142,28 @@
       <c r="C226" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D226" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E226" s="53">
-        <v>2</v>
-      </c>
-      <c r="F226" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G226" s="53" t="s">
+      <c r="D226" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E226" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F226" s="37">
+        <v>6</v>
+      </c>
+      <c r="G226" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H226" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="17.25">
       <c r="A227" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -9142,28 +9172,28 @@
       <c r="C227" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E227" s="53">
-        <v>2</v>
-      </c>
-      <c r="F227" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G227" s="53" t="s">
+      <c r="D227" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F227" s="37">
+        <v>7</v>
+      </c>
+      <c r="G227" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H227" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="17.25">
       <c r="A228" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -9172,28 +9202,28 @@
       <c r="C228" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D228" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E228" s="53">
-        <v>2</v>
-      </c>
-      <c r="F228" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="G228" s="53" t="s">
+      <c r="D228" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E228" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F228" s="37">
+        <v>8</v>
+      </c>
+      <c r="G228" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H228" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="17.25">
       <c r="A229" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -9202,28 +9232,28 @@
       <c r="C229" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E229" s="53">
-        <v>3</v>
-      </c>
-      <c r="F229" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="G229" s="53" t="s">
+      <c r="D229" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E229" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F229" s="37">
+        <v>9</v>
+      </c>
+      <c r="G229" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H229" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="17.25">
       <c r="A230" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -9232,58 +9262,58 @@
       <c r="C230" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="42" t="s">
+      <c r="D230" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E230" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F230" s="37">
+        <v>10</v>
+      </c>
+      <c r="G230" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A231" s="9">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E230" s="53">
-        <v>3</v>
-      </c>
-      <c r="F230" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G230" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H230" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="17.25">
-      <c r="A231" s="9">
-        <f t="shared" si="7"/>
+      <c r="E231" s="50">
+        <v>1</v>
+      </c>
+      <c r="F231" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E231" s="53">
-        <v>3</v>
-      </c>
-      <c r="F231" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G231" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H231" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I231" s="1" t="s">
+      <c r="G231" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" s="52" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="17.25">
       <c r="A232" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -9296,10 +9326,10 @@
         <v>229</v>
       </c>
       <c r="E232" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F232" s="53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G232" s="53" t="s">
         <v>8</v>
@@ -9311,33 +9341,333 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="52" customFormat="1" ht="17.25">
+    <row r="233" spans="1:9" ht="17.25">
       <c r="A233" s="9">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E233" s="53">
+        <v>1</v>
+      </c>
+      <c r="F233" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G233" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="17.25">
+      <c r="A234" s="9">
+        <f t="shared" ref="A234:A243" si="7">ROW(A234)-1</f>
+        <v>233</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E234" s="53">
+        <v>1</v>
+      </c>
+      <c r="F234" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G234" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="17.25">
+      <c r="A235" s="9">
         <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E235" s="53">
+        <v>2</v>
+      </c>
+      <c r="F235" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="G235" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="17.25">
+      <c r="A236" s="9">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E236" s="53">
+        <v>2</v>
+      </c>
+      <c r="F236" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="45" t="s">
+      <c r="G236" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="17.25">
+      <c r="A237" s="9">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E237" s="53">
+        <v>2</v>
+      </c>
+      <c r="F237" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G237" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="17.25">
+      <c r="A238" s="9">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E238" s="53">
+        <v>2</v>
+      </c>
+      <c r="F238" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G238" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="17.25">
+      <c r="A239" s="9">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E239" s="53">
+        <v>3</v>
+      </c>
+      <c r="F239" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="G239" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="17.25">
+      <c r="A240" s="9">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E240" s="53">
+        <v>3</v>
+      </c>
+      <c r="F240" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G240" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="17.25">
+      <c r="A241" s="9">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E241" s="53">
+        <v>3</v>
+      </c>
+      <c r="F241" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G241" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="17.25">
+      <c r="A242" s="9">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E242" s="53">
+        <v>3</v>
+      </c>
+      <c r="F242" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G242" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="52" customFormat="1" ht="17.25">
+      <c r="A243" s="9">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E233" s="50" t="s">
+      <c r="E243" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="F233" s="50" t="s">
+      <c r="F243" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="G233" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H233" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I233" s="52" t="s">
+      <c r="G243" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H243" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" s="52" t="s">
         <v>237</v>
       </c>
     </row>

--- a/R2Q_Datensatz_leer.xlsx
+++ b/R2Q_Datensatz_leer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flemming\Google Drive\R\R2Q_App\R2Q_App_VCurrent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\R\R2Q_App\R2Q_App_VCurrent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB12EDF-D125-4847-A88E-EA9F2E4C31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9BC32-846D-4999-A317-E768ED7530E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Musterdatensatz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Normen/Regelwerke1</t>
   </si>
   <si>
-    <t>planbemtab</t>
-  </si>
-  <si>
     <t>Normen/Regelwerke2</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>whinw</t>
-  </si>
-  <si>
     <t>fließtext + freie Anzahl an Zeilen mit Paramterspalte und Wertespalte</t>
   </si>
   <si>
@@ -717,9 +711,6 @@
     <t>Vorteile</t>
   </si>
   <si>
-    <t>vornach</t>
-  </si>
-  <si>
     <t>Nachteile</t>
   </si>
   <si>
@@ -729,9 +720,6 @@
     <t>Projektname</t>
   </si>
   <si>
-    <t>fallbsp</t>
-  </si>
-  <si>
     <t>Stadt</t>
   </si>
   <si>
@@ -759,9 +747,6 @@
     <t>Bewertung</t>
   </si>
   <si>
-    <t>bewertung</t>
-  </si>
-  <si>
     <t>bewertungText</t>
   </si>
   <si>
@@ -793,6 +778,219 @@
   </si>
   <si>
     <t>Titel/Inhalt10</t>
+  </si>
+  <si>
+    <t>whinwP1</t>
+  </si>
+  <si>
+    <t>whinwP2</t>
+  </si>
+  <si>
+    <t>whinwP3</t>
+  </si>
+  <si>
+    <t>whinwP4</t>
+  </si>
+  <si>
+    <t>whinwP5</t>
+  </si>
+  <si>
+    <t>whinwP6</t>
+  </si>
+  <si>
+    <t>whinwP7</t>
+  </si>
+  <si>
+    <t>whinwP8</t>
+  </si>
+  <si>
+    <t>whinwP9</t>
+  </si>
+  <si>
+    <t>whinwP10</t>
+  </si>
+  <si>
+    <t>whinwP11</t>
+  </si>
+  <si>
+    <t>whinwP12</t>
+  </si>
+  <si>
+    <t>whinwP13</t>
+  </si>
+  <si>
+    <t>whinwP14</t>
+  </si>
+  <si>
+    <t>whinwP15</t>
+  </si>
+  <si>
+    <t>whinwP16</t>
+  </si>
+  <si>
+    <t>whinwP17</t>
+  </si>
+  <si>
+    <t>whinwP18</t>
+  </si>
+  <si>
+    <t>whinwP19</t>
+  </si>
+  <si>
+    <t>whinwP20</t>
+  </si>
+  <si>
+    <t>whinwW1</t>
+  </si>
+  <si>
+    <t>whinwW2</t>
+  </si>
+  <si>
+    <t>whinwW3</t>
+  </si>
+  <si>
+    <t>whinwW4</t>
+  </si>
+  <si>
+    <t>whinwW5</t>
+  </si>
+  <si>
+    <t>whinwW6</t>
+  </si>
+  <si>
+    <t>whinwW7</t>
+  </si>
+  <si>
+    <t>whinwW8</t>
+  </si>
+  <si>
+    <t>whinwW9</t>
+  </si>
+  <si>
+    <t>whinwW10</t>
+  </si>
+  <si>
+    <t>whinwW11</t>
+  </si>
+  <si>
+    <t>whinwW12</t>
+  </si>
+  <si>
+    <t>whinwW13</t>
+  </si>
+  <si>
+    <t>whinwW14</t>
+  </si>
+  <si>
+    <t>whinwW15</t>
+  </si>
+  <si>
+    <t>whinwW16</t>
+  </si>
+  <si>
+    <t>whinwW17</t>
+  </si>
+  <si>
+    <t>whinwW18</t>
+  </si>
+  <si>
+    <t>whinwW19</t>
+  </si>
+  <si>
+    <t>whinwW20</t>
+  </si>
+  <si>
+    <t>lit1</t>
+  </si>
+  <si>
+    <t>lit2</t>
+  </si>
+  <si>
+    <t>lit3</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>bew1</t>
+  </si>
+  <si>
+    <t>bew2</t>
+  </si>
+  <si>
+    <t>bew3</t>
+  </si>
+  <si>
+    <t>vor1</t>
+  </si>
+  <si>
+    <t>vor2</t>
+  </si>
+  <si>
+    <t>vor3</t>
+  </si>
+  <si>
+    <t>nach1</t>
+  </si>
+  <si>
+    <t>nach2</t>
+  </si>
+  <si>
+    <t>nach3</t>
+  </si>
+  <si>
+    <t>Proj1</t>
+  </si>
+  <si>
+    <t>Stadt1</t>
+  </si>
+  <si>
+    <t>Land1</t>
+  </si>
+  <si>
+    <t>Erl1</t>
+  </si>
+  <si>
+    <t>Proj2</t>
+  </si>
+  <si>
+    <t>Stadt2</t>
+  </si>
+  <si>
+    <t>Land2</t>
+  </si>
+  <si>
+    <t>Erl2</t>
+  </si>
+  <si>
+    <t>Proj3</t>
+  </si>
+  <si>
+    <t>Stadt3</t>
+  </si>
+  <si>
+    <t>Land3</t>
+  </si>
+  <si>
+    <t>Erl3</t>
+  </si>
+  <si>
+    <t>norm1</t>
+  </si>
+  <si>
+    <t>norm2</t>
+  </si>
+  <si>
+    <t>norm3</t>
+  </si>
+  <si>
+    <t>titel1</t>
+  </si>
+  <si>
+    <t>titel2</t>
+  </si>
+  <si>
+    <t>titel3</t>
   </si>
 </sst>
 </file>
@@ -1676,26 +1874,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
-    <col min="11" max="1024" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="1" customWidth="1"/>
+    <col min="11" max="1024" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="17.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="3">
         <f t="shared" ref="A1:A15" si="0">ROW(A1)-1</f>
         <v>0</v>
@@ -1725,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="17.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="17.399999999999999">
       <c r="A2" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1755,7 +1953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="17.25">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1785,7 +1983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25">
+    <row r="4" spans="1:12" ht="17.399999999999999">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1816,7 +2014,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25">
+    <row r="5" spans="1:12" ht="17.399999999999999">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1847,7 +2045,7 @@
       </c>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="17.399999999999999">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1875,7 +2073,7 @@
       </c>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25">
+    <row r="7" spans="1:12" ht="17.399999999999999">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1905,7 +2103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25">
+    <row r="8" spans="1:12" ht="17.399999999999999">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1935,7 +2133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25">
+    <row r="9" spans="1:12" ht="17.399999999999999">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1965,7 +2163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25">
+    <row r="10" spans="1:12" ht="17.399999999999999">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1995,7 +2193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25">
+    <row r="11" spans="1:12" ht="17.399999999999999">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2025,7 +2223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="17.25">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2055,7 +2253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25">
+    <row r="13" spans="1:12" ht="17.399999999999999">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2085,7 +2283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25">
+    <row r="14" spans="1:12" ht="17.399999999999999">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2115,7 +2313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25">
+    <row r="15" spans="1:12" ht="17.399999999999999">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2145,7 +2343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25">
+    <row r="16" spans="1:12" ht="17.399999999999999">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2174,7 +2372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25">
+    <row r="17" spans="1:9" ht="17.399999999999999">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2203,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25">
+    <row r="18" spans="1:9" ht="17.399999999999999">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2232,7 +2430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25">
+    <row r="19" spans="1:9" ht="17.399999999999999">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2261,7 +2459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25">
+    <row r="20" spans="1:9" ht="17.399999999999999">
       <c r="A20" s="9">
         <f t="shared" ref="A20:A35" si="1">ROW(A20)-1</f>
         <v>19</v>
@@ -2291,7 +2489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25">
+    <row r="21" spans="1:9" ht="17.399999999999999">
       <c r="A21" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2321,7 +2519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25">
+    <row r="22" spans="1:9" ht="17.399999999999999">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2351,7 +2549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25">
+    <row r="23" spans="1:9" ht="17.399999999999999">
       <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2381,7 +2579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25">
+    <row r="24" spans="1:9" ht="17.399999999999999">
       <c r="A24" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2411,7 +2609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25">
+    <row r="25" spans="1:9" ht="17.399999999999999">
       <c r="A25" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2441,7 +2639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25">
+    <row r="26" spans="1:9" ht="17.399999999999999">
       <c r="A26" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2471,7 +2669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25">
+    <row r="27" spans="1:9" ht="17.399999999999999">
       <c r="A27" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2501,7 +2699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25">
+    <row r="28" spans="1:9" ht="17.399999999999999">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2531,7 +2729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25">
+    <row r="29" spans="1:9" ht="17.399999999999999">
       <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2561,7 +2759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25">
+    <row r="30" spans="1:9" ht="17.399999999999999">
       <c r="A30" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2621,7 +2819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25">
+    <row r="32" spans="1:9" ht="17.399999999999999">
       <c r="A32" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2651,7 +2849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25">
+    <row r="33" spans="1:9" ht="17.399999999999999">
       <c r="A33" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2681,7 +2879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25">
+    <row r="34" spans="1:9" ht="17.399999999999999">
       <c r="A34" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2770,7 +2968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="37" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A37" s="9">
         <f t="shared" ref="A37:A78" si="2">ROW(A37)-1</f>
         <v>36</v>
@@ -2800,7 +2998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17.25">
+    <row r="38" spans="1:9" ht="17.399999999999999">
       <c r="A38" s="9">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2830,7 +3028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.25">
+    <row r="39" spans="1:9" ht="17.399999999999999">
       <c r="A39" s="9">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2860,7 +3058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="40" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A40" s="9">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2920,7 +3118,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.25">
+    <row r="42" spans="1:9" ht="17.399999999999999">
       <c r="A42" s="9">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -2950,7 +3148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="43" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A43" s="9">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2980,7 +3178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17.25">
+    <row r="44" spans="1:9" ht="17.399999999999999">
       <c r="A44" s="9">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3010,7 +3208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17.25">
+    <row r="45" spans="1:9" ht="17.399999999999999">
       <c r="A45" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3040,7 +3238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="28.8">
       <c r="A46" s="9">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3070,7 +3268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17.25">
+    <row r="47" spans="1:9" ht="17.399999999999999">
       <c r="A47" s="9">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -3100,7 +3298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="28.8">
       <c r="A48" s="9">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -3130,7 +3328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17.25">
+    <row r="49" spans="1:9" ht="17.399999999999999">
       <c r="A49" s="9">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -3160,7 +3358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="50" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A50" s="9">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -3190,7 +3388,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="51" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A51" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -3220,7 +3418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="52" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A52" s="9">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -3250,7 +3448,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="16" customFormat="1" ht="17.25">
+    <row r="53" spans="1:9" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A53" s="9">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -3280,7 +3478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="54" spans="1:9" s="16" customFormat="1" ht="28.8">
       <c r="A54" s="9">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -3310,7 +3508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="38" customFormat="1" ht="30">
+    <row r="55" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A55" s="9">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -3337,10 +3535,10 @@
         <v>13</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="38" customFormat="1" ht="30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A56" s="9">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -3355,7 +3553,7 @@
         <v>115</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="43" t="s">
         <v>8</v>
@@ -3367,10 +3565,10 @@
         <v>13</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="38" customFormat="1" ht="30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A57" s="9">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -3385,7 +3583,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>8</v>
@@ -3397,10 +3595,10 @@
         <v>13</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A58" s="9">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -3415,7 +3613,7 @@
         <v>115</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="43" t="s">
         <v>8</v>
@@ -3427,10 +3625,10 @@
         <v>13</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A59" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -3445,7 +3643,7 @@
         <v>115</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="43" t="s">
         <v>8</v>
@@ -3456,11 +3654,8 @@
       <c r="H59" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="60" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A60" s="9">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -3475,7 +3670,7 @@
         <v>115</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F60" s="43" t="s">
         <v>8</v>
@@ -3486,11 +3681,8 @@
       <c r="H60" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="61" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A61" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3505,7 +3697,7 @@
         <v>115</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F61" s="43" t="s">
         <v>8</v>
@@ -3516,11 +3708,8 @@
       <c r="H61" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="62" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A62" s="9">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -3535,7 +3724,7 @@
         <v>115</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F62" s="43" t="s">
         <v>8</v>
@@ -3546,11 +3735,8 @@
       <c r="H62" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="63" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A63" s="9">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -3565,7 +3751,7 @@
         <v>115</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>8</v>
@@ -3576,11 +3762,8 @@
       <c r="H63" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="64" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A64" s="9">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -3595,7 +3778,7 @@
         <v>115</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F64" s="43" t="s">
         <v>8</v>
@@ -3606,11 +3789,8 @@
       <c r="H64" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="65" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A65" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -3625,7 +3805,7 @@
         <v>115</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="43" t="s">
         <v>8</v>
@@ -3637,10 +3817,10 @@
         <v>13</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="38" customFormat="1" ht="30">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A66" s="9">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -3655,7 +3835,7 @@
         <v>115</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" s="43" t="s">
         <v>8</v>
@@ -3667,10 +3847,10 @@
         <v>13</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="38" customFormat="1" ht="30">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A67" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -3685,7 +3865,7 @@
         <v>115</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" s="43" t="s">
         <v>8</v>
@@ -3697,10 +3877,10 @@
         <v>13</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="38" customFormat="1" ht="30">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="38" customFormat="1" ht="28.8">
       <c r="A68" s="9">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -3715,7 +3895,7 @@
         <v>115</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" s="43" t="s">
         <v>8</v>
@@ -3727,10 +3907,10 @@
         <v>13</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A69" s="9">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -3745,7 +3925,7 @@
         <v>115</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="43" t="s">
         <v>8</v>
@@ -3756,11 +3936,8 @@
       <c r="H69" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="70" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A70" s="9">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -3775,7 +3952,7 @@
         <v>115</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F70" s="43" t="s">
         <v>8</v>
@@ -3786,11 +3963,8 @@
       <c r="H70" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="71" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A71" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -3805,7 +3979,7 @@
         <v>115</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F71" s="43" t="s">
         <v>8</v>
@@ -3816,11 +3990,8 @@
       <c r="H71" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="72" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A72" s="9">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -3835,7 +4006,7 @@
         <v>115</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F72" s="43" t="s">
         <v>8</v>
@@ -3846,11 +4017,8 @@
       <c r="H72" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="73" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A73" s="9">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -3865,7 +4033,7 @@
         <v>115</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F73" s="43" t="s">
         <v>8</v>
@@ -3876,11 +4044,8 @@
       <c r="H73" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="38" customFormat="1" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="74" spans="1:9" s="38" customFormat="1" ht="30" thickTop="1" thickBot="1">
       <c r="A74" s="9">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -3895,7 +4060,7 @@
         <v>115</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F74" s="43" t="s">
         <v>8</v>
@@ -3906,11 +4071,8 @@
       <c r="H74" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
+    </row>
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A75" s="9">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -3922,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>116</v>
@@ -3937,10 +4099,10 @@
         <v>13</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A76" s="9">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -3952,25 +4114,25 @@
         <v>8</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="G76" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="G76" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="77" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A77" s="9">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -3982,10 +4144,10 @@
         <v>8</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" s="43" t="s">
         <v>96</v>
@@ -3997,10 +4159,10 @@
         <v>13</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A78" s="9">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -4012,10 +4174,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F78" s="43" t="s">
         <v>98</v>
@@ -4027,10 +4189,10 @@
         <v>13</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A79" s="9">
         <f t="shared" ref="A79:A115" si="3">ROW(A79)-1</f>
         <v>78</v>
@@ -4042,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F79" s="43" t="s">
         <v>100</v>
@@ -4057,10 +4219,10 @@
         <v>13</v>
       </c>
       <c r="I79" s="44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A80" s="9">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -4072,25 +4234,25 @@
         <v>8</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F80" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G80" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="81" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A81" s="9">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -4102,10 +4264,10 @@
         <v>8</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" s="43" t="s">
         <v>96</v>
@@ -4117,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="I81" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A82" s="9">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4132,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" s="43" t="s">
         <v>98</v>
@@ -4147,10 +4309,10 @@
         <v>13</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A83" s="9">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4162,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F83" s="43" t="s">
         <v>100</v>
@@ -4177,10 +4339,10 @@
         <v>13</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A84" s="9">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -4192,25 +4354,25 @@
         <v>8</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E84" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="85" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A85" s="9">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -4222,10 +4384,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F85" s="43" t="s">
         <v>96</v>
@@ -4237,10 +4399,10 @@
         <v>13</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A86" s="9">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -4252,10 +4414,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" s="43" t="s">
         <v>98</v>
@@ -4267,10 +4429,10 @@
         <v>13</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A87" s="9">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -4282,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="43" t="s">
         <v>100</v>
@@ -4297,10 +4459,10 @@
         <v>13</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A88" s="9">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -4312,25 +4474,25 @@
         <v>8</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E88" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="F88" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="89" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A89" s="9">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -4342,10 +4504,10 @@
         <v>8</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>96</v>
@@ -4357,10 +4519,10 @@
         <v>13</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A90" s="9">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -4372,10 +4534,10 @@
         <v>8</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F90" s="43" t="s">
         <v>98</v>
@@ -4387,10 +4549,10 @@
         <v>13</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A91" s="9">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -4402,10 +4564,10 @@
         <v>8</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91" s="43" t="s">
         <v>100</v>
@@ -4417,10 +4579,10 @@
         <v>13</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A92" s="9">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -4432,25 +4594,25 @@
         <v>8</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E92" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F92" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G92" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="93" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A93" s="9">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -4462,10 +4624,10 @@
         <v>8</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F93" s="43" t="s">
         <v>96</v>
@@ -4477,10 +4639,10 @@
         <v>13</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A94" s="9">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -4492,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F94" s="43" t="s">
         <v>98</v>
@@ -4507,10 +4669,10 @@
         <v>13</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A95" s="9">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -4522,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>100</v>
@@ -4537,10 +4699,10 @@
         <v>13</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A96" s="9">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -4552,25 +4714,25 @@
         <v>8</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E96" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F96" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="97" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A97" s="9">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -4582,10 +4744,10 @@
         <v>8</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>96</v>
@@ -4597,10 +4759,10 @@
         <v>13</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A98" s="9">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -4612,10 +4774,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>98</v>
@@ -4627,10 +4789,10 @@
         <v>13</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A99" s="9">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -4642,10 +4804,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F99" s="43" t="s">
         <v>100</v>
@@ -4657,10 +4819,10 @@
         <v>13</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A100" s="9">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -4672,25 +4834,25 @@
         <v>8</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E100" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F100" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="101" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A101" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -4702,10 +4864,10 @@
         <v>8</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F101" s="43" t="s">
         <v>96</v>
@@ -4717,10 +4879,10 @@
         <v>13</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A102" s="9">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -4732,10 +4894,10 @@
         <v>8</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F102" s="43" t="s">
         <v>98</v>
@@ -4747,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A103" s="9">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -4762,10 +4924,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103" s="43" t="s">
         <v>100</v>
@@ -4777,10 +4939,10 @@
         <v>13</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A104" s="9">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -4792,25 +4954,25 @@
         <v>8</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F104" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="105" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A105" s="9">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -4822,10 +4984,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F105" s="43" t="s">
         <v>96</v>
@@ -4837,10 +4999,10 @@
         <v>13</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A106" s="9">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -4852,10 +5014,10 @@
         <v>8</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106" s="43" t="s">
         <v>98</v>
@@ -4867,10 +5029,10 @@
         <v>13</v>
       </c>
       <c r="I106" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A107" s="9">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -4882,10 +5044,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F107" s="43" t="s">
         <v>100</v>
@@ -4897,10 +5059,10 @@
         <v>13</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A108" s="9">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -4912,25 +5074,25 @@
         <v>8</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G108" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F108" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="109" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A109" s="9">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -4942,10 +5104,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F109" s="43" t="s">
         <v>96</v>
@@ -4957,10 +5119,10 @@
         <v>13</v>
       </c>
       <c r="I109" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A110" s="9">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -4972,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>98</v>
@@ -4987,10 +5149,10 @@
         <v>13</v>
       </c>
       <c r="I110" s="44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A111" s="9">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -5002,10 +5164,10 @@
         <v>8</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F111" s="43" t="s">
         <v>100</v>
@@ -5017,10 +5179,10 @@
         <v>13</v>
       </c>
       <c r="I111" s="44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="38" customFormat="1" ht="17.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A112" s="9">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -5032,25 +5194,25 @@
         <v>8</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E112" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F112" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" s="38" customFormat="1" ht="17.25">
+    </row>
+    <row r="113" spans="1:27" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A113" s="9">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -5062,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F113" s="43" t="s">
         <v>96</v>
@@ -5077,10 +5239,10 @@
         <v>13</v>
       </c>
       <c r="I113" s="44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A114" s="9">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -5092,10 +5254,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F114" s="43" t="s">
         <v>98</v>
@@ -5107,10 +5269,10 @@
         <v>13</v>
       </c>
       <c r="I114" s="44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A115" s="9">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -5122,10 +5284,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F115" s="43" t="s">
         <v>100</v>
@@ -5137,10 +5299,10 @@
         <v>13</v>
       </c>
       <c r="I115" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" s="38" customFormat="1" ht="17.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" s="38" customFormat="1" ht="17.399999999999999">
       <c r="A116" s="9">
         <v>107</v>
       </c>
@@ -5151,7 +5313,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E116" s="42" t="s">
         <v>108</v>
@@ -5166,10 +5328,10 @@
         <v>13</v>
       </c>
       <c r="I116" s="44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" s="16" customFormat="1" ht="17.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A117" s="9">
         <f t="shared" ref="A117:A148" si="4">ROW(A117)-1</f>
         <v>116</v>
@@ -5181,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E117" s="45" t="s">
         <v>116</v>
@@ -5196,11 +5358,11 @@
         <v>13</v>
       </c>
       <c r="I117" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J117" s="47"/>
     </row>
-    <row r="118" spans="1:27" s="38" customFormat="1" ht="60">
+    <row r="118" spans="1:27" s="38" customFormat="1" ht="57.6">
       <c r="A118" s="9">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -5212,10 +5374,10 @@
         <v>8</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F118" s="42">
         <v>1</v>
@@ -5227,13 +5389,13 @@
         <v>13</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="J118" s="42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" s="16" customFormat="1" ht="17.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A119" s="9">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -5245,10 +5407,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F119" s="42">
         <v>2</v>
@@ -5260,7 +5422,7 @@
         <v>13</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="J119" s="38"/>
       <c r="K119" s="38"/>
@@ -5281,7 +5443,7 @@
       <c r="Z119" s="38"/>
       <c r="AA119" s="38"/>
     </row>
-    <row r="120" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="120" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A120" s="9">
         <f t="shared" si="4"/>
         <v>119</v>
@@ -5293,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F120" s="42">
         <v>3</v>
@@ -5308,7 +5470,7 @@
         <v>13</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="J120" s="38"/>
       <c r="K120" s="38"/>
@@ -5329,7 +5491,7 @@
       <c r="Z120" s="38"/>
       <c r="AA120" s="38"/>
     </row>
-    <row r="121" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="121" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A121" s="9">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -5341,10 +5503,10 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F121" s="42">
         <v>4</v>
@@ -5356,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
@@ -5377,7 +5539,7 @@
       <c r="Z121" s="38"/>
       <c r="AA121" s="38"/>
     </row>
-    <row r="122" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="122" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A122" s="9">
         <f t="shared" si="4"/>
         <v>121</v>
@@ -5389,10 +5551,10 @@
         <v>8</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F122" s="42">
         <v>5</v>
@@ -5404,7 +5566,7 @@
         <v>13</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="J122" s="38"/>
       <c r="K122" s="38"/>
@@ -5425,7 +5587,7 @@
       <c r="Z122" s="38"/>
       <c r="AA122" s="38"/>
     </row>
-    <row r="123" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="123" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A123" s="9">
         <f t="shared" si="4"/>
         <v>122</v>
@@ -5437,10 +5599,10 @@
         <v>8</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F123" s="42">
         <v>6</v>
@@ -5452,7 +5614,7 @@
         <v>13</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
@@ -5473,7 +5635,7 @@
       <c r="Z123" s="38"/>
       <c r="AA123" s="38"/>
     </row>
-    <row r="124" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="124" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A124" s="9">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -5485,10 +5647,10 @@
         <v>8</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F124" s="42">
         <v>7</v>
@@ -5500,7 +5662,7 @@
         <v>13</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
@@ -5521,7 +5683,7 @@
       <c r="Z124" s="38"/>
       <c r="AA124" s="38"/>
     </row>
-    <row r="125" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="125" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A125" s="9">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -5533,10 +5695,10 @@
         <v>8</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F125" s="42">
         <v>8</v>
@@ -5548,7 +5710,7 @@
         <v>13</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="J125" s="38"/>
       <c r="K125" s="38"/>
@@ -5569,7 +5731,7 @@
       <c r="Z125" s="38"/>
       <c r="AA125" s="38"/>
     </row>
-    <row r="126" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="126" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A126" s="9">
         <f t="shared" si="4"/>
         <v>125</v>
@@ -5581,10 +5743,10 @@
         <v>8</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F126" s="42">
         <v>9</v>
@@ -5596,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
@@ -5617,7 +5779,7 @@
       <c r="Z126" s="38"/>
       <c r="AA126" s="38"/>
     </row>
-    <row r="127" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="127" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A127" s="9">
         <f t="shared" si="4"/>
         <v>126</v>
@@ -5629,10 +5791,10 @@
         <v>8</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F127" s="42">
         <v>10</v>
@@ -5644,7 +5806,7 @@
         <v>13</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="J127" s="38"/>
       <c r="K127" s="38"/>
@@ -5665,7 +5827,7 @@
       <c r="Z127" s="38"/>
       <c r="AA127" s="38"/>
     </row>
-    <row r="128" spans="1:27" s="38" customFormat="1" ht="60">
+    <row r="128" spans="1:27" s="38" customFormat="1" ht="57.6">
       <c r="A128" s="9">
         <f t="shared" si="4"/>
         <v>127</v>
@@ -5677,10 +5839,10 @@
         <v>8</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F128" s="42">
         <v>11</v>
@@ -5692,13 +5854,13 @@
         <v>13</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="J128" s="42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" s="16" customFormat="1" ht="17.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A129" s="9">
         <f t="shared" si="4"/>
         <v>128</v>
@@ -5710,10 +5872,10 @@
         <v>8</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F129" s="42">
         <v>12</v>
@@ -5725,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="J129" s="38"/>
       <c r="K129" s="38"/>
@@ -5746,7 +5908,7 @@
       <c r="Z129" s="38"/>
       <c r="AA129" s="38"/>
     </row>
-    <row r="130" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="130" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A130" s="9">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -5758,10 +5920,10 @@
         <v>8</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F130" s="42">
         <v>13</v>
@@ -5773,7 +5935,7 @@
         <v>13</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="J130" s="38"/>
       <c r="K130" s="38"/>
@@ -5794,7 +5956,7 @@
       <c r="Z130" s="38"/>
       <c r="AA130" s="38"/>
     </row>
-    <row r="131" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="131" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A131" s="9">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -5806,10 +5968,10 @@
         <v>8</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F131" s="42">
         <v>14</v>
@@ -5821,7 +5983,7 @@
         <v>13</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="J131" s="38"/>
       <c r="K131" s="38"/>
@@ -5842,7 +6004,7 @@
       <c r="Z131" s="38"/>
       <c r="AA131" s="38"/>
     </row>
-    <row r="132" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="132" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A132" s="9">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -5854,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F132" s="42">
         <v>15</v>
@@ -5869,7 +6031,7 @@
         <v>13</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="J132" s="38"/>
       <c r="K132" s="38"/>
@@ -5890,7 +6052,7 @@
       <c r="Z132" s="38"/>
       <c r="AA132" s="38"/>
     </row>
-    <row r="133" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="133" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A133" s="9">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -5902,10 +6064,10 @@
         <v>8</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F133" s="42">
         <v>16</v>
@@ -5917,7 +6079,7 @@
         <v>13</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
@@ -5938,7 +6100,7 @@
       <c r="Z133" s="38"/>
       <c r="AA133" s="38"/>
     </row>
-    <row r="134" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="134" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A134" s="9">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -5950,10 +6112,10 @@
         <v>8</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F134" s="42">
         <v>17</v>
@@ -5965,7 +6127,7 @@
         <v>13</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
@@ -5986,7 +6148,7 @@
       <c r="Z134" s="38"/>
       <c r="AA134" s="38"/>
     </row>
-    <row r="135" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="135" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A135" s="9">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -5998,10 +6160,10 @@
         <v>8</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F135" s="42">
         <v>18</v>
@@ -6013,7 +6175,7 @@
         <v>13</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="J135" s="38"/>
       <c r="K135" s="38"/>
@@ -6034,7 +6196,7 @@
       <c r="Z135" s="38"/>
       <c r="AA135" s="38"/>
     </row>
-    <row r="136" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="136" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A136" s="9">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -6046,10 +6208,10 @@
         <v>8</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F136" s="42">
         <v>19</v>
@@ -6061,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="J136" s="38"/>
       <c r="K136" s="38"/>
@@ -6082,7 +6244,7 @@
       <c r="Z136" s="38"/>
       <c r="AA136" s="38"/>
     </row>
-    <row r="137" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="137" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A137" s="9">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -6094,10 +6256,10 @@
         <v>8</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F137" s="42">
         <v>20</v>
@@ -6109,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="J137" s="38"/>
       <c r="K137" s="38"/>
@@ -6130,7 +6292,7 @@
       <c r="Z137" s="38"/>
       <c r="AA137" s="38"/>
     </row>
-    <row r="138" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="138" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A138" s="9">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -6142,7 +6304,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E138" s="32" t="s">
         <v>5</v>
@@ -6157,7 +6319,7 @@
         <v>13</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="J138" s="38"/>
       <c r="K138" s="38"/>
@@ -6178,7 +6340,7 @@
       <c r="Z138" s="38"/>
       <c r="AA138" s="38"/>
     </row>
-    <row r="139" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="139" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A139" s="9">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -6190,7 +6352,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E139" s="32" t="s">
         <v>5</v>
@@ -6205,7 +6367,7 @@
         <v>13</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="J139" s="38"/>
       <c r="K139" s="38"/>
@@ -6226,7 +6388,7 @@
       <c r="Z139" s="38"/>
       <c r="AA139" s="38"/>
     </row>
-    <row r="140" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="140" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A140" s="9">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -6238,7 +6400,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E140" s="32" t="s">
         <v>5</v>
@@ -6253,7 +6415,7 @@
         <v>13</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
@@ -6274,7 +6436,7 @@
       <c r="Z140" s="38"/>
       <c r="AA140" s="38"/>
     </row>
-    <row r="141" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="141" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A141" s="9">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -6286,7 +6448,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E141" s="32" t="s">
         <v>5</v>
@@ -6301,7 +6463,7 @@
         <v>13</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="J141" s="38"/>
       <c r="K141" s="38"/>
@@ -6322,7 +6484,7 @@
       <c r="Z141" s="38"/>
       <c r="AA141" s="38"/>
     </row>
-    <row r="142" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="142" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A142" s="9">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -6334,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E142" s="32" t="s">
         <v>5</v>
@@ -6349,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="J142" s="38"/>
       <c r="K142" s="38"/>
@@ -6370,7 +6532,7 @@
       <c r="Z142" s="38"/>
       <c r="AA142" s="38"/>
     </row>
-    <row r="143" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="143" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A143" s="9">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -6382,7 +6544,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E143" s="32" t="s">
         <v>5</v>
@@ -6397,7 +6559,7 @@
         <v>13</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
@@ -6418,7 +6580,7 @@
       <c r="Z143" s="38"/>
       <c r="AA143" s="38"/>
     </row>
-    <row r="144" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="144" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A144" s="9">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -6430,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E144" s="32" t="s">
         <v>5</v>
@@ -6445,7 +6607,7 @@
         <v>13</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
@@ -6466,7 +6628,7 @@
       <c r="Z144" s="38"/>
       <c r="AA144" s="38"/>
     </row>
-    <row r="145" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="145" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A145" s="9">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -6478,7 +6640,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>5</v>
@@ -6493,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="J145" s="38"/>
       <c r="K145" s="38"/>
@@ -6514,7 +6676,7 @@
       <c r="Z145" s="38"/>
       <c r="AA145" s="38"/>
     </row>
-    <row r="146" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="146" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A146" s="9">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -6526,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>5</v>
@@ -6541,7 +6703,7 @@
         <v>13</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
@@ -6562,7 +6724,7 @@
       <c r="Z146" s="38"/>
       <c r="AA146" s="38"/>
     </row>
-    <row r="147" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="147" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A147" s="9">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -6574,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E147" s="32" t="s">
         <v>5</v>
@@ -6589,7 +6751,7 @@
         <v>13</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="J147" s="38"/>
       <c r="K147" s="38"/>
@@ -6610,7 +6772,7 @@
       <c r="Z147" s="38"/>
       <c r="AA147" s="38"/>
     </row>
-    <row r="148" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="148" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A148" s="9">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -6622,7 +6784,7 @@
         <v>8</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E148" s="32" t="s">
         <v>5</v>
@@ -6637,7 +6799,7 @@
         <v>13</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="J148" s="38"/>
       <c r="K148" s="38"/>
@@ -6658,7 +6820,7 @@
       <c r="Z148" s="38"/>
       <c r="AA148" s="38"/>
     </row>
-    <row r="149" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="149" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A149" s="9">
         <f t="shared" ref="A149:A201" si="5">ROW(A149)-1</f>
         <v>148</v>
@@ -6670,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E149" s="32" t="s">
         <v>5</v>
@@ -6685,7 +6847,7 @@
         <v>13</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="J149" s="38"/>
       <c r="K149" s="38"/>
@@ -6706,7 +6868,7 @@
       <c r="Z149" s="38"/>
       <c r="AA149" s="38"/>
     </row>
-    <row r="150" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="150" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A150" s="9">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -6718,7 +6880,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E150" s="32" t="s">
         <v>5</v>
@@ -6733,7 +6895,7 @@
         <v>13</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="J150" s="38"/>
       <c r="K150" s="38"/>
@@ -6754,7 +6916,7 @@
       <c r="Z150" s="38"/>
       <c r="AA150" s="38"/>
     </row>
-    <row r="151" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="151" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A151" s="9">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -6766,7 +6928,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E151" s="32" t="s">
         <v>5</v>
@@ -6781,7 +6943,7 @@
         <v>13</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="J151" s="38"/>
       <c r="K151" s="38"/>
@@ -6802,7 +6964,7 @@
       <c r="Z151" s="38"/>
       <c r="AA151" s="38"/>
     </row>
-    <row r="152" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="152" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A152" s="9">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -6814,7 +6976,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E152" s="32" t="s">
         <v>5</v>
@@ -6829,7 +6991,7 @@
         <v>13</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="J152" s="38"/>
       <c r="K152" s="38"/>
@@ -6850,7 +7012,7 @@
       <c r="Z152" s="38"/>
       <c r="AA152" s="38"/>
     </row>
-    <row r="153" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="153" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A153" s="9">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -6862,7 +7024,7 @@
         <v>8</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E153" s="32" t="s">
         <v>5</v>
@@ -6877,7 +7039,7 @@
         <v>13</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="J153" s="38"/>
       <c r="K153" s="38"/>
@@ -6898,7 +7060,7 @@
       <c r="Z153" s="38"/>
       <c r="AA153" s="38"/>
     </row>
-    <row r="154" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="154" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A154" s="9">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -6910,7 +7072,7 @@
         <v>8</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>5</v>
@@ -6925,7 +7087,7 @@
         <v>13</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="J154" s="38"/>
       <c r="K154" s="38"/>
@@ -6946,7 +7108,7 @@
       <c r="Z154" s="38"/>
       <c r="AA154" s="38"/>
     </row>
-    <row r="155" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="155" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A155" s="9">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -6958,7 +7120,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E155" s="32" t="s">
         <v>5</v>
@@ -6973,7 +7135,7 @@
         <v>13</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="J155" s="38"/>
       <c r="K155" s="38"/>
@@ -6994,7 +7156,7 @@
       <c r="Z155" s="38"/>
       <c r="AA155" s="38"/>
     </row>
-    <row r="156" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="156" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A156" s="9">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -7006,7 +7168,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E156" s="32" t="s">
         <v>5</v>
@@ -7021,7 +7183,7 @@
         <v>13</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="J156" s="38"/>
       <c r="K156" s="38"/>
@@ -7042,7 +7204,7 @@
       <c r="Z156" s="38"/>
       <c r="AA156" s="38"/>
     </row>
-    <row r="157" spans="1:27" s="16" customFormat="1" ht="17.25">
+    <row r="157" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A157" s="9">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -7054,7 +7216,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E157" s="32" t="s">
         <v>5</v>
@@ -7069,7 +7231,7 @@
         <v>13</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="J157" s="38"/>
       <c r="K157" s="38"/>
@@ -7090,7 +7252,7 @@
       <c r="Z157" s="38"/>
       <c r="AA157" s="38"/>
     </row>
-    <row r="158" spans="1:27" s="16" customFormat="1" ht="30">
+    <row r="158" spans="1:27" s="16" customFormat="1" ht="17.399999999999999">
       <c r="A158" s="9">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -7102,10 +7264,10 @@
         <v>8</v>
       </c>
       <c r="D158" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>23</v>
@@ -7117,10 +7279,10 @@
         <v>13</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="30">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="17.399999999999999">
       <c r="A159" s="9">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -7132,10 +7294,10 @@
         <v>8</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F159" s="37" t="s">
         <v>26</v>
@@ -7147,10 +7309,10 @@
         <v>13</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="17.399999999999999">
       <c r="A160" s="9">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -7162,10 +7324,10 @@
         <v>8</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E160" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F160" s="37" t="s">
         <v>27</v>
@@ -7177,10 +7339,10 @@
         <v>13</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="17.399999999999999">
       <c r="A161" s="9">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -7192,10 +7354,10 @@
         <v>8</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E161" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F161" s="37" t="s">
         <v>28</v>
@@ -7207,10 +7369,10 @@
         <v>13</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="17.399999999999999">
       <c r="A162" s="9">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -7222,10 +7384,10 @@
         <v>8</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E162" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F162" s="37" t="s">
         <v>29</v>
@@ -7237,10 +7399,10 @@
         <v>13</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="17.399999999999999">
       <c r="A163" s="9">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -7252,13 +7414,13 @@
         <v>8</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E163" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G163" s="37" t="s">
         <v>8</v>
@@ -7267,10 +7429,10 @@
         <v>13</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="30">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="17.399999999999999">
       <c r="A164" s="9">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -7282,10 +7444,10 @@
         <v>8</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E164" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F164" s="37" t="s">
         <v>23</v>
@@ -7297,10 +7459,10 @@
         <v>13</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="30">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="17.399999999999999">
       <c r="A165" s="9">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -7312,10 +7474,10 @@
         <v>8</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E165" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F165" s="37" t="s">
         <v>26</v>
@@ -7327,10 +7489,10 @@
         <v>13</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="17.399999999999999">
       <c r="A166" s="9">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -7342,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E166" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F166" s="37" t="s">
         <v>27</v>
@@ -7357,10 +7519,10 @@
         <v>13</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="30">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="17.399999999999999">
       <c r="A167" s="9">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -7372,10 +7534,10 @@
         <v>8</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E167" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F167" s="37" t="s">
         <v>28</v>
@@ -7387,10 +7549,10 @@
         <v>13</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="17.399999999999999">
       <c r="A168" s="9">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -7402,10 +7564,10 @@
         <v>8</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E168" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F168" s="37" t="s">
         <v>29</v>
@@ -7417,10 +7579,10 @@
         <v>13</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A169" s="9">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -7432,13 +7594,13 @@
         <v>8</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E169" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F169" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G169" s="37" t="s">
         <v>8</v>
@@ -7447,10 +7609,10 @@
         <v>13</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A170" s="9">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -7462,7 +7624,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="56" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E170" s="62" t="s">
         <v>116</v>
@@ -7477,10 +7639,10 @@
         <v>13</v>
       </c>
       <c r="I170" s="64" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A171" s="9">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -7492,10 +7654,10 @@
         <v>8</v>
       </c>
       <c r="D171" s="60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E171" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F171" s="57">
         <v>1</v>
@@ -7507,11 +7669,11 @@
         <v>89</v>
       </c>
       <c r="I171" s="61" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="J171" s="61"/>
     </row>
-    <row r="172" spans="1:10" ht="17.25">
+    <row r="172" spans="1:10" ht="17.399999999999999">
       <c r="A172" s="9">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -7523,10 +7685,10 @@
         <v>8</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E172" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F172" s="37">
         <v>2</v>
@@ -7538,10 +7700,10 @@
         <v>89</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="17.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="17.399999999999999">
       <c r="A173" s="9">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -7553,10 +7715,10 @@
         <v>8</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E173" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F173" s="37">
         <v>3</v>
@@ -7568,10 +7730,10 @@
         <v>89</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="17.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="17.399999999999999">
       <c r="A174" s="9">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -7583,10 +7745,10 @@
         <v>8</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E174" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F174" s="37">
         <v>4</v>
@@ -7598,10 +7760,10 @@
         <v>89</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="17.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="17.399999999999999">
       <c r="A175" s="9">
         <f t="shared" si="5"/>
         <v>174</v>
@@ -7613,10 +7775,10 @@
         <v>8</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E175" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F175" s="37">
         <v>5</v>
@@ -7627,11 +7789,8 @@
       <c r="H175" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="17.25">
+    </row>
+    <row r="176" spans="1:10" ht="17.399999999999999">
       <c r="A176" s="9">
         <f t="shared" si="5"/>
         <v>175</v>
@@ -7643,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E176" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F176" s="37">
         <v>6</v>
@@ -7657,11 +7816,8 @@
       <c r="H176" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="17.25">
+    </row>
+    <row r="177" spans="1:9" ht="17.399999999999999">
       <c r="A177" s="9">
         <f t="shared" si="5"/>
         <v>176</v>
@@ -7673,10 +7829,10 @@
         <v>8</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E177" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F177" s="37">
         <v>7</v>
@@ -7687,11 +7843,8 @@
       <c r="H177" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="17.25">
+    </row>
+    <row r="178" spans="1:9" ht="17.399999999999999">
       <c r="A178" s="9">
         <f t="shared" si="5"/>
         <v>177</v>
@@ -7703,10 +7856,10 @@
         <v>8</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E178" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F178" s="37">
         <v>8</v>
@@ -7717,11 +7870,8 @@
       <c r="H178" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="17.25">
+    </row>
+    <row r="179" spans="1:9" ht="17.399999999999999">
       <c r="A179" s="9">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -7733,10 +7883,10 @@
         <v>8</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E179" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F179" s="37">
         <v>9</v>
@@ -7747,11 +7897,8 @@
       <c r="H179" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="17.25">
+    </row>
+    <row r="180" spans="1:9" ht="17.399999999999999">
       <c r="A180" s="9">
         <f t="shared" si="5"/>
         <v>179</v>
@@ -7763,10 +7910,10 @@
         <v>8</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E180" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F180" s="37">
         <v>10</v>
@@ -7777,11 +7924,8 @@
       <c r="H180" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="17.25">
+    </row>
+    <row r="181" spans="1:9" ht="17.399999999999999">
       <c r="A181" s="9">
         <f t="shared" si="5"/>
         <v>180</v>
@@ -7793,10 +7937,10 @@
         <v>8</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E181" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F181" s="57">
         <v>1</v>
@@ -7808,10 +7952,10 @@
         <v>89</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="17.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="17.399999999999999">
       <c r="A182" s="9">
         <f t="shared" si="5"/>
         <v>181</v>
@@ -7823,10 +7967,10 @@
         <v>8</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E182" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F182" s="37">
         <v>2</v>
@@ -7838,10 +7982,10 @@
         <v>89</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="17.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="17.399999999999999">
       <c r="A183" s="9">
         <f t="shared" si="5"/>
         <v>182</v>
@@ -7853,10 +7997,10 @@
         <v>8</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E183" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F183" s="37">
         <v>3</v>
@@ -7868,10 +8012,10 @@
         <v>89</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="17.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="17.399999999999999">
       <c r="A184" s="9">
         <f t="shared" si="5"/>
         <v>183</v>
@@ -7883,10 +8027,10 @@
         <v>8</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E184" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F184" s="37">
         <v>4</v>
@@ -7898,10 +8042,10 @@
         <v>89</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="17.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="17.399999999999999">
       <c r="A185" s="9">
         <f t="shared" si="5"/>
         <v>184</v>
@@ -7913,10 +8057,10 @@
         <v>8</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E185" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F185" s="37">
         <v>5</v>
@@ -7927,11 +8071,8 @@
       <c r="H185" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="17.25">
+    </row>
+    <row r="186" spans="1:9" ht="17.399999999999999">
       <c r="A186" s="9">
         <f t="shared" si="5"/>
         <v>185</v>
@@ -7943,10 +8084,10 @@
         <v>8</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E186" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F186" s="37">
         <v>6</v>
@@ -7957,11 +8098,8 @@
       <c r="H186" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I186" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="17.25">
+    </row>
+    <row r="187" spans="1:9" ht="17.399999999999999">
       <c r="A187" s="9">
         <f t="shared" si="5"/>
         <v>186</v>
@@ -7973,10 +8111,10 @@
         <v>8</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E187" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F187" s="37">
         <v>7</v>
@@ -7987,11 +8125,8 @@
       <c r="H187" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="17.25">
+    </row>
+    <row r="188" spans="1:9" ht="17.399999999999999">
       <c r="A188" s="9">
         <f t="shared" si="5"/>
         <v>187</v>
@@ -8003,10 +8138,10 @@
         <v>8</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E188" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F188" s="37">
         <v>8</v>
@@ -8017,11 +8152,8 @@
       <c r="H188" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I188" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="17.25">
+    </row>
+    <row r="189" spans="1:9" ht="17.399999999999999">
       <c r="A189" s="9">
         <f t="shared" si="5"/>
         <v>188</v>
@@ -8033,10 +8165,10 @@
         <v>8</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E189" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F189" s="37">
         <v>9</v>
@@ -8047,11 +8179,8 @@
       <c r="H189" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="17.25">
+    </row>
+    <row r="190" spans="1:9" ht="17.399999999999999">
       <c r="A190" s="9">
         <f t="shared" si="5"/>
         <v>189</v>
@@ -8063,10 +8192,10 @@
         <v>8</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E190" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F190" s="37">
         <v>10</v>
@@ -8077,11 +8206,8 @@
       <c r="H190" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="17.25">
+    </row>
+    <row r="191" spans="1:9" ht="17.399999999999999">
       <c r="A191" s="9">
         <f t="shared" si="5"/>
         <v>190</v>
@@ -8093,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E191" s="50">
         <v>1</v>
@@ -8108,10 +8234,10 @@
         <v>13</v>
       </c>
       <c r="I191" s="52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="17.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="17.399999999999999">
       <c r="A192" s="9">
         <f t="shared" si="5"/>
         <v>191</v>
@@ -8123,7 +8249,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E192" s="53">
         <v>2</v>
@@ -8138,10 +8264,10 @@
         <v>13</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="17.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="17.399999999999999">
       <c r="A193" s="9">
         <f t="shared" si="5"/>
         <v>192</v>
@@ -8153,7 +8279,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E193" s="53">
         <v>3</v>
@@ -8168,10 +8294,10 @@
         <v>13</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="17.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="17.399999999999999">
       <c r="A194" s="9">
         <f t="shared" si="5"/>
         <v>193</v>
@@ -8183,7 +8309,7 @@
         <v>8</v>
       </c>
       <c r="D194" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E194" s="53">
         <v>4</v>
@@ -8198,10 +8324,10 @@
         <v>13</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="17.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="17.399999999999999">
       <c r="A195" s="9">
         <f t="shared" si="5"/>
         <v>194</v>
@@ -8213,7 +8339,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E195" s="53">
         <v>5</v>
@@ -8228,10 +8354,10 @@
         <v>13</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="17.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="17.399999999999999">
       <c r="A196" s="9">
         <f t="shared" si="5"/>
         <v>195</v>
@@ -8243,7 +8369,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E196" s="53">
         <v>6</v>
@@ -8258,10 +8384,10 @@
         <v>13</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="17.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="17.399999999999999">
       <c r="A197" s="9">
         <f t="shared" si="5"/>
         <v>196</v>
@@ -8273,7 +8399,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E197" s="53">
         <v>7</v>
@@ -8288,10 +8414,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="17.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="17.399999999999999">
       <c r="A198" s="9">
         <f t="shared" si="5"/>
         <v>197</v>
@@ -8303,7 +8429,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E198" s="53">
         <v>8</v>
@@ -8318,10 +8444,10 @@
         <v>13</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="17.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="17.399999999999999">
       <c r="A199" s="9">
         <f t="shared" si="5"/>
         <v>198</v>
@@ -8333,7 +8459,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E199" s="53">
         <v>9</v>
@@ -8348,10 +8474,10 @@
         <v>13</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="17.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="17.399999999999999">
       <c r="A200" s="9">
         <f t="shared" si="5"/>
         <v>199</v>
@@ -8363,7 +8489,7 @@
         <v>8</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E200" s="53">
         <v>10</v>
@@ -8378,10 +8504,10 @@
         <v>13</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="17.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="17.399999999999999">
       <c r="A201" s="9">
         <f t="shared" si="5"/>
         <v>200</v>
@@ -8393,7 +8519,7 @@
         <v>8</v>
       </c>
       <c r="D201" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E201" s="50">
         <v>11</v>
@@ -8408,10 +8534,10 @@
         <v>13</v>
       </c>
       <c r="I201" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="17.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="17.399999999999999">
       <c r="A202" s="9">
         <f t="shared" ref="A202:A233" si="6">ROW(A202)-1</f>
         <v>201</v>
@@ -8423,7 +8549,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E202" s="53">
         <v>12</v>
@@ -8438,10 +8564,10 @@
         <v>13</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="17.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="17.399999999999999">
       <c r="A203" s="9">
         <f t="shared" si="6"/>
         <v>202</v>
@@ -8453,7 +8579,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E203" s="53">
         <v>13</v>
@@ -8468,10 +8594,10 @@
         <v>13</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="17.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="17.399999999999999">
       <c r="A204" s="9">
         <f t="shared" si="6"/>
         <v>203</v>
@@ -8483,7 +8609,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E204" s="53">
         <v>14</v>
@@ -8498,10 +8624,10 @@
         <v>13</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="17.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="17.399999999999999">
       <c r="A205" s="9">
         <f t="shared" si="6"/>
         <v>204</v>
@@ -8513,7 +8639,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E205" s="53">
         <v>15</v>
@@ -8528,10 +8654,10 @@
         <v>13</v>
       </c>
       <c r="I205" s="52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="17.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="17.399999999999999">
       <c r="A206" s="9">
         <f t="shared" si="6"/>
         <v>205</v>
@@ -8543,7 +8669,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E206" s="50">
         <v>16</v>
@@ -8558,10 +8684,10 @@
         <v>13</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="17.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="17.399999999999999">
       <c r="A207" s="9">
         <f t="shared" si="6"/>
         <v>206</v>
@@ -8573,7 +8699,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E207" s="53">
         <v>17</v>
@@ -8588,10 +8714,10 @@
         <v>13</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="17.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="17.399999999999999">
       <c r="A208" s="9">
         <f t="shared" si="6"/>
         <v>207</v>
@@ -8603,7 +8729,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E208" s="53">
         <v>18</v>
@@ -8618,10 +8744,10 @@
         <v>13</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="17.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="17.399999999999999">
       <c r="A209" s="9">
         <f t="shared" si="6"/>
         <v>208</v>
@@ -8633,7 +8759,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E209" s="53">
         <v>19</v>
@@ -8648,10 +8774,10 @@
         <v>13</v>
       </c>
       <c r="I209" s="52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="17.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="17.399999999999999">
       <c r="A210" s="9">
         <f t="shared" si="6"/>
         <v>209</v>
@@ -8663,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E210" s="53">
         <v>20</v>
@@ -8678,10 +8804,10 @@
         <v>13</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="52" customFormat="1" ht="17.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="52" customFormat="1" ht="17.399999999999999">
       <c r="A211" s="9">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -8693,10 +8819,10 @@
         <v>8</v>
       </c>
       <c r="D211" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F211" s="51">
         <v>1</v>
@@ -8708,10 +8834,10 @@
         <v>13</v>
       </c>
       <c r="I211" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="17.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="17.399999999999999">
       <c r="A212" s="9">
         <f t="shared" si="6"/>
         <v>211</v>
@@ -8723,10 +8849,10 @@
         <v>8</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E212" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F212" s="37">
         <v>2</v>
@@ -8738,10 +8864,10 @@
         <v>13</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="17.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="17.399999999999999">
       <c r="A213" s="9">
         <f t="shared" si="6"/>
         <v>212</v>
@@ -8753,10 +8879,10 @@
         <v>8</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E213" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F213" s="37">
         <v>3</v>
@@ -8768,10 +8894,10 @@
         <v>13</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="17.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="17.399999999999999">
       <c r="A214" s="9">
         <f t="shared" si="6"/>
         <v>213</v>
@@ -8783,10 +8909,10 @@
         <v>8</v>
       </c>
       <c r="D214" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E214" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F214" s="37">
         <v>4</v>
@@ -8798,10 +8924,10 @@
         <v>13</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="17.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="17.399999999999999">
       <c r="A215" s="9">
         <f t="shared" si="6"/>
         <v>214</v>
@@ -8813,10 +8939,10 @@
         <v>8</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E215" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F215" s="37">
         <v>5</v>
@@ -8827,11 +8953,8 @@
       <c r="H215" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="17.25">
+    </row>
+    <row r="216" spans="1:9" ht="17.399999999999999">
       <c r="A216" s="9">
         <f t="shared" si="6"/>
         <v>215</v>
@@ -8843,10 +8966,10 @@
         <v>8</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E216" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F216" s="37">
         <v>6</v>
@@ -8857,11 +8980,8 @@
       <c r="H216" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="17.25">
+    </row>
+    <row r="217" spans="1:9" ht="17.399999999999999">
       <c r="A217" s="9">
         <f t="shared" si="6"/>
         <v>216</v>
@@ -8873,10 +8993,10 @@
         <v>8</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E217" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F217" s="37">
         <v>7</v>
@@ -8887,11 +9007,8 @@
       <c r="H217" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I217" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="17.25">
+    </row>
+    <row r="218" spans="1:9" ht="17.399999999999999">
       <c r="A218" s="9">
         <f t="shared" si="6"/>
         <v>217</v>
@@ -8903,10 +9020,10 @@
         <v>8</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E218" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F218" s="37">
         <v>8</v>
@@ -8917,11 +9034,8 @@
       <c r="H218" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I218" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="17.25">
+    </row>
+    <row r="219" spans="1:9" ht="17.399999999999999">
       <c r="A219" s="9">
         <f t="shared" si="6"/>
         <v>218</v>
@@ -8933,10 +9047,10 @@
         <v>8</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E219" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F219" s="37">
         <v>9</v>
@@ -8947,11 +9061,8 @@
       <c r="H219" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I219" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="17.25">
+    </row>
+    <row r="220" spans="1:9" ht="17.399999999999999">
       <c r="A220" s="9">
         <f t="shared" si="6"/>
         <v>219</v>
@@ -8963,10 +9074,10 @@
         <v>8</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E220" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F220" s="37">
         <v>10</v>
@@ -8976,9 +9087,6 @@
       </c>
       <c r="H220" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="52" customFormat="1" ht="61.5" customHeight="1">
@@ -8993,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D221" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E221" s="50" t="s">
         <v>225</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>228</v>
       </c>
       <c r="F221" s="51">
         <v>1</v>
@@ -9008,10 +9116,10 @@
         <v>13</v>
       </c>
       <c r="I221" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="17.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="17.399999999999999">
       <c r="A222" s="9">
         <f t="shared" si="6"/>
         <v>221</v>
@@ -9023,10 +9131,10 @@
         <v>8</v>
       </c>
       <c r="D222" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E222" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E222" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F222" s="37">
         <v>2</v>
@@ -9038,10 +9146,10 @@
         <v>13</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="17.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="17.399999999999999">
       <c r="A223" s="9">
         <f t="shared" si="6"/>
         <v>222</v>
@@ -9053,10 +9161,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E223" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E223" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F223" s="37">
         <v>3</v>
@@ -9068,10 +9176,10 @@
         <v>13</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="17.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="17.399999999999999">
       <c r="A224" s="9">
         <f t="shared" si="6"/>
         <v>223</v>
@@ -9083,10 +9191,10 @@
         <v>8</v>
       </c>
       <c r="D224" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E224" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E224" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F224" s="37">
         <v>4</v>
@@ -9098,10 +9206,10 @@
         <v>13</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="17.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="17.399999999999999">
       <c r="A225" s="9">
         <f t="shared" si="6"/>
         <v>224</v>
@@ -9113,10 +9221,10 @@
         <v>8</v>
       </c>
       <c r="D225" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E225" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E225" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F225" s="37">
         <v>5</v>
@@ -9127,11 +9235,8 @@
       <c r="H225" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I225" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="17.25">
+    </row>
+    <row r="226" spans="1:9" ht="17.399999999999999">
       <c r="A226" s="9">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -9143,10 +9248,10 @@
         <v>8</v>
       </c>
       <c r="D226" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E226" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E226" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F226" s="37">
         <v>6</v>
@@ -9157,11 +9262,8 @@
       <c r="H226" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I226" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="17.25">
+    </row>
+    <row r="227" spans="1:9" ht="17.399999999999999">
       <c r="A227" s="9">
         <f t="shared" si="6"/>
         <v>226</v>
@@ -9173,10 +9275,10 @@
         <v>8</v>
       </c>
       <c r="D227" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E227" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E227" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F227" s="37">
         <v>7</v>
@@ -9187,11 +9289,8 @@
       <c r="H227" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I227" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="17.25">
+    </row>
+    <row r="228" spans="1:9" ht="17.399999999999999">
       <c r="A228" s="9">
         <f t="shared" si="6"/>
         <v>227</v>
@@ -9203,11 +9302,11 @@
         <v>8</v>
       </c>
       <c r="D228" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E228" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="E228" s="55" t="s">
-        <v>228</v>
-      </c>
       <c r="F228" s="37">
         <v>8</v>
       </c>
@@ -9217,11 +9316,8 @@
       <c r="H228" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I228" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="17.25">
+    </row>
+    <row r="229" spans="1:9" ht="17.399999999999999">
       <c r="A229" s="9">
         <f t="shared" si="6"/>
         <v>228</v>
@@ -9233,10 +9329,10 @@
         <v>8</v>
       </c>
       <c r="D229" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E229" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E229" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F229" s="37">
         <v>9</v>
@@ -9247,11 +9343,8 @@
       <c r="H229" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I229" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="17.25">
+    </row>
+    <row r="230" spans="1:9" ht="17.399999999999999">
       <c r="A230" s="9">
         <f t="shared" si="6"/>
         <v>229</v>
@@ -9263,10 +9356,10 @@
         <v>8</v>
       </c>
       <c r="D230" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E230" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="E230" s="55" t="s">
-        <v>228</v>
       </c>
       <c r="F230" s="37">
         <v>10</v>
@@ -9277,11 +9370,8 @@
       <c r="H230" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I230" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" s="52" customFormat="1" ht="17.25">
+    </row>
+    <row r="231" spans="1:9" s="52" customFormat="1" ht="17.399999999999999">
       <c r="A231" s="9">
         <f t="shared" si="6"/>
         <v>230</v>
@@ -9293,13 +9383,13 @@
         <v>8</v>
       </c>
       <c r="D231" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E231" s="50">
         <v>1</v>
       </c>
       <c r="F231" s="50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G231" s="50" t="s">
         <v>8</v>
@@ -9308,10 +9398,10 @@
         <v>13</v>
       </c>
       <c r="I231" s="52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="17.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="17.399999999999999">
       <c r="A232" s="9">
         <f t="shared" si="6"/>
         <v>231</v>
@@ -9323,13 +9413,13 @@
         <v>8</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E232" s="53">
         <v>1</v>
       </c>
       <c r="F232" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G232" s="53" t="s">
         <v>8</v>
@@ -9338,10 +9428,10 @@
         <v>13</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="17.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="17.399999999999999">
       <c r="A233" s="9">
         <f t="shared" si="6"/>
         <v>232</v>
@@ -9353,13 +9443,13 @@
         <v>8</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E233" s="53">
         <v>1</v>
       </c>
       <c r="F233" s="53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G233" s="53" t="s">
         <v>8</v>
@@ -9368,10 +9458,10 @@
         <v>13</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="17.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="17.399999999999999">
       <c r="A234" s="9">
         <f t="shared" ref="A234:A243" si="7">ROW(A234)-1</f>
         <v>233</v>
@@ -9383,13 +9473,13 @@
         <v>8</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E234" s="53">
         <v>1</v>
       </c>
       <c r="F234" s="53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G234" s="53" t="s">
         <v>8</v>
@@ -9398,10 +9488,10 @@
         <v>13</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="17.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="17.399999999999999">
       <c r="A235" s="9">
         <f t="shared" si="7"/>
         <v>234</v>
@@ -9413,13 +9503,13 @@
         <v>8</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E235" s="53">
         <v>2</v>
       </c>
       <c r="F235" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G235" s="53" t="s">
         <v>8</v>
@@ -9428,10 +9518,10 @@
         <v>13</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="17.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="17.399999999999999">
       <c r="A236" s="9">
         <f t="shared" si="7"/>
         <v>235</v>
@@ -9443,13 +9533,13 @@
         <v>8</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E236" s="53">
         <v>2</v>
       </c>
       <c r="F236" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G236" s="53" t="s">
         <v>8</v>
@@ -9458,10 +9548,10 @@
         <v>13</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="17.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="17.399999999999999">
       <c r="A237" s="9">
         <f t="shared" si="7"/>
         <v>236</v>
@@ -9473,13 +9563,13 @@
         <v>8</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E237" s="53">
         <v>2</v>
       </c>
       <c r="F237" s="53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G237" s="53" t="s">
         <v>8</v>
@@ -9488,10 +9578,10 @@
         <v>13</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="17.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="17.399999999999999">
       <c r="A238" s="9">
         <f t="shared" si="7"/>
         <v>237</v>
@@ -9503,13 +9593,13 @@
         <v>8</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E238" s="53">
         <v>2</v>
       </c>
       <c r="F238" s="53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G238" s="53" t="s">
         <v>8</v>
@@ -9518,10 +9608,10 @@
         <v>13</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="17.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="17.399999999999999">
       <c r="A239" s="9">
         <f t="shared" si="7"/>
         <v>238</v>
@@ -9533,13 +9623,13 @@
         <v>8</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E239" s="53">
         <v>3</v>
       </c>
       <c r="F239" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G239" s="53" t="s">
         <v>8</v>
@@ -9548,10 +9638,10 @@
         <v>13</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="17.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="17.399999999999999">
       <c r="A240" s="9">
         <f t="shared" si="7"/>
         <v>239</v>
@@ -9563,13 +9653,13 @@
         <v>8</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E240" s="53">
         <v>3</v>
       </c>
       <c r="F240" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G240" s="53" t="s">
         <v>8</v>
@@ -9578,10 +9668,10 @@
         <v>13</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="17.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="17.399999999999999">
       <c r="A241" s="9">
         <f t="shared" si="7"/>
         <v>240</v>
@@ -9593,13 +9683,13 @@
         <v>8</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E241" s="53">
         <v>3</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G241" s="53" t="s">
         <v>8</v>
@@ -9608,10 +9698,10 @@
         <v>13</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="17.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="17.399999999999999">
       <c r="A242" s="9">
         <f t="shared" si="7"/>
         <v>241</v>
@@ -9623,13 +9713,13 @@
         <v>8</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E242" s="53">
         <v>3</v>
       </c>
       <c r="F242" s="53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G242" s="53" t="s">
         <v>8</v>
@@ -9638,10 +9728,10 @@
         <v>13</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" s="52" customFormat="1" ht="17.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="52" customFormat="1" ht="17.399999999999999">
       <c r="A243" s="9">
         <f t="shared" si="7"/>
         <v>242</v>
@@ -9653,13 +9743,13 @@
         <v>8</v>
       </c>
       <c r="D243" s="45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E243" s="50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F243" s="50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G243" s="51" t="s">
         <v>8</v>
@@ -9668,7 +9758,7 @@
         <v>13</v>
       </c>
       <c r="I243" s="52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
